--- a/BackTest/2020-01-23 BackTest FNB.xlsx
+++ b/BackTest/2020-01-23 BackTest FNB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M286"/>
+  <dimension ref="A1:M287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.21</v>
+        <v>2.212</v>
       </c>
       <c r="C2" t="n">
-        <v>2.21</v>
+        <v>2.212</v>
       </c>
       <c r="D2" t="n">
-        <v>2.21</v>
+        <v>2.212</v>
       </c>
       <c r="E2" t="n">
-        <v>2.21</v>
+        <v>2.212</v>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>25973.6104</v>
       </c>
       <c r="G2" t="n">
-        <v>2.216316666666665</v>
+        <v>2.216483333333331</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.212</v>
+        <v>2.21</v>
       </c>
       <c r="C3" t="n">
-        <v>2.212</v>
+        <v>2.21</v>
       </c>
       <c r="D3" t="n">
-        <v>2.212</v>
+        <v>2.21</v>
       </c>
       <c r="E3" t="n">
-        <v>2.212</v>
+        <v>2.21</v>
       </c>
       <c r="F3" t="n">
-        <v>1526.3896</v>
+        <v>250</v>
       </c>
       <c r="G3" t="n">
-        <v>2.216049999999998</v>
+        <v>2.216316666666665</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.216</v>
+        <v>2.212</v>
       </c>
       <c r="C4" t="n">
-        <v>2.216</v>
+        <v>2.212</v>
       </c>
       <c r="D4" t="n">
-        <v>2.216</v>
+        <v>2.212</v>
       </c>
       <c r="E4" t="n">
-        <v>2.216</v>
+        <v>2.212</v>
       </c>
       <c r="F4" t="n">
-        <v>3070.9031</v>
+        <v>1526.3896</v>
       </c>
       <c r="G4" t="n">
-        <v>2.215849999999998</v>
+        <v>2.216049999999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>2.216</v>
       </c>
       <c r="F5" t="n">
-        <v>101879.8157</v>
+        <v>3070.9031</v>
       </c>
       <c r="G5" t="n">
-        <v>2.215783333333332</v>
+        <v>2.215849999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.212</v>
+        <v>2.216</v>
       </c>
       <c r="C6" t="n">
-        <v>2.212</v>
+        <v>2.216</v>
       </c>
       <c r="D6" t="n">
-        <v>2.212</v>
+        <v>2.216</v>
       </c>
       <c r="E6" t="n">
-        <v>2.212</v>
+        <v>2.216</v>
       </c>
       <c r="F6" t="n">
-        <v>240</v>
+        <v>101879.8157</v>
       </c>
       <c r="G6" t="n">
-        <v>2.215566666666665</v>
+        <v>2.215783333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.216</v>
+        <v>2.212</v>
       </c>
       <c r="C7" t="n">
-        <v>2.216</v>
+        <v>2.212</v>
       </c>
       <c r="D7" t="n">
-        <v>2.216</v>
+        <v>2.212</v>
       </c>
       <c r="E7" t="n">
-        <v>2.216</v>
+        <v>2.212</v>
       </c>
       <c r="F7" t="n">
-        <v>24662.4368</v>
+        <v>240</v>
       </c>
       <c r="G7" t="n">
-        <v>2.215416666666665</v>
+        <v>2.215566666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.212</v>
+        <v>2.216</v>
       </c>
       <c r="C8" t="n">
-        <v>2.212</v>
+        <v>2.216</v>
       </c>
       <c r="D8" t="n">
-        <v>2.212</v>
+        <v>2.216</v>
       </c>
       <c r="E8" t="n">
-        <v>2.212</v>
+        <v>2.216</v>
       </c>
       <c r="F8" t="n">
-        <v>250</v>
+        <v>24662.4368</v>
       </c>
       <c r="G8" t="n">
-        <v>2.215383333333331</v>
+        <v>2.215416666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>2.212</v>
       </c>
       <c r="C9" t="n">
-        <v>2.209</v>
+        <v>2.212</v>
       </c>
       <c r="D9" t="n">
         <v>2.212</v>
       </c>
       <c r="E9" t="n">
-        <v>2.209</v>
+        <v>2.212</v>
       </c>
       <c r="F9" t="n">
-        <v>495434.8864</v>
+        <v>250</v>
       </c>
       <c r="G9" t="n">
-        <v>2.215299999999998</v>
+        <v>2.215383333333331</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>2.212</v>
       </c>
       <c r="C10" t="n">
-        <v>2.212</v>
+        <v>2.209</v>
       </c>
       <c r="D10" t="n">
         <v>2.212</v>
       </c>
       <c r="E10" t="n">
-        <v>2.212</v>
+        <v>2.209</v>
       </c>
       <c r="F10" t="n">
-        <v>1594.9053</v>
+        <v>495434.8864</v>
       </c>
       <c r="G10" t="n">
-        <v>2.215049999999998</v>
+        <v>2.215299999999998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>2.212</v>
       </c>
       <c r="F11" t="n">
-        <v>240</v>
+        <v>1594.9053</v>
       </c>
       <c r="G11" t="n">
-        <v>2.214949999999998</v>
+        <v>2.215049999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>2.212</v>
       </c>
       <c r="F12" t="n">
-        <v>25281</v>
+        <v>240</v>
       </c>
       <c r="G12" t="n">
-        <v>2.214699999999998</v>
+        <v>2.214949999999998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>2.212</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1361</v>
+        <v>25281</v>
       </c>
       <c r="G13" t="n">
-        <v>2.214599999999998</v>
+        <v>2.214699999999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.21</v>
+        <v>2.212</v>
       </c>
       <c r="C14" t="n">
-        <v>2.21</v>
+        <v>2.212</v>
       </c>
       <c r="D14" t="n">
-        <v>2.21</v>
+        <v>2.212</v>
       </c>
       <c r="E14" t="n">
-        <v>2.21</v>
+        <v>2.212</v>
       </c>
       <c r="F14" t="n">
-        <v>63813.4517</v>
+        <v>0.1361</v>
       </c>
       <c r="G14" t="n">
-        <v>2.214466666666665</v>
+        <v>2.214599999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>2.21</v>
       </c>
       <c r="F15" t="n">
-        <v>10959.2766</v>
+        <v>63813.4517</v>
       </c>
       <c r="G15" t="n">
-        <v>2.214399999999998</v>
+        <v>2.214466666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>2.21</v>
       </c>
       <c r="C16" t="n">
-        <v>2.217</v>
+        <v>2.21</v>
       </c>
       <c r="D16" t="n">
-        <v>2.217</v>
+        <v>2.21</v>
       </c>
       <c r="E16" t="n">
         <v>2.21</v>
       </c>
       <c r="F16" t="n">
-        <v>914900.0239</v>
+        <v>10959.2766</v>
       </c>
       <c r="G16" t="n">
-        <v>2.214533333333331</v>
+        <v>2.214399999999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.209</v>
+        <v>2.21</v>
       </c>
       <c r="C17" t="n">
-        <v>2.209</v>
+        <v>2.217</v>
       </c>
       <c r="D17" t="n">
-        <v>2.209</v>
+        <v>2.217</v>
       </c>
       <c r="E17" t="n">
-        <v>2.209</v>
+        <v>2.21</v>
       </c>
       <c r="F17" t="n">
-        <v>240</v>
+        <v>914900.0239</v>
       </c>
       <c r="G17" t="n">
         <v>2.214533333333331</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.216</v>
+        <v>2.209</v>
       </c>
       <c r="C18" t="n">
-        <v>2.216</v>
+        <v>2.209</v>
       </c>
       <c r="D18" t="n">
-        <v>2.216</v>
+        <v>2.209</v>
       </c>
       <c r="E18" t="n">
-        <v>2.216</v>
+        <v>2.209</v>
       </c>
       <c r="F18" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G18" t="n">
-        <v>2.214583333333332</v>
+        <v>2.214533333333331</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.21</v>
+        <v>2.216</v>
       </c>
       <c r="C19" t="n">
-        <v>2.21</v>
+        <v>2.216</v>
       </c>
       <c r="D19" t="n">
-        <v>2.21</v>
+        <v>2.216</v>
       </c>
       <c r="E19" t="n">
-        <v>2.21</v>
+        <v>2.216</v>
       </c>
       <c r="F19" t="n">
-        <v>567.1788</v>
+        <v>250</v>
       </c>
       <c r="G19" t="n">
-        <v>2.214266666666665</v>
+        <v>2.214583333333332</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.209</v>
+        <v>2.21</v>
       </c>
       <c r="C20" t="n">
-        <v>2.209</v>
+        <v>2.21</v>
       </c>
       <c r="D20" t="n">
-        <v>2.209</v>
+        <v>2.21</v>
       </c>
       <c r="E20" t="n">
-        <v>2.209</v>
+        <v>2.21</v>
       </c>
       <c r="F20" t="n">
-        <v>240</v>
+        <v>567.1788</v>
       </c>
       <c r="G20" t="n">
-        <v>2.214249999999998</v>
+        <v>2.214266666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.21</v>
+        <v>2.209</v>
       </c>
       <c r="C21" t="n">
-        <v>2.21</v>
+        <v>2.209</v>
       </c>
       <c r="D21" t="n">
-        <v>2.21</v>
+        <v>2.209</v>
       </c>
       <c r="E21" t="n">
-        <v>2.21</v>
+        <v>2.209</v>
       </c>
       <c r="F21" t="n">
-        <v>432.8212</v>
+        <v>240</v>
       </c>
       <c r="G21" t="n">
-        <v>2.214283333333332</v>
+        <v>2.214249999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.215</v>
+        <v>2.21</v>
       </c>
       <c r="C22" t="n">
-        <v>2.206</v>
+        <v>2.21</v>
       </c>
       <c r="D22" t="n">
-        <v>2.215</v>
+        <v>2.21</v>
       </c>
       <c r="E22" t="n">
-        <v>2.206</v>
+        <v>2.21</v>
       </c>
       <c r="F22" t="n">
-        <v>183810.6377</v>
+        <v>432.8212</v>
       </c>
       <c r="G22" t="n">
-        <v>2.213933333333332</v>
+        <v>2.214283333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.21</v>
+        <v>2.215</v>
       </c>
       <c r="C23" t="n">
-        <v>2.21</v>
+        <v>2.206</v>
       </c>
       <c r="D23" t="n">
-        <v>2.21</v>
+        <v>2.215</v>
       </c>
       <c r="E23" t="n">
-        <v>2.21</v>
+        <v>2.206</v>
       </c>
       <c r="F23" t="n">
-        <v>1540</v>
+        <v>183810.6377</v>
       </c>
       <c r="G23" t="n">
-        <v>2.213649999999999</v>
+        <v>2.213933333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>2.21</v>
       </c>
       <c r="C24" t="n">
-        <v>2.207</v>
+        <v>2.21</v>
       </c>
       <c r="D24" t="n">
         <v>2.21</v>
       </c>
       <c r="E24" t="n">
-        <v>2.207</v>
+        <v>2.21</v>
       </c>
       <c r="F24" t="n">
-        <v>79964.51059999999</v>
+        <v>1540</v>
       </c>
       <c r="G24" t="n">
-        <v>2.213316666666665</v>
+        <v>2.213649999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C25" t="n">
         <v>2.207</v>
       </c>
-      <c r="C25" t="n">
-        <v>2.206</v>
-      </c>
       <c r="D25" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E25" t="n">
         <v>2.207</v>
       </c>
-      <c r="E25" t="n">
-        <v>2.206</v>
-      </c>
       <c r="F25" t="n">
-        <v>539823.7439999999</v>
+        <v>79964.51059999999</v>
       </c>
       <c r="G25" t="n">
-        <v>2.212949999999998</v>
+        <v>2.213316666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.206</v>
+        <v>2.207</v>
       </c>
       <c r="C26" t="n">
         <v>2.206</v>
       </c>
       <c r="D26" t="n">
-        <v>2.206</v>
+        <v>2.207</v>
       </c>
       <c r="E26" t="n">
         <v>2.206</v>
       </c>
       <c r="F26" t="n">
-        <v>51393.4817</v>
+        <v>539823.7439999999</v>
       </c>
       <c r="G26" t="n">
-        <v>2.212583333333331</v>
+        <v>2.212949999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.204</v>
+        <v>2.206</v>
       </c>
       <c r="C27" t="n">
-        <v>2.204</v>
+        <v>2.206</v>
       </c>
       <c r="D27" t="n">
-        <v>2.204</v>
+        <v>2.206</v>
       </c>
       <c r="E27" t="n">
-        <v>2.204</v>
+        <v>2.206</v>
       </c>
       <c r="F27" t="n">
-        <v>480</v>
+        <v>51393.4817</v>
       </c>
       <c r="G27" t="n">
-        <v>2.212166666666664</v>
+        <v>2.212583333333331</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>2.204</v>
       </c>
       <c r="F28" t="n">
-        <v>429.5703</v>
+        <v>480</v>
       </c>
       <c r="G28" t="n">
-        <v>2.211749999999997</v>
+        <v>2.212166666666664</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>2.204</v>
       </c>
       <c r="C29" t="n">
-        <v>2.199</v>
+        <v>2.204</v>
       </c>
       <c r="D29" t="n">
         <v>2.204</v>
       </c>
       <c r="E29" t="n">
-        <v>2.199</v>
+        <v>2.204</v>
       </c>
       <c r="F29" t="n">
-        <v>956230.4742000001</v>
+        <v>429.5703</v>
       </c>
       <c r="G29" t="n">
-        <v>2.211233333333331</v>
+        <v>2.211749999999997</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="C30" t="n">
         <v>2.199</v>
       </c>
-      <c r="C30" t="n">
-        <v>2.197</v>
-      </c>
       <c r="D30" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E30" t="n">
         <v>2.199</v>
       </c>
-      <c r="E30" t="n">
-        <v>2.197</v>
-      </c>
       <c r="F30" t="n">
-        <v>1641980.4245</v>
+        <v>956230.4742000001</v>
       </c>
       <c r="G30" t="n">
-        <v>2.210683333333331</v>
+        <v>2.211233333333331</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>2.199</v>
+      </c>
+      <c r="C31" t="n">
         <v>2.197</v>
       </c>
-      <c r="C31" t="n">
-        <v>2.19</v>
-      </c>
       <c r="D31" t="n">
+        <v>2.199</v>
+      </c>
+      <c r="E31" t="n">
         <v>2.197</v>
       </c>
-      <c r="E31" t="n">
-        <v>2.19</v>
-      </c>
       <c r="F31" t="n">
-        <v>6000238.6532</v>
+        <v>1641980.4245</v>
       </c>
       <c r="G31" t="n">
-        <v>2.209999999999998</v>
+        <v>2.210683333333331</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.191</v>
+        <v>2.197</v>
       </c>
       <c r="C32" t="n">
         <v>2.19</v>
       </c>
       <c r="D32" t="n">
-        <v>2.191</v>
+        <v>2.197</v>
       </c>
       <c r="E32" t="n">
         <v>2.19</v>
       </c>
       <c r="F32" t="n">
-        <v>3170600.5074</v>
+        <v>6000238.6532</v>
       </c>
       <c r="G32" t="n">
-        <v>2.209816666666665</v>
+        <v>2.209999999999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>2.19</v>
       </c>
       <c r="F33" t="n">
-        <v>2510596.5671</v>
+        <v>3170600.5074</v>
       </c>
       <c r="G33" t="n">
-        <v>2.209483333333331</v>
+        <v>2.209816666666665</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.204</v>
+        <v>2.191</v>
       </c>
       <c r="C34" t="n">
-        <v>2.188</v>
+        <v>2.19</v>
       </c>
       <c r="D34" t="n">
-        <v>2.204</v>
+        <v>2.191</v>
       </c>
       <c r="E34" t="n">
-        <v>2.188</v>
+        <v>2.19</v>
       </c>
       <c r="F34" t="n">
-        <v>962302.4243</v>
+        <v>2510596.5671</v>
       </c>
       <c r="G34" t="n">
-        <v>2.209133333333331</v>
+        <v>2.209483333333331</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>2.204</v>
       </c>
       <c r="C35" t="n">
-        <v>2.204</v>
+        <v>2.188</v>
       </c>
       <c r="D35" t="n">
         <v>2.204</v>
       </c>
       <c r="E35" t="n">
-        <v>2.204</v>
+        <v>2.188</v>
       </c>
       <c r="F35" t="n">
-        <v>31594.4534</v>
+        <v>962302.4243</v>
       </c>
       <c r="G35" t="n">
-        <v>2.209049999999998</v>
+        <v>2.209133333333331</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.188</v>
+        <v>2.204</v>
       </c>
       <c r="C36" t="n">
         <v>2.204</v>
@@ -1632,13 +1632,13 @@
         <v>2.204</v>
       </c>
       <c r="E36" t="n">
-        <v>2.188</v>
+        <v>2.204</v>
       </c>
       <c r="F36" t="n">
-        <v>888</v>
+        <v>31594.4534</v>
       </c>
       <c r="G36" t="n">
-        <v>2.209116666666665</v>
+        <v>2.209049999999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.204</v>
+        <v>2.188</v>
       </c>
       <c r="C37" t="n">
         <v>2.204</v>
@@ -1667,13 +1667,13 @@
         <v>2.204</v>
       </c>
       <c r="E37" t="n">
-        <v>2.204</v>
+        <v>2.188</v>
       </c>
       <c r="F37" t="n">
-        <v>9203.8596</v>
+        <v>888</v>
       </c>
       <c r="G37" t="n">
-        <v>2.209016666666665</v>
+        <v>2.209116666666665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>2.204</v>
       </c>
       <c r="F38" t="n">
-        <v>6902.8958</v>
+        <v>9203.8596</v>
       </c>
       <c r="G38" t="n">
-        <v>2.208916666666665</v>
+        <v>2.209016666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.205</v>
+        <v>2.204</v>
       </c>
       <c r="C39" t="n">
-        <v>2.205</v>
+        <v>2.204</v>
       </c>
       <c r="D39" t="n">
-        <v>2.205</v>
+        <v>2.204</v>
       </c>
       <c r="E39" t="n">
-        <v>2.205</v>
+        <v>2.204</v>
       </c>
       <c r="F39" t="n">
-        <v>227.7123</v>
+        <v>6902.8958</v>
       </c>
       <c r="G39" t="n">
-        <v>2.208516666666665</v>
+        <v>2.208916666666665</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>2.205</v>
       </c>
       <c r="C40" t="n">
-        <v>2.206</v>
+        <v>2.205</v>
       </c>
       <c r="D40" t="n">
-        <v>2.206</v>
+        <v>2.205</v>
       </c>
       <c r="E40" t="n">
         <v>2.205</v>
       </c>
       <c r="F40" t="n">
-        <v>227.0125</v>
+        <v>227.7123</v>
       </c>
       <c r="G40" t="n">
-        <v>2.208133333333331</v>
+        <v>2.208516666666665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.206</v>
+        <v>2.205</v>
       </c>
       <c r="C41" t="n">
         <v>2.206</v>
@@ -1807,13 +1807,13 @@
         <v>2.206</v>
       </c>
       <c r="E41" t="n">
-        <v>2.206</v>
+        <v>2.205</v>
       </c>
       <c r="F41" t="n">
-        <v>220852.9469</v>
+        <v>227.0125</v>
       </c>
       <c r="G41" t="n">
-        <v>2.207749999999997</v>
+        <v>2.208133333333331</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.21</v>
+        <v>2.206</v>
       </c>
       <c r="C42" t="n">
-        <v>2.211</v>
+        <v>2.206</v>
       </c>
       <c r="D42" t="n">
-        <v>2.211</v>
+        <v>2.206</v>
       </c>
       <c r="E42" t="n">
-        <v>2.21</v>
+        <v>2.206</v>
       </c>
       <c r="F42" t="n">
-        <v>444.0125</v>
+        <v>220852.9469</v>
       </c>
       <c r="G42" t="n">
-        <v>2.207766666666664</v>
+        <v>2.207749999999997</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.208</v>
+        <v>2.21</v>
       </c>
       <c r="C43" t="n">
-        <v>2.208</v>
+        <v>2.211</v>
       </c>
       <c r="D43" t="n">
-        <v>2.208</v>
+        <v>2.211</v>
       </c>
       <c r="E43" t="n">
-        <v>2.208</v>
+        <v>2.21</v>
       </c>
       <c r="F43" t="n">
-        <v>56432.357</v>
+        <v>444.0125</v>
       </c>
       <c r="G43" t="n">
-        <v>2.207849999999997</v>
+        <v>2.207766666666664</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>2.208</v>
       </c>
       <c r="F44" t="n">
-        <v>164220.9937</v>
+        <v>56432.357</v>
       </c>
       <c r="G44" t="n">
-        <v>2.207499999999997</v>
+        <v>2.207849999999997</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>2.208</v>
       </c>
       <c r="F45" t="n">
-        <v>350000</v>
+        <v>164220.9937</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207349999999997</v>
+        <v>2.207499999999997</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.202</v>
+        <v>2.208</v>
       </c>
       <c r="C46" t="n">
-        <v>2.202</v>
+        <v>2.208</v>
       </c>
       <c r="D46" t="n">
-        <v>2.202</v>
+        <v>2.208</v>
       </c>
       <c r="E46" t="n">
-        <v>2.202</v>
+        <v>2.208</v>
       </c>
       <c r="F46" t="n">
-        <v>240</v>
+        <v>350000</v>
       </c>
       <c r="G46" t="n">
-        <v>2.207099999999997</v>
+        <v>2.207349999999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.207</v>
+        <v>2.202</v>
       </c>
       <c r="C47" t="n">
-        <v>2.207</v>
+        <v>2.202</v>
       </c>
       <c r="D47" t="n">
-        <v>2.207</v>
+        <v>2.202</v>
       </c>
       <c r="E47" t="n">
-        <v>2.207</v>
+        <v>2.202</v>
       </c>
       <c r="F47" t="n">
         <v>240</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.205</v>
+        <v>2.207</v>
       </c>
       <c r="C48" t="n">
-        <v>2.204</v>
+        <v>2.207</v>
       </c>
       <c r="D48" t="n">
-        <v>2.205</v>
+        <v>2.207</v>
       </c>
       <c r="E48" t="n">
-        <v>2.204</v>
+        <v>2.207</v>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>240</v>
       </c>
       <c r="G48" t="n">
-        <v>2.207066666666663</v>
+        <v>2.207099999999997</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.207</v>
+        <v>2.205</v>
       </c>
       <c r="C49" t="n">
-        <v>2.201</v>
+        <v>2.204</v>
       </c>
       <c r="D49" t="n">
-        <v>2.207</v>
+        <v>2.205</v>
       </c>
       <c r="E49" t="n">
-        <v>2.201</v>
+        <v>2.204</v>
       </c>
       <c r="F49" t="n">
-        <v>19907.5473</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="n">
         <v>2.207066666666663</v>
@@ -2116,19 +2116,19 @@
         <v>2.207</v>
       </c>
       <c r="C50" t="n">
-        <v>2.207</v>
+        <v>2.201</v>
       </c>
       <c r="D50" t="n">
         <v>2.207</v>
       </c>
       <c r="E50" t="n">
-        <v>2.207</v>
+        <v>2.201</v>
       </c>
       <c r="F50" t="n">
-        <v>226.7121</v>
+        <v>19907.5473</v>
       </c>
       <c r="G50" t="n">
-        <v>2.207166666666664</v>
+        <v>2.207066666666663</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>2.207</v>
       </c>
       <c r="C51" t="n">
-        <v>2.209</v>
+        <v>2.207</v>
       </c>
       <c r="D51" t="n">
-        <v>2.209</v>
+        <v>2.207</v>
       </c>
       <c r="E51" t="n">
         <v>2.207</v>
       </c>
       <c r="F51" t="n">
-        <v>164010.3269</v>
+        <v>226.7121</v>
       </c>
       <c r="G51" t="n">
-        <v>2.20728333333333</v>
+        <v>2.207166666666664</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.21</v>
+        <v>2.207</v>
       </c>
       <c r="C52" t="n">
-        <v>2.215</v>
+        <v>2.209</v>
       </c>
       <c r="D52" t="n">
-        <v>2.215</v>
+        <v>2.209</v>
       </c>
       <c r="E52" t="n">
-        <v>2.21</v>
+        <v>2.207</v>
       </c>
       <c r="F52" t="n">
-        <v>159644.5156</v>
+        <v>164010.3269</v>
       </c>
       <c r="G52" t="n">
-        <v>2.207499999999997</v>
+        <v>2.20728333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.215</v>
+        <v>2.21</v>
       </c>
       <c r="C53" t="n">
         <v>2.215</v>
@@ -2227,13 +2227,13 @@
         <v>2.215</v>
       </c>
       <c r="E53" t="n">
-        <v>2.215</v>
+        <v>2.21</v>
       </c>
       <c r="F53" t="n">
-        <v>13200</v>
+        <v>159644.5156</v>
       </c>
       <c r="G53" t="n">
-        <v>2.207716666666664</v>
+        <v>2.207499999999997</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.217</v>
+        <v>2.215</v>
       </c>
       <c r="C54" t="n">
-        <v>2.22</v>
+        <v>2.215</v>
       </c>
       <c r="D54" t="n">
-        <v>2.22</v>
+        <v>2.215</v>
       </c>
       <c r="E54" t="n">
-        <v>2.217</v>
+        <v>2.215</v>
       </c>
       <c r="F54" t="n">
-        <v>101606.7467</v>
+        <v>13200</v>
       </c>
       <c r="G54" t="n">
-        <v>2.207899999999997</v>
+        <v>2.207716666666664</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>2.217</v>
+      </c>
+      <c r="C55" t="n">
         <v>2.22</v>
       </c>
-      <c r="C55" t="n">
-        <v>2.221</v>
-      </c>
       <c r="D55" t="n">
-        <v>2.221</v>
+        <v>2.22</v>
       </c>
       <c r="E55" t="n">
-        <v>2.22</v>
+        <v>2.217</v>
       </c>
       <c r="F55" t="n">
-        <v>456469.423</v>
+        <v>101606.7467</v>
       </c>
       <c r="G55" t="n">
-        <v>2.208099999999997</v>
+        <v>2.207899999999997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.215</v>
+        <v>2.22</v>
       </c>
       <c r="C56" t="n">
-        <v>2.201</v>
+        <v>2.221</v>
       </c>
       <c r="D56" t="n">
-        <v>2.215</v>
+        <v>2.221</v>
       </c>
       <c r="E56" t="n">
-        <v>2.201</v>
+        <v>2.22</v>
       </c>
       <c r="F56" t="n">
-        <v>1961482.6531</v>
+        <v>456469.423</v>
       </c>
       <c r="G56" t="n">
-        <v>2.207916666666664</v>
+        <v>2.208099999999997</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.201</v>
+        <v>2.215</v>
       </c>
       <c r="C57" t="n">
         <v>2.201</v>
       </c>
       <c r="D57" t="n">
-        <v>2.201</v>
+        <v>2.215</v>
       </c>
       <c r="E57" t="n">
         <v>2.201</v>
       </c>
       <c r="F57" t="n">
-        <v>45070.6255</v>
+        <v>1961482.6531</v>
       </c>
       <c r="G57" t="n">
-        <v>2.207699999999997</v>
+        <v>2.207916666666664</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.205</v>
+        <v>2.201</v>
       </c>
       <c r="C58" t="n">
-        <v>2.205</v>
+        <v>2.201</v>
       </c>
       <c r="D58" t="n">
-        <v>2.205</v>
+        <v>2.201</v>
       </c>
       <c r="E58" t="n">
-        <v>2.205</v>
+        <v>2.201</v>
       </c>
       <c r="F58" t="n">
-        <v>1818.222</v>
+        <v>45070.6255</v>
       </c>
       <c r="G58" t="n">
-        <v>2.207549999999997</v>
+        <v>2.207699999999997</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.218</v>
+        <v>2.205</v>
       </c>
       <c r="C59" t="n">
-        <v>2.218</v>
+        <v>2.205</v>
       </c>
       <c r="D59" t="n">
-        <v>2.218</v>
+        <v>2.205</v>
       </c>
       <c r="E59" t="n">
-        <v>2.218</v>
+        <v>2.205</v>
       </c>
       <c r="F59" t="n">
-        <v>444</v>
+        <v>1818.222</v>
       </c>
       <c r="G59" t="n">
-        <v>2.207616666666664</v>
+        <v>2.207549999999997</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.219</v>
+        <v>2.218</v>
       </c>
       <c r="C60" t="n">
-        <v>2.219</v>
+        <v>2.218</v>
       </c>
       <c r="D60" t="n">
-        <v>2.219</v>
+        <v>2.218</v>
       </c>
       <c r="E60" t="n">
-        <v>2.219</v>
+        <v>2.218</v>
       </c>
       <c r="F60" t="n">
         <v>444</v>
       </c>
       <c r="G60" t="n">
-        <v>2.20773333333333</v>
+        <v>2.207616666666664</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.217</v>
+        <v>2.219</v>
       </c>
       <c r="C61" t="n">
         <v>2.219</v>
@@ -2507,13 +2507,13 @@
         <v>2.219</v>
       </c>
       <c r="E61" t="n">
-        <v>2.217</v>
+        <v>2.219</v>
       </c>
       <c r="F61" t="n">
-        <v>4218.2219</v>
+        <v>444</v>
       </c>
       <c r="G61" t="n">
-        <v>2.207849999999997</v>
+        <v>2.20773333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.218</v>
+        <v>2.217</v>
       </c>
       <c r="C62" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="D62" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="E62" t="n">
-        <v>2.218</v>
+        <v>2.217</v>
       </c>
       <c r="F62" t="n">
-        <v>206306.47</v>
+        <v>4218.2219</v>
       </c>
       <c r="G62" t="n">
-        <v>2.208016666666664</v>
+        <v>2.207849999999997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.217</v>
+        <v>2.218</v>
       </c>
       <c r="C63" t="n">
-        <v>2.217</v>
+        <v>2.22</v>
       </c>
       <c r="D63" t="n">
-        <v>2.217</v>
+        <v>2.22</v>
       </c>
       <c r="E63" t="n">
-        <v>2.217</v>
+        <v>2.218</v>
       </c>
       <c r="F63" t="n">
-        <v>543416.248</v>
+        <v>206306.47</v>
       </c>
       <c r="G63" t="n">
-        <v>2.208099999999997</v>
+        <v>2.208016666666664</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.215</v>
+        <v>2.217</v>
       </c>
       <c r="C64" t="n">
-        <v>2.215</v>
+        <v>2.217</v>
       </c>
       <c r="D64" t="n">
-        <v>2.215</v>
+        <v>2.217</v>
       </c>
       <c r="E64" t="n">
-        <v>2.215</v>
+        <v>2.217</v>
       </c>
       <c r="F64" t="n">
-        <v>444</v>
+        <v>543416.248</v>
       </c>
       <c r="G64" t="n">
-        <v>2.208083333333331</v>
+        <v>2.208099999999997</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.214</v>
+        <v>2.215</v>
       </c>
       <c r="C65" t="n">
         <v>2.215</v>
@@ -2647,13 +2647,13 @@
         <v>2.215</v>
       </c>
       <c r="E65" t="n">
-        <v>2.214</v>
+        <v>2.215</v>
       </c>
       <c r="F65" t="n">
-        <v>2500</v>
+        <v>444</v>
       </c>
       <c r="G65" t="n">
-        <v>2.208066666666664</v>
+        <v>2.208083333333331</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.215</v>
+        <v>2.214</v>
       </c>
       <c r="C66" t="n">
         <v>2.215</v>
@@ -2682,13 +2682,13 @@
         <v>2.215</v>
       </c>
       <c r="E66" t="n">
-        <v>2.215</v>
+        <v>2.214</v>
       </c>
       <c r="F66" t="n">
-        <v>888</v>
+        <v>2500</v>
       </c>
       <c r="G66" t="n">
-        <v>2.208116666666664</v>
+        <v>2.208066666666664</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>2.215</v>
       </c>
       <c r="C67" t="n">
-        <v>2.221</v>
+        <v>2.215</v>
       </c>
       <c r="D67" t="n">
-        <v>2.221</v>
+        <v>2.215</v>
       </c>
       <c r="E67" t="n">
-        <v>2.2</v>
+        <v>2.215</v>
       </c>
       <c r="F67" t="n">
-        <v>4687354.7204</v>
+        <v>888</v>
       </c>
       <c r="G67" t="n">
-        <v>2.208199999999997</v>
+        <v>2.208116666666664</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.21</v>
+        <v>2.215</v>
       </c>
       <c r="C68" t="n">
-        <v>2.218</v>
+        <v>2.221</v>
       </c>
       <c r="D68" t="n">
-        <v>2.218</v>
+        <v>2.221</v>
       </c>
       <c r="E68" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="F68" t="n">
-        <v>250926.6521</v>
+        <v>4687354.7204</v>
       </c>
       <c r="G68" t="n">
-        <v>2.208299999999997</v>
+        <v>2.208199999999997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.218</v>
+        <v>2.21</v>
       </c>
       <c r="C69" t="n">
         <v>2.218</v>
@@ -2787,13 +2787,13 @@
         <v>2.218</v>
       </c>
       <c r="E69" t="n">
-        <v>2.218</v>
+        <v>2.21</v>
       </c>
       <c r="F69" t="n">
-        <v>3500.7566</v>
+        <v>250926.6521</v>
       </c>
       <c r="G69" t="n">
-        <v>2.208449999999997</v>
+        <v>2.208299999999997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.22</v>
+        <v>2.218</v>
       </c>
       <c r="C70" t="n">
-        <v>2.22</v>
+        <v>2.218</v>
       </c>
       <c r="D70" t="n">
-        <v>2.22</v>
+        <v>2.218</v>
       </c>
       <c r="E70" t="n">
-        <v>2.22</v>
+        <v>2.218</v>
       </c>
       <c r="F70" t="n">
-        <v>206512.6283</v>
+        <v>3500.7566</v>
       </c>
       <c r="G70" t="n">
-        <v>2.208583333333331</v>
+        <v>2.208449999999997</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.199</v>
+        <v>2.22</v>
       </c>
       <c r="C71" t="n">
-        <v>2.199</v>
+        <v>2.22</v>
       </c>
       <c r="D71" t="n">
-        <v>2.199</v>
+        <v>2.22</v>
       </c>
       <c r="E71" t="n">
-        <v>2.199</v>
+        <v>2.22</v>
       </c>
       <c r="F71" t="n">
-        <v>53293.7583</v>
+        <v>206512.6283</v>
       </c>
       <c r="G71" t="n">
-        <v>2.208366666666664</v>
+        <v>2.208583333333331</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.219</v>
+        <v>2.199</v>
       </c>
       <c r="C72" t="n">
-        <v>2.219</v>
+        <v>2.199</v>
       </c>
       <c r="D72" t="n">
-        <v>2.219</v>
+        <v>2.199</v>
       </c>
       <c r="E72" t="n">
-        <v>2.219</v>
+        <v>2.199</v>
       </c>
       <c r="F72" t="n">
-        <v>226</v>
+        <v>53293.7583</v>
       </c>
       <c r="G72" t="n">
-        <v>2.208483333333331</v>
+        <v>2.208366666666664</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.217</v>
+        <v>2.219</v>
       </c>
       <c r="C73" t="n">
-        <v>2.217</v>
+        <v>2.219</v>
       </c>
       <c r="D73" t="n">
-        <v>2.217</v>
+        <v>2.219</v>
       </c>
       <c r="E73" t="n">
-        <v>2.217</v>
+        <v>2.219</v>
       </c>
       <c r="F73" t="n">
-        <v>500.0354</v>
+        <v>226</v>
       </c>
       <c r="G73" t="n">
-        <v>2.208566666666665</v>
+        <v>2.208483333333331</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>2.217</v>
       </c>
       <c r="F74" t="n">
-        <v>1318.1865</v>
+        <v>500.0354</v>
       </c>
       <c r="G74" t="n">
-        <v>2.208683333333332</v>
+        <v>2.208566666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>2.217</v>
       </c>
       <c r="F75" t="n">
-        <v>38681.8135</v>
+        <v>1318.1865</v>
       </c>
       <c r="G75" t="n">
-        <v>2.208799999999998</v>
+        <v>2.208683333333332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.196</v>
+        <v>2.217</v>
       </c>
       <c r="C76" t="n">
-        <v>2.196</v>
+        <v>2.217</v>
       </c>
       <c r="D76" t="n">
-        <v>2.196</v>
+        <v>2.217</v>
       </c>
       <c r="E76" t="n">
-        <v>2.196</v>
+        <v>2.217</v>
       </c>
       <c r="F76" t="n">
-        <v>240</v>
+        <v>38681.8135</v>
       </c>
       <c r="G76" t="n">
-        <v>2.208449999999998</v>
+        <v>2.208799999999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.199</v>
+        <v>2.196</v>
       </c>
       <c r="C77" t="n">
-        <v>2.199</v>
+        <v>2.196</v>
       </c>
       <c r="D77" t="n">
-        <v>2.199</v>
+        <v>2.196</v>
       </c>
       <c r="E77" t="n">
-        <v>2.199</v>
+        <v>2.196</v>
       </c>
       <c r="F77" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="G77" t="n">
-        <v>2.208283333333332</v>
+        <v>2.208449999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.196</v>
+        <v>2.199</v>
       </c>
       <c r="C78" t="n">
-        <v>2.195</v>
+        <v>2.199</v>
       </c>
       <c r="D78" t="n">
-        <v>2.196</v>
+        <v>2.199</v>
       </c>
       <c r="E78" t="n">
-        <v>2.195</v>
+        <v>2.199</v>
       </c>
       <c r="F78" t="n">
-        <v>892223.4485000001</v>
+        <v>1200</v>
       </c>
       <c r="G78" t="n">
-        <v>2.207933333333331</v>
+        <v>2.208283333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.217</v>
+        <v>2.196</v>
       </c>
       <c r="C79" t="n">
-        <v>2.217</v>
+        <v>2.195</v>
       </c>
       <c r="D79" t="n">
-        <v>2.217</v>
+        <v>2.196</v>
       </c>
       <c r="E79" t="n">
-        <v>2.217</v>
+        <v>2.195</v>
       </c>
       <c r="F79" t="n">
-        <v>240</v>
+        <v>892223.4485000001</v>
       </c>
       <c r="G79" t="n">
-        <v>2.208049999999998</v>
+        <v>2.207933333333331</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.218</v>
+        <v>2.217</v>
       </c>
       <c r="C80" t="n">
-        <v>2.218</v>
+        <v>2.217</v>
       </c>
       <c r="D80" t="n">
-        <v>2.218</v>
+        <v>2.217</v>
       </c>
       <c r="E80" t="n">
-        <v>2.218</v>
+        <v>2.217</v>
       </c>
       <c r="F80" t="n">
         <v>240</v>
       </c>
       <c r="G80" t="n">
-        <v>2.208199999999998</v>
+        <v>2.208049999999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>2.218</v>
       </c>
       <c r="F81" t="n">
-        <v>2250345.2325</v>
+        <v>240</v>
       </c>
       <c r="G81" t="n">
-        <v>2.208333333333331</v>
+        <v>2.208199999999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>2.218</v>
       </c>
       <c r="C82" t="n">
-        <v>2.22</v>
+        <v>2.218</v>
       </c>
       <c r="D82" t="n">
-        <v>2.22</v>
+        <v>2.218</v>
       </c>
       <c r="E82" t="n">
         <v>2.218</v>
       </c>
       <c r="F82" t="n">
-        <v>2245447.6152</v>
+        <v>2250345.2325</v>
       </c>
       <c r="G82" t="n">
-        <v>2.208566666666664</v>
+        <v>2.208333333333331</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.214</v>
+        <v>2.218</v>
       </c>
       <c r="C83" t="n">
-        <v>2.214</v>
+        <v>2.22</v>
       </c>
       <c r="D83" t="n">
-        <v>2.214</v>
+        <v>2.22</v>
       </c>
       <c r="E83" t="n">
-        <v>2.214</v>
+        <v>2.218</v>
       </c>
       <c r="F83" t="n">
-        <v>444</v>
+        <v>2245447.6152</v>
       </c>
       <c r="G83" t="n">
-        <v>2.208633333333331</v>
+        <v>2.208566666666664</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.208</v>
+        <v>2.214</v>
       </c>
       <c r="C84" t="n">
-        <v>2.196</v>
+        <v>2.214</v>
       </c>
       <c r="D84" t="n">
-        <v>2.208</v>
+        <v>2.214</v>
       </c>
       <c r="E84" t="n">
-        <v>2.196</v>
+        <v>2.214</v>
       </c>
       <c r="F84" t="n">
-        <v>644384.7261</v>
+        <v>444</v>
       </c>
       <c r="G84" t="n">
-        <v>2.208449999999998</v>
+        <v>2.208633333333331</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.189</v>
+        <v>2.208</v>
       </c>
       <c r="C85" t="n">
-        <v>2.189</v>
+        <v>2.196</v>
       </c>
       <c r="D85" t="n">
-        <v>2.189</v>
+        <v>2.208</v>
       </c>
       <c r="E85" t="n">
-        <v>2.189</v>
+        <v>2.196</v>
       </c>
       <c r="F85" t="n">
-        <v>348277.4709</v>
+        <v>644384.7261</v>
       </c>
       <c r="G85" t="n">
-        <v>2.208166666666664</v>
+        <v>2.208449999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.219</v>
+        <v>2.189</v>
       </c>
       <c r="C86" t="n">
-        <v>2.2</v>
+        <v>2.189</v>
       </c>
       <c r="D86" t="n">
-        <v>2.219</v>
+        <v>2.189</v>
       </c>
       <c r="E86" t="n">
-        <v>2.2</v>
+        <v>2.189</v>
       </c>
       <c r="F86" t="n">
-        <v>38302.8153</v>
+        <v>348277.4709</v>
       </c>
       <c r="G86" t="n">
-        <v>2.208066666666665</v>
+        <v>2.208166666666664</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.188</v>
+        <v>2.219</v>
       </c>
       <c r="C87" t="n">
-        <v>2.186</v>
+        <v>2.2</v>
       </c>
       <c r="D87" t="n">
-        <v>2.188</v>
+        <v>2.219</v>
       </c>
       <c r="E87" t="n">
-        <v>2.186</v>
+        <v>2.2</v>
       </c>
       <c r="F87" t="n">
-        <v>957465.6133</v>
+        <v>38302.8153</v>
       </c>
       <c r="G87" t="n">
-        <v>2.207766666666664</v>
+        <v>2.208066666666665</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.185</v>
+        <v>2.188</v>
       </c>
       <c r="C88" t="n">
-        <v>2.184</v>
+        <v>2.186</v>
       </c>
       <c r="D88" t="n">
-        <v>2.19</v>
+        <v>2.188</v>
       </c>
       <c r="E88" t="n">
-        <v>2.184</v>
+        <v>2.186</v>
       </c>
       <c r="F88" t="n">
-        <v>546530.4169</v>
+        <v>957465.6133</v>
       </c>
       <c r="G88" t="n">
-        <v>2.207433333333331</v>
+        <v>2.207766666666664</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.186</v>
+        <v>2.185</v>
       </c>
       <c r="C89" t="n">
-        <v>2.186</v>
+        <v>2.184</v>
       </c>
       <c r="D89" t="n">
-        <v>2.186</v>
+        <v>2.19</v>
       </c>
       <c r="E89" t="n">
-        <v>2.186</v>
+        <v>2.184</v>
       </c>
       <c r="F89" t="n">
-        <v>548.3484999999999</v>
+        <v>546530.4169</v>
       </c>
       <c r="G89" t="n">
-        <v>2.207216666666664</v>
+        <v>2.207433333333331</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>2.186</v>
       </c>
       <c r="F90" t="n">
-        <v>248849.3921</v>
+        <v>548.3484999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>2.207033333333331</v>
+        <v>2.207216666666664</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>2.186</v>
       </c>
       <c r="C91" t="n">
-        <v>2.184</v>
+        <v>2.186</v>
       </c>
       <c r="D91" t="n">
         <v>2.186</v>
       </c>
       <c r="E91" t="n">
-        <v>2.184</v>
+        <v>2.186</v>
       </c>
       <c r="F91" t="n">
-        <v>325434.243</v>
+        <v>248849.3921</v>
       </c>
       <c r="G91" t="n">
-        <v>2.206933333333331</v>
+        <v>2.207033333333331</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.184</v>
+        <v>2.186</v>
       </c>
       <c r="C92" t="n">
         <v>2.184</v>
       </c>
       <c r="D92" t="n">
-        <v>2.184</v>
+        <v>2.186</v>
       </c>
       <c r="E92" t="n">
         <v>2.184</v>
       </c>
       <c r="F92" t="n">
-        <v>250000</v>
+        <v>325434.243</v>
       </c>
       <c r="G92" t="n">
-        <v>2.206833333333331</v>
+        <v>2.206933333333331</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.185</v>
+        <v>2.184</v>
       </c>
       <c r="C93" t="n">
-        <v>2.185</v>
+        <v>2.184</v>
       </c>
       <c r="D93" t="n">
-        <v>2.185</v>
+        <v>2.184</v>
       </c>
       <c r="E93" t="n">
-        <v>2.185</v>
+        <v>2.184</v>
       </c>
       <c r="F93" t="n">
-        <v>13104.9809</v>
+        <v>250000</v>
       </c>
       <c r="G93" t="n">
-        <v>2.206749999999998</v>
+        <v>2.206833333333331</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>2.185</v>
       </c>
       <c r="C94" t="n">
-        <v>2.184</v>
+        <v>2.185</v>
       </c>
       <c r="D94" t="n">
         <v>2.185</v>
       </c>
       <c r="E94" t="n">
-        <v>2.184</v>
+        <v>2.185</v>
       </c>
       <c r="F94" t="n">
-        <v>318252.9457</v>
+        <v>13104.9809</v>
       </c>
       <c r="G94" t="n">
-        <v>2.206683333333331</v>
+        <v>2.206749999999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.19</v>
+        <v>2.185</v>
       </c>
       <c r="C95" t="n">
-        <v>2.19</v>
+        <v>2.184</v>
       </c>
       <c r="D95" t="n">
-        <v>2.19</v>
+        <v>2.185</v>
       </c>
       <c r="E95" t="n">
-        <v>2.19</v>
+        <v>2.184</v>
       </c>
       <c r="F95" t="n">
-        <v>2386.7213</v>
+        <v>318252.9457</v>
       </c>
       <c r="G95" t="n">
-        <v>2.206449999999998</v>
+        <v>2.206683333333331</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.186</v>
+        <v>2.19</v>
       </c>
       <c r="C96" t="n">
-        <v>2.186</v>
+        <v>2.19</v>
       </c>
       <c r="D96" t="n">
-        <v>2.186</v>
+        <v>2.19</v>
       </c>
       <c r="E96" t="n">
-        <v>2.186</v>
+        <v>2.19</v>
       </c>
       <c r="F96" t="n">
-        <v>4815.2174</v>
+        <v>2386.7213</v>
       </c>
       <c r="G96" t="n">
-        <v>2.206149999999998</v>
+        <v>2.206449999999998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>2.186</v>
       </c>
       <c r="F97" t="n">
-        <v>23914.9906</v>
+        <v>4815.2174</v>
       </c>
       <c r="G97" t="n">
-        <v>2.205849999999998</v>
+        <v>2.206149999999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.19</v>
+        <v>2.186</v>
       </c>
       <c r="C98" t="n">
-        <v>2.19</v>
+        <v>2.186</v>
       </c>
       <c r="D98" t="n">
-        <v>2.19</v>
+        <v>2.186</v>
       </c>
       <c r="E98" t="n">
-        <v>2.19</v>
+        <v>2.186</v>
       </c>
       <c r="F98" t="n">
-        <v>261.9023</v>
+        <v>23914.9906</v>
       </c>
       <c r="G98" t="n">
-        <v>2.205616666666664</v>
+        <v>2.205849999999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>2.19</v>
       </c>
       <c r="F99" t="n">
-        <v>64370.9804</v>
+        <v>261.9023</v>
       </c>
       <c r="G99" t="n">
-        <v>2.205366666666664</v>
+        <v>2.205616666666664</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="C100" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="D100" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="E100" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="F100" t="n">
-        <v>1359.7823</v>
+        <v>64370.9804</v>
       </c>
       <c r="G100" t="n">
-        <v>2.205266666666664</v>
+        <v>2.205366666666664</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>2.2</v>
       </c>
       <c r="F101" t="n">
-        <v>671859.9486999999</v>
+        <v>1359.7823</v>
       </c>
       <c r="G101" t="n">
-        <v>2.205166666666664</v>
+        <v>2.205266666666664</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3936,19 +3936,19 @@
         <v>2.2</v>
       </c>
       <c r="C102" t="n">
-        <v>2.219</v>
+        <v>2.2</v>
       </c>
       <c r="D102" t="n">
-        <v>2.219</v>
+        <v>2.2</v>
       </c>
       <c r="E102" t="n">
         <v>2.2</v>
       </c>
       <c r="F102" t="n">
-        <v>1013008.5918</v>
+        <v>671859.9486999999</v>
       </c>
       <c r="G102" t="n">
-        <v>2.205299999999997</v>
+        <v>2.205166666666664</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.219</v>
+        <v>2.2</v>
       </c>
       <c r="C103" t="n">
         <v>2.219</v>
@@ -3977,13 +3977,13 @@
         <v>2.219</v>
       </c>
       <c r="E103" t="n">
-        <v>2.219</v>
+        <v>2.2</v>
       </c>
       <c r="F103" t="n">
-        <v>211328.37</v>
+        <v>1013008.5918</v>
       </c>
       <c r="G103" t="n">
-        <v>2.20548333333333</v>
+        <v>2.205299999999997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="C104" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="D104" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="E104" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="F104" t="n">
-        <v>393243.3717</v>
+        <v>211328.37</v>
       </c>
       <c r="G104" t="n">
-        <v>2.20568333333333</v>
+        <v>2.20548333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.221</v>
+        <v>2.22</v>
       </c>
       <c r="C105" t="n">
         <v>2.22</v>
       </c>
       <c r="D105" t="n">
-        <v>2.221</v>
+        <v>2.22</v>
       </c>
       <c r="E105" t="n">
         <v>2.22</v>
       </c>
       <c r="F105" t="n">
-        <v>120884.3225</v>
+        <v>393243.3717</v>
       </c>
       <c r="G105" t="n">
-        <v>2.20588333333333</v>
+        <v>2.20568333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.228</v>
+        <v>2.221</v>
       </c>
       <c r="C106" t="n">
         <v>2.22</v>
       </c>
       <c r="D106" t="n">
-        <v>2.228</v>
+        <v>2.221</v>
       </c>
       <c r="E106" t="n">
         <v>2.22</v>
       </c>
       <c r="F106" t="n">
-        <v>106265.5743</v>
+        <v>120884.3225</v>
       </c>
       <c r="G106" t="n">
-        <v>2.20618333333333</v>
+        <v>2.20588333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.22</v>
+        <v>2.228</v>
       </c>
       <c r="C107" t="n">
         <v>2.22</v>
       </c>
       <c r="D107" t="n">
-        <v>2.22</v>
+        <v>2.228</v>
       </c>
       <c r="E107" t="n">
         <v>2.22</v>
       </c>
       <c r="F107" t="n">
-        <v>965128.4969</v>
+        <v>106265.5743</v>
       </c>
       <c r="G107" t="n">
-        <v>2.206399999999997</v>
+        <v>2.20618333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.222</v>
+        <v>2.22</v>
       </c>
       <c r="C108" t="n">
-        <v>2.222</v>
+        <v>2.22</v>
       </c>
       <c r="D108" t="n">
-        <v>2.222</v>
+        <v>2.22</v>
       </c>
       <c r="E108" t="n">
-        <v>2.222</v>
+        <v>2.22</v>
       </c>
       <c r="F108" t="n">
-        <v>55120.6971</v>
+        <v>965128.4969</v>
       </c>
       <c r="G108" t="n">
-        <v>2.206699999999997</v>
+        <v>2.206399999999997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.229</v>
+        <v>2.222</v>
       </c>
       <c r="C109" t="n">
-        <v>2.229</v>
+        <v>2.222</v>
       </c>
       <c r="D109" t="n">
-        <v>2.229</v>
+        <v>2.222</v>
       </c>
       <c r="E109" t="n">
-        <v>2.229</v>
+        <v>2.222</v>
       </c>
       <c r="F109" t="n">
-        <v>244</v>
+        <v>55120.6971</v>
       </c>
       <c r="G109" t="n">
-        <v>2.207166666666664</v>
+        <v>2.206699999999997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4216,19 @@
         <v>2.229</v>
       </c>
       <c r="C110" t="n">
-        <v>2.239</v>
+        <v>2.229</v>
       </c>
       <c r="D110" t="n">
-        <v>2.239</v>
+        <v>2.229</v>
       </c>
       <c r="E110" t="n">
         <v>2.229</v>
       </c>
       <c r="F110" t="n">
-        <v>66218.55869999999</v>
+        <v>244</v>
       </c>
       <c r="G110" t="n">
-        <v>2.207699999999997</v>
+        <v>2.207166666666664</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="C111" t="n">
         <v>2.239</v>
       </c>
-      <c r="C111" t="n">
-        <v>2.229</v>
-      </c>
       <c r="D111" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="E111" t="n">
         <v>2.229</v>
       </c>
       <c r="F111" t="n">
-        <v>260114.748</v>
+        <v>66218.55869999999</v>
       </c>
       <c r="G111" t="n">
-        <v>2.208033333333331</v>
+        <v>2.207699999999997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.238</v>
+        <v>2.239</v>
       </c>
       <c r="C112" t="n">
-        <v>2.239</v>
+        <v>2.229</v>
       </c>
       <c r="D112" t="n">
-        <v>2.239</v>
+        <v>2.24</v>
       </c>
       <c r="E112" t="n">
         <v>2.229</v>
       </c>
       <c r="F112" t="n">
-        <v>1133</v>
+        <v>260114.748</v>
       </c>
       <c r="G112" t="n">
-        <v>2.208433333333331</v>
+        <v>2.208033333333331</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="C113" t="n">
         <v>2.239</v>
       </c>
-      <c r="C113" t="n">
-        <v>2.24</v>
-      </c>
       <c r="D113" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="E113" t="n">
-        <v>2.239</v>
+        <v>2.229</v>
       </c>
       <c r="F113" t="n">
-        <v>209608.1279</v>
+        <v>1133</v>
       </c>
       <c r="G113" t="n">
-        <v>2.208849999999998</v>
+        <v>2.208433333333331</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="C114" t="n">
         <v>2.24</v>
@@ -4362,13 +4362,13 @@
         <v>2.24</v>
       </c>
       <c r="E114" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="F114" t="n">
-        <v>244</v>
+        <v>209608.1279</v>
       </c>
       <c r="G114" t="n">
-        <v>2.209183333333331</v>
+        <v>2.208849999999998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>2.24</v>
       </c>
       <c r="C115" t="n">
-        <v>2.245</v>
+        <v>2.24</v>
       </c>
       <c r="D115" t="n">
-        <v>2.245</v>
+        <v>2.24</v>
       </c>
       <c r="E115" t="n">
         <v>2.24</v>
       </c>
       <c r="F115" t="n">
-        <v>360443.0345</v>
+        <v>244</v>
       </c>
       <c r="G115" t="n">
-        <v>2.209583333333331</v>
+        <v>2.209183333333331</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.241</v>
+        <v>2.24</v>
       </c>
       <c r="C116" t="n">
-        <v>2.242</v>
+        <v>2.245</v>
       </c>
       <c r="D116" t="n">
-        <v>2.242</v>
+        <v>2.245</v>
       </c>
       <c r="E116" t="n">
-        <v>2.241</v>
+        <v>2.24</v>
       </c>
       <c r="F116" t="n">
-        <v>1099438.8981</v>
+        <v>360443.0345</v>
       </c>
       <c r="G116" t="n">
-        <v>2.210266666666664</v>
+        <v>2.209583333333331</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>2.241</v>
+      </c>
+      <c r="C117" t="n">
         <v>2.242</v>
       </c>
-      <c r="C117" t="n">
-        <v>2.245</v>
-      </c>
       <c r="D117" t="n">
-        <v>2.245</v>
+        <v>2.242</v>
       </c>
       <c r="E117" t="n">
-        <v>2.242</v>
+        <v>2.241</v>
       </c>
       <c r="F117" t="n">
-        <v>99948.3027</v>
+        <v>1099438.8981</v>
       </c>
       <c r="G117" t="n">
-        <v>2.210999999999998</v>
+        <v>2.210266666666664</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4496,19 +4496,19 @@
         <v>2.242</v>
       </c>
       <c r="C118" t="n">
-        <v>2.242</v>
+        <v>2.245</v>
       </c>
       <c r="D118" t="n">
-        <v>2.242</v>
+        <v>2.245</v>
       </c>
       <c r="E118" t="n">
         <v>2.242</v>
       </c>
       <c r="F118" t="n">
-        <v>417760.4622</v>
+        <v>99948.3027</v>
       </c>
       <c r="G118" t="n">
-        <v>2.211616666666664</v>
+        <v>2.210999999999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4531,19 @@
         <v>2.242</v>
       </c>
       <c r="C119" t="n">
-        <v>2.241</v>
+        <v>2.242</v>
       </c>
       <c r="D119" t="n">
         <v>2.242</v>
       </c>
       <c r="E119" t="n">
-        <v>2.241</v>
+        <v>2.242</v>
       </c>
       <c r="F119" t="n">
-        <v>4088834.3168</v>
+        <v>417760.4622</v>
       </c>
       <c r="G119" t="n">
-        <v>2.211999999999998</v>
+        <v>2.211616666666664</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="C120" t="n">
         <v>2.241</v>
       </c>
-      <c r="C120" t="n">
-        <v>2.221</v>
-      </c>
       <c r="D120" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="E120" t="n">
         <v>2.241</v>
       </c>
-      <c r="E120" t="n">
-        <v>2.221</v>
-      </c>
       <c r="F120" t="n">
-        <v>379712.9821</v>
+        <v>4088834.3168</v>
       </c>
       <c r="G120" t="n">
-        <v>2.212033333333332</v>
+        <v>2.211999999999998</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.221</v>
+        <v>2.241</v>
       </c>
       <c r="C121" t="n">
         <v>2.221</v>
       </c>
       <c r="D121" t="n">
-        <v>2.221</v>
+        <v>2.241</v>
       </c>
       <c r="E121" t="n">
         <v>2.221</v>
       </c>
       <c r="F121" t="n">
-        <v>42127.1016</v>
+        <v>379712.9821</v>
       </c>
       <c r="G121" t="n">
-        <v>2.212066666666665</v>
+        <v>2.212033333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2.238</v>
+        <v>2.221</v>
       </c>
       <c r="C122" t="n">
-        <v>2.235</v>
+        <v>2.221</v>
       </c>
       <c r="D122" t="n">
-        <v>2.238</v>
+        <v>2.221</v>
       </c>
       <c r="E122" t="n">
-        <v>2.235</v>
+        <v>2.221</v>
       </c>
       <c r="F122" t="n">
-        <v>684</v>
+        <v>42127.1016</v>
       </c>
       <c r="G122" t="n">
-        <v>2.212316666666665</v>
+        <v>2.212066666666665</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4671,19 @@
         <v>2.238</v>
       </c>
       <c r="C123" t="n">
-        <v>2.238</v>
+        <v>2.235</v>
       </c>
       <c r="D123" t="n">
         <v>2.238</v>
       </c>
       <c r="E123" t="n">
-        <v>2.238</v>
+        <v>2.235</v>
       </c>
       <c r="F123" t="n">
-        <v>240</v>
+        <v>684</v>
       </c>
       <c r="G123" t="n">
-        <v>2.212666666666665</v>
+        <v>2.212316666666665</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2.22</v>
+        <v>2.238</v>
       </c>
       <c r="C124" t="n">
-        <v>2.22</v>
+        <v>2.238</v>
       </c>
       <c r="D124" t="n">
-        <v>2.22</v>
+        <v>2.238</v>
       </c>
       <c r="E124" t="n">
-        <v>2.22</v>
+        <v>2.238</v>
       </c>
       <c r="F124" t="n">
-        <v>33022.2471</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
-        <v>2.212749999999998</v>
+        <v>2.212666666666665</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4741,19 +4741,19 @@
         <v>2.22</v>
       </c>
       <c r="C125" t="n">
-        <v>2.235</v>
+        <v>2.22</v>
       </c>
       <c r="D125" t="n">
-        <v>2.235</v>
+        <v>2.22</v>
       </c>
       <c r="E125" t="n">
         <v>2.22</v>
       </c>
       <c r="F125" t="n">
-        <v>125398.8329</v>
+        <v>33022.2471</v>
       </c>
       <c r="G125" t="n">
-        <v>2.213083333333332</v>
+        <v>2.212749999999998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4776,19 +4776,19 @@
         <v>2.22</v>
       </c>
       <c r="C126" t="n">
-        <v>2.22</v>
+        <v>2.235</v>
       </c>
       <c r="D126" t="n">
-        <v>2.22</v>
+        <v>2.235</v>
       </c>
       <c r="E126" t="n">
         <v>2.22</v>
       </c>
       <c r="F126" t="n">
-        <v>18181.8003</v>
+        <v>125398.8329</v>
       </c>
       <c r="G126" t="n">
-        <v>2.213166666666665</v>
+        <v>2.213083333333332</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>2.22</v>
       </c>
       <c r="F127" t="n">
-        <v>123565.0832</v>
+        <v>18181.8003</v>
       </c>
       <c r="G127" t="n">
-        <v>2.213149999999998</v>
+        <v>2.213166666666665</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4846,19 +4846,19 @@
         <v>2.22</v>
       </c>
       <c r="C128" t="n">
-        <v>2.243</v>
+        <v>2.22</v>
       </c>
       <c r="D128" t="n">
-        <v>2.243</v>
+        <v>2.22</v>
       </c>
       <c r="E128" t="n">
         <v>2.22</v>
       </c>
       <c r="F128" t="n">
-        <v>2302219.1749</v>
+        <v>123565.0832</v>
       </c>
       <c r="G128" t="n">
-        <v>2.213566666666665</v>
+        <v>2.213149999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.245</v>
+        <v>2.22</v>
       </c>
       <c r="C129" t="n">
-        <v>2.245</v>
+        <v>2.243</v>
       </c>
       <c r="D129" t="n">
-        <v>2.245</v>
+        <v>2.243</v>
       </c>
       <c r="E129" t="n">
-        <v>2.245</v>
+        <v>2.22</v>
       </c>
       <c r="F129" t="n">
-        <v>29573.8026</v>
+        <v>2302219.1749</v>
       </c>
       <c r="G129" t="n">
-        <v>2.214016666666665</v>
+        <v>2.213566666666665</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.242</v>
+        <v>2.245</v>
       </c>
       <c r="C130" t="n">
-        <v>2.242</v>
+        <v>2.245</v>
       </c>
       <c r="D130" t="n">
-        <v>2.242</v>
+        <v>2.245</v>
       </c>
       <c r="E130" t="n">
-        <v>2.242</v>
+        <v>2.245</v>
       </c>
       <c r="F130" t="n">
-        <v>70960.2132</v>
+        <v>29573.8026</v>
       </c>
       <c r="G130" t="n">
-        <v>2.214383333333332</v>
+        <v>2.214016666666665</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.216</v>
+        <v>2.242</v>
       </c>
       <c r="C131" t="n">
         <v>2.242</v>
@@ -4957,13 +4957,13 @@
         <v>2.242</v>
       </c>
       <c r="E131" t="n">
-        <v>2.216</v>
+        <v>2.242</v>
       </c>
       <c r="F131" t="n">
-        <v>12686</v>
+        <v>70960.2132</v>
       </c>
       <c r="G131" t="n">
-        <v>2.215099999999998</v>
+        <v>2.214383333333332</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.242</v>
+        <v>2.216</v>
       </c>
       <c r="C132" t="n">
         <v>2.242</v>
@@ -4992,13 +4992,13 @@
         <v>2.242</v>
       </c>
       <c r="E132" t="n">
-        <v>2.242</v>
+        <v>2.216</v>
       </c>
       <c r="F132" t="n">
-        <v>41249</v>
+        <v>12686</v>
       </c>
       <c r="G132" t="n">
-        <v>2.215483333333331</v>
+        <v>2.215099999999998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2.214</v>
+        <v>2.242</v>
       </c>
       <c r="C133" t="n">
-        <v>2.214</v>
+        <v>2.242</v>
       </c>
       <c r="D133" t="n">
-        <v>2.214</v>
+        <v>2.242</v>
       </c>
       <c r="E133" t="n">
-        <v>2.214</v>
+        <v>2.242</v>
       </c>
       <c r="F133" t="n">
-        <v>444</v>
+        <v>41249</v>
       </c>
       <c r="G133" t="n">
-        <v>2.215433333333331</v>
+        <v>2.215483333333331</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2.21</v>
+        <v>2.214</v>
       </c>
       <c r="C134" t="n">
-        <v>2.23</v>
+        <v>2.214</v>
       </c>
       <c r="D134" t="n">
-        <v>2.23</v>
+        <v>2.214</v>
       </c>
       <c r="E134" t="n">
-        <v>2.207</v>
+        <v>2.214</v>
       </c>
       <c r="F134" t="n">
-        <v>114199.9871</v>
+        <v>444</v>
       </c>
       <c r="G134" t="n">
-        <v>2.215649999999997</v>
+        <v>2.215433333333331</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C135" t="n">
         <v>2.23</v>
       </c>
-      <c r="C135" t="n">
-        <v>2.24</v>
-      </c>
       <c r="D135" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="E135" t="n">
-        <v>2.23</v>
+        <v>2.207</v>
       </c>
       <c r="F135" t="n">
-        <v>1677744.9001</v>
+        <v>114199.9871</v>
       </c>
       <c r="G135" t="n">
-        <v>2.216033333333331</v>
+        <v>2.215649999999997</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="C136" t="n">
         <v>2.24</v>
@@ -5132,13 +5132,13 @@
         <v>2.24</v>
       </c>
       <c r="E136" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="F136" t="n">
-        <v>328721.0822</v>
+        <v>1677744.9001</v>
       </c>
       <c r="G136" t="n">
-        <v>2.216766666666664</v>
+        <v>2.216033333333331</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>2.24</v>
       </c>
       <c r="F137" t="n">
-        <v>5289</v>
+        <v>328721.0822</v>
       </c>
       <c r="G137" t="n">
-        <v>2.217449999999998</v>
+        <v>2.216766666666664</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2.211</v>
+        <v>2.24</v>
       </c>
       <c r="C138" t="n">
-        <v>2.211</v>
+        <v>2.24</v>
       </c>
       <c r="D138" t="n">
-        <v>2.211</v>
+        <v>2.24</v>
       </c>
       <c r="E138" t="n">
-        <v>2.211</v>
+        <v>2.24</v>
       </c>
       <c r="F138" t="n">
-        <v>240</v>
+        <v>5289</v>
       </c>
       <c r="G138" t="n">
-        <v>2.217716666666665</v>
+        <v>2.217449999999998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5231,19 +5231,19 @@
         <v>2.211</v>
       </c>
       <c r="C139" t="n">
-        <v>2.202</v>
+        <v>2.211</v>
       </c>
       <c r="D139" t="n">
         <v>2.211</v>
       </c>
       <c r="E139" t="n">
-        <v>2.202</v>
+        <v>2.211</v>
       </c>
       <c r="F139" t="n">
-        <v>618324.6476</v>
+        <v>240</v>
       </c>
       <c r="G139" t="n">
-        <v>2.217466666666664</v>
+        <v>2.217716666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2.21</v>
+        <v>2.211</v>
       </c>
       <c r="C140" t="n">
-        <v>2.2</v>
+        <v>2.202</v>
       </c>
       <c r="D140" t="n">
-        <v>2.21</v>
+        <v>2.211</v>
       </c>
       <c r="E140" t="n">
-        <v>2.2</v>
+        <v>2.202</v>
       </c>
       <c r="F140" t="n">
-        <v>153808.438</v>
+        <v>618324.6476</v>
       </c>
       <c r="G140" t="n">
-        <v>2.217166666666664</v>
+        <v>2.217466666666664</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="C141" t="n">
         <v>2.2</v>
       </c>
       <c r="D141" t="n">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="E141" t="n">
         <v>2.2</v>
       </c>
       <c r="F141" t="n">
-        <v>175000</v>
+        <v>153808.438</v>
       </c>
       <c r="G141" t="n">
-        <v>2.216866666666664</v>
+        <v>2.217166666666664</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.201</v>
+        <v>2.2</v>
       </c>
       <c r="C142" t="n">
-        <v>2.201</v>
+        <v>2.2</v>
       </c>
       <c r="D142" t="n">
-        <v>2.201</v>
+        <v>2.2</v>
       </c>
       <c r="E142" t="n">
-        <v>2.201</v>
+        <v>2.2</v>
       </c>
       <c r="F142" t="n">
-        <v>240</v>
+        <v>175000</v>
       </c>
       <c r="G142" t="n">
-        <v>2.216549999999998</v>
+        <v>2.216866666666664</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>2.201</v>
       </c>
       <c r="F143" t="n">
-        <v>125398.8329</v>
+        <v>240</v>
       </c>
       <c r="G143" t="n">
-        <v>2.216333333333331</v>
+        <v>2.216549999999998</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5406,19 +5406,19 @@
         <v>2.201</v>
       </c>
       <c r="C144" t="n">
-        <v>2.2</v>
+        <v>2.201</v>
       </c>
       <c r="D144" t="n">
         <v>2.201</v>
       </c>
       <c r="E144" t="n">
-        <v>2.2</v>
+        <v>2.201</v>
       </c>
       <c r="F144" t="n">
-        <v>1109105.9281</v>
+        <v>125398.8329</v>
       </c>
       <c r="G144" t="n">
-        <v>2.216399999999997</v>
+        <v>2.216333333333331</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2.2</v>
+        <v>2.201</v>
       </c>
       <c r="C145" t="n">
         <v>2.2</v>
       </c>
       <c r="D145" t="n">
-        <v>2.2</v>
+        <v>2.201</v>
       </c>
       <c r="E145" t="n">
         <v>2.2</v>
       </c>
       <c r="F145" t="n">
-        <v>137710.7075</v>
+        <v>1109105.9281</v>
       </c>
       <c r="G145" t="n">
-        <v>2.216583333333331</v>
+        <v>2.216399999999997</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>2.2</v>
       </c>
       <c r="F146" t="n">
-        <v>28064.1532</v>
+        <v>137710.7075</v>
       </c>
       <c r="G146" t="n">
         <v>2.216583333333331</v>
@@ -5511,19 +5511,19 @@
         <v>2.2</v>
       </c>
       <c r="C147" t="n">
-        <v>2.212</v>
+        <v>2.2</v>
       </c>
       <c r="D147" t="n">
-        <v>2.212</v>
+        <v>2.2</v>
       </c>
       <c r="E147" t="n">
-        <v>2.192</v>
+        <v>2.2</v>
       </c>
       <c r="F147" t="n">
-        <v>465513.7975</v>
+        <v>28064.1532</v>
       </c>
       <c r="G147" t="n">
-        <v>2.217016666666664</v>
+        <v>2.216583333333331</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,7 +5543,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2.212</v>
+        <v>2.2</v>
       </c>
       <c r="C148" t="n">
         <v>2.212</v>
@@ -5552,13 +5552,13 @@
         <v>2.212</v>
       </c>
       <c r="E148" t="n">
-        <v>2.212</v>
+        <v>2.192</v>
       </c>
       <c r="F148" t="n">
-        <v>411457.7783</v>
+        <v>465513.7975</v>
       </c>
       <c r="G148" t="n">
-        <v>2.21748333333333</v>
+        <v>2.217016666666664</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2.2</v>
+        <v>2.212</v>
       </c>
       <c r="C149" t="n">
-        <v>2.2</v>
+        <v>2.212</v>
       </c>
       <c r="D149" t="n">
-        <v>2.2</v>
+        <v>2.212</v>
       </c>
       <c r="E149" t="n">
-        <v>2.2</v>
+        <v>2.212</v>
       </c>
       <c r="F149" t="n">
-        <v>240</v>
+        <v>411457.7783</v>
       </c>
       <c r="G149" t="n">
-        <v>2.217716666666663</v>
+        <v>2.21748333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5616,19 +5616,19 @@
         <v>2.2</v>
       </c>
       <c r="C150" t="n">
-        <v>2.194</v>
+        <v>2.2</v>
       </c>
       <c r="D150" t="n">
         <v>2.2</v>
       </c>
       <c r="E150" t="n">
-        <v>2.194</v>
+        <v>2.2</v>
       </c>
       <c r="F150" t="n">
-        <v>2500</v>
+        <v>240</v>
       </c>
       <c r="G150" t="n">
-        <v>2.217849999999996</v>
+        <v>2.217716666666663</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2.194</v>
+        <v>2.2</v>
       </c>
       <c r="C151" t="n">
         <v>2.194</v>
       </c>
       <c r="D151" t="n">
-        <v>2.194</v>
+        <v>2.2</v>
       </c>
       <c r="E151" t="n">
         <v>2.194</v>
       </c>
       <c r="F151" t="n">
-        <v>414264.1376</v>
+        <v>2500</v>
       </c>
       <c r="G151" t="n">
-        <v>2.218016666666663</v>
+        <v>2.217849999999996</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5686,19 +5686,19 @@
         <v>2.194</v>
       </c>
       <c r="C152" t="n">
-        <v>2.192</v>
+        <v>2.194</v>
       </c>
       <c r="D152" t="n">
         <v>2.194</v>
       </c>
       <c r="E152" t="n">
-        <v>2.192</v>
+        <v>2.194</v>
       </c>
       <c r="F152" t="n">
-        <v>482837.7238</v>
+        <v>414264.1376</v>
       </c>
       <c r="G152" t="n">
-        <v>2.218149999999996</v>
+        <v>2.218016666666663</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>2.194</v>
+      </c>
+      <c r="C153" t="n">
         <v>2.192</v>
       </c>
-      <c r="C153" t="n">
-        <v>2.212</v>
-      </c>
       <c r="D153" t="n">
-        <v>2.212</v>
+        <v>2.194</v>
       </c>
       <c r="E153" t="n">
-        <v>2.191</v>
+        <v>2.192</v>
       </c>
       <c r="F153" t="n">
-        <v>2290020.8347</v>
+        <v>482837.7238</v>
       </c>
       <c r="G153" t="n">
-        <v>2.218599999999996</v>
+        <v>2.218149999999996</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.2</v>
+        <v>2.192</v>
       </c>
       <c r="C154" t="n">
-        <v>2.187</v>
+        <v>2.212</v>
       </c>
       <c r="D154" t="n">
-        <v>2.2</v>
+        <v>2.212</v>
       </c>
       <c r="E154" t="n">
-        <v>2.187</v>
+        <v>2.191</v>
       </c>
       <c r="F154" t="n">
-        <v>893172.74</v>
+        <v>2290020.8347</v>
       </c>
       <c r="G154" t="n">
-        <v>2.218649999999996</v>
+        <v>2.218599999999996</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2.215</v>
+        <v>2.2</v>
       </c>
       <c r="C155" t="n">
-        <v>2.215</v>
+        <v>2.187</v>
       </c>
       <c r="D155" t="n">
-        <v>2.215</v>
+        <v>2.2</v>
       </c>
       <c r="E155" t="n">
-        <v>2.215</v>
+        <v>2.187</v>
       </c>
       <c r="F155" t="n">
-        <v>1172.5629</v>
+        <v>893172.74</v>
       </c>
       <c r="G155" t="n">
-        <v>2.219066666666663</v>
+        <v>2.218649999999996</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2.191</v>
+        <v>2.215</v>
       </c>
       <c r="C156" t="n">
-        <v>2.191</v>
+        <v>2.215</v>
       </c>
       <c r="D156" t="n">
-        <v>2.191</v>
+        <v>2.215</v>
       </c>
       <c r="E156" t="n">
-        <v>2.191</v>
+        <v>2.215</v>
       </c>
       <c r="F156" t="n">
-        <v>38146.2319</v>
+        <v>1172.5629</v>
       </c>
       <c r="G156" t="n">
-        <v>2.219149999999996</v>
+        <v>2.219066666666663</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2.215</v>
+        <v>2.191</v>
       </c>
       <c r="C157" t="n">
-        <v>2.215</v>
+        <v>2.191</v>
       </c>
       <c r="D157" t="n">
-        <v>2.215</v>
+        <v>2.191</v>
       </c>
       <c r="E157" t="n">
-        <v>2.215</v>
+        <v>2.191</v>
       </c>
       <c r="F157" t="n">
-        <v>221704.7451</v>
+        <v>38146.2319</v>
       </c>
       <c r="G157" t="n">
-        <v>2.219633333333329</v>
+        <v>2.219149999999996</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2.216</v>
+        <v>2.215</v>
       </c>
       <c r="C158" t="n">
-        <v>2.216</v>
+        <v>2.215</v>
       </c>
       <c r="D158" t="n">
-        <v>2.216</v>
+        <v>2.215</v>
       </c>
       <c r="E158" t="n">
-        <v>2.216</v>
+        <v>2.215</v>
       </c>
       <c r="F158" t="n">
-        <v>32971.3442</v>
+        <v>221704.7451</v>
       </c>
       <c r="G158" t="n">
-        <v>2.220066666666663</v>
+        <v>2.219633333333329</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2.192</v>
+        <v>2.216</v>
       </c>
       <c r="C159" t="n">
-        <v>2.188</v>
+        <v>2.216</v>
       </c>
       <c r="D159" t="n">
-        <v>2.192</v>
+        <v>2.216</v>
       </c>
       <c r="E159" t="n">
-        <v>2.188</v>
+        <v>2.216</v>
       </c>
       <c r="F159" t="n">
-        <v>563135.1041999999</v>
+        <v>32971.3442</v>
       </c>
       <c r="G159" t="n">
-        <v>2.220033333333329</v>
+        <v>2.220066666666663</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2.191</v>
+        <v>2.192</v>
       </c>
       <c r="C160" t="n">
-        <v>2.191</v>
+        <v>2.188</v>
       </c>
       <c r="D160" t="n">
-        <v>2.191</v>
+        <v>2.192</v>
       </c>
       <c r="E160" t="n">
-        <v>2.191</v>
+        <v>2.188</v>
       </c>
       <c r="F160" t="n">
-        <v>32971.3442</v>
+        <v>563135.1041999999</v>
       </c>
       <c r="G160" t="n">
-        <v>2.21988333333333</v>
+        <v>2.220033333333329</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2.215</v>
+        <v>2.191</v>
       </c>
       <c r="C161" t="n">
-        <v>2.215</v>
+        <v>2.191</v>
       </c>
       <c r="D161" t="n">
-        <v>2.215</v>
+        <v>2.191</v>
       </c>
       <c r="E161" t="n">
-        <v>2.215</v>
+        <v>2.191</v>
       </c>
       <c r="F161" t="n">
-        <v>270.0385</v>
+        <v>32971.3442</v>
       </c>
       <c r="G161" t="n">
-        <v>2.22013333333333</v>
+        <v>2.21988333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2.2</v>
+        <v>2.215</v>
       </c>
       <c r="C162" t="n">
-        <v>2.2</v>
+        <v>2.215</v>
       </c>
       <c r="D162" t="n">
-        <v>2.2</v>
+        <v>2.215</v>
       </c>
       <c r="E162" t="n">
-        <v>2.2</v>
+        <v>2.215</v>
       </c>
       <c r="F162" t="n">
-        <v>30172.5731</v>
+        <v>270.0385</v>
       </c>
       <c r="G162" t="n">
-        <v>2.219816666666663</v>
+        <v>2.22013333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2.213</v>
+        <v>2.2</v>
       </c>
       <c r="C163" t="n">
-        <v>2.213</v>
+        <v>2.2</v>
       </c>
       <c r="D163" t="n">
-        <v>2.213</v>
+        <v>2.2</v>
       </c>
       <c r="E163" t="n">
-        <v>2.213</v>
+        <v>2.2</v>
       </c>
       <c r="F163" t="n">
-        <v>18781.9693</v>
+        <v>30172.5731</v>
       </c>
       <c r="G163" t="n">
-        <v>2.219716666666663</v>
+        <v>2.219816666666663</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>2.213</v>
       </c>
       <c r="F164" t="n">
-        <v>35055.1447</v>
+        <v>18781.9693</v>
       </c>
       <c r="G164" t="n">
-        <v>2.219599999999997</v>
+        <v>2.219716666666663</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6141,19 +6141,19 @@
         <v>2.213</v>
       </c>
       <c r="C165" t="n">
-        <v>2.195</v>
+        <v>2.213</v>
       </c>
       <c r="D165" t="n">
         <v>2.213</v>
       </c>
       <c r="E165" t="n">
-        <v>2.195</v>
+        <v>2.213</v>
       </c>
       <c r="F165" t="n">
-        <v>31789.6306</v>
+        <v>35055.1447</v>
       </c>
       <c r="G165" t="n">
-        <v>2.21918333333333</v>
+        <v>2.219599999999997</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>2.213</v>
+      </c>
+      <c r="C166" t="n">
         <v>2.195</v>
       </c>
-      <c r="C166" t="n">
-        <v>2.194</v>
-      </c>
       <c r="D166" t="n">
+        <v>2.213</v>
+      </c>
+      <c r="E166" t="n">
         <v>2.195</v>
       </c>
-      <c r="E166" t="n">
-        <v>2.191</v>
-      </c>
       <c r="F166" t="n">
-        <v>249853.0002</v>
+        <v>31789.6306</v>
       </c>
       <c r="G166" t="n">
-        <v>2.218749999999996</v>
+        <v>2.21918333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2.194</v>
+        <v>2.195</v>
       </c>
       <c r="C167" t="n">
         <v>2.194</v>
       </c>
       <c r="D167" t="n">
-        <v>2.194</v>
+        <v>2.195</v>
       </c>
       <c r="E167" t="n">
-        <v>2.194</v>
+        <v>2.191</v>
       </c>
       <c r="F167" t="n">
-        <v>2000</v>
+        <v>249853.0002</v>
       </c>
       <c r="G167" t="n">
-        <v>2.218316666666662</v>
+        <v>2.218749999999996</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6246,19 +6246,19 @@
         <v>2.194</v>
       </c>
       <c r="C168" t="n">
-        <v>2.191</v>
+        <v>2.194</v>
       </c>
       <c r="D168" t="n">
         <v>2.194</v>
       </c>
       <c r="E168" t="n">
-        <v>2.191</v>
+        <v>2.194</v>
       </c>
       <c r="F168" t="n">
         <v>2000</v>
       </c>
       <c r="G168" t="n">
-        <v>2.217799999999996</v>
+        <v>2.218316666666662</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2.191</v>
+        <v>2.194</v>
       </c>
       <c r="C169" t="n">
         <v>2.191</v>
       </c>
       <c r="D169" t="n">
-        <v>2.191</v>
+        <v>2.194</v>
       </c>
       <c r="E169" t="n">
         <v>2.191</v>
       </c>
       <c r="F169" t="n">
-        <v>231173.9823</v>
+        <v>2000</v>
       </c>
       <c r="G169" t="n">
-        <v>2.217166666666663</v>
+        <v>2.217799999999996</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6325,10 +6325,10 @@
         <v>2.191</v>
       </c>
       <c r="F170" t="n">
-        <v>314354.7944</v>
+        <v>231173.9823</v>
       </c>
       <c r="G170" t="n">
-        <v>2.216366666666663</v>
+        <v>2.217166666666663</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         <v>2.191</v>
       </c>
       <c r="F171" t="n">
-        <v>137950.2081</v>
+        <v>314354.7944</v>
       </c>
       <c r="G171" t="n">
-        <v>2.215733333333329</v>
+        <v>2.216366666666663</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>2.191</v>
       </c>
       <c r="F172" t="n">
-        <v>27277.0085</v>
+        <v>137950.2081</v>
       </c>
       <c r="G172" t="n">
-        <v>2.214933333333329</v>
+        <v>2.215733333333329</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6421,19 +6421,19 @@
         <v>2.191</v>
       </c>
       <c r="C173" t="n">
-        <v>2.19</v>
+        <v>2.191</v>
       </c>
       <c r="D173" t="n">
         <v>2.191</v>
       </c>
       <c r="E173" t="n">
-        <v>2.19</v>
+        <v>2.191</v>
       </c>
       <c r="F173" t="n">
-        <v>129680</v>
+        <v>27277.0085</v>
       </c>
       <c r="G173" t="n">
-        <v>2.214099999999995</v>
+        <v>2.214933333333329</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2.214</v>
+        <v>2.191</v>
       </c>
       <c r="C174" t="n">
-        <v>2.214</v>
+        <v>2.19</v>
       </c>
       <c r="D174" t="n">
-        <v>2.214</v>
+        <v>2.191</v>
       </c>
       <c r="E174" t="n">
-        <v>2.214</v>
+        <v>2.19</v>
       </c>
       <c r="F174" t="n">
-        <v>500</v>
+        <v>129680</v>
       </c>
       <c r="G174" t="n">
-        <v>2.213666666666662</v>
+        <v>2.214099999999995</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2.191</v>
+        <v>2.214</v>
       </c>
       <c r="C175" t="n">
-        <v>2.191</v>
+        <v>2.214</v>
       </c>
       <c r="D175" t="n">
-        <v>2.191</v>
+        <v>2.214</v>
       </c>
       <c r="E175" t="n">
-        <v>2.191</v>
+        <v>2.214</v>
       </c>
       <c r="F175" t="n">
-        <v>15690.5606</v>
+        <v>500</v>
       </c>
       <c r="G175" t="n">
-        <v>2.212766666666662</v>
+        <v>2.213666666666662</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2.211</v>
+        <v>2.191</v>
       </c>
       <c r="C176" t="n">
-        <v>2.211</v>
+        <v>2.191</v>
       </c>
       <c r="D176" t="n">
-        <v>2.211</v>
+        <v>2.191</v>
       </c>
       <c r="E176" t="n">
-        <v>2.211</v>
+        <v>2.191</v>
       </c>
       <c r="F176" t="n">
-        <v>444</v>
+        <v>15690.5606</v>
       </c>
       <c r="G176" t="n">
-        <v>2.212249999999996</v>
+        <v>2.212766666666662</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2.208</v>
+        <v>2.211</v>
       </c>
       <c r="C177" t="n">
-        <v>2.208</v>
+        <v>2.211</v>
       </c>
       <c r="D177" t="n">
-        <v>2.208</v>
+        <v>2.211</v>
       </c>
       <c r="E177" t="n">
-        <v>2.208</v>
+        <v>2.211</v>
       </c>
       <c r="F177" t="n">
         <v>444</v>
       </c>
       <c r="G177" t="n">
-        <v>2.211633333333329</v>
+        <v>2.212249999999996</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.203</v>
+        <v>2.208</v>
       </c>
       <c r="C178" t="n">
-        <v>2.203</v>
+        <v>2.208</v>
       </c>
       <c r="D178" t="n">
-        <v>2.203</v>
+        <v>2.208</v>
       </c>
       <c r="E178" t="n">
-        <v>2.203</v>
+        <v>2.208</v>
       </c>
       <c r="F178" t="n">
-        <v>1300</v>
+        <v>444</v>
       </c>
       <c r="G178" t="n">
-        <v>2.210983333333329</v>
+        <v>2.211633333333329</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2.19</v>
+        <v>2.203</v>
       </c>
       <c r="C179" t="n">
-        <v>2.212</v>
+        <v>2.203</v>
       </c>
       <c r="D179" t="n">
-        <v>2.212</v>
+        <v>2.203</v>
       </c>
       <c r="E179" t="n">
-        <v>2.19</v>
+        <v>2.203</v>
       </c>
       <c r="F179" t="n">
-        <v>45240</v>
+        <v>1300</v>
       </c>
       <c r="G179" t="n">
-        <v>2.210499999999995</v>
+        <v>2.210983333333329</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2.189</v>
+        <v>2.19</v>
       </c>
       <c r="C180" t="n">
-        <v>2.189</v>
+        <v>2.212</v>
       </c>
       <c r="D180" t="n">
-        <v>2.189</v>
+        <v>2.212</v>
       </c>
       <c r="E180" t="n">
-        <v>2.189</v>
+        <v>2.19</v>
       </c>
       <c r="F180" t="n">
-        <v>71370.4889</v>
+        <v>45240</v>
       </c>
       <c r="G180" t="n">
-        <v>2.209966666666662</v>
+        <v>2.210499999999995</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2.188</v>
+        <v>2.189</v>
       </c>
       <c r="C181" t="n">
-        <v>2.188</v>
+        <v>2.189</v>
       </c>
       <c r="D181" t="n">
-        <v>2.188</v>
+        <v>2.189</v>
       </c>
       <c r="E181" t="n">
-        <v>2.188</v>
+        <v>2.189</v>
       </c>
       <c r="F181" t="n">
-        <v>330927.3454</v>
+        <v>71370.4889</v>
       </c>
       <c r="G181" t="n">
-        <v>2.209416666666661</v>
+        <v>2.209966666666662</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2.189</v>
+        <v>2.188</v>
       </c>
       <c r="C182" t="n">
-        <v>2.189</v>
+        <v>2.188</v>
       </c>
       <c r="D182" t="n">
-        <v>2.189</v>
+        <v>2.188</v>
       </c>
       <c r="E182" t="n">
-        <v>2.189</v>
+        <v>2.188</v>
       </c>
       <c r="F182" t="n">
-        <v>180133.1247</v>
+        <v>330927.3454</v>
       </c>
       <c r="G182" t="n">
-        <v>2.208649999999994</v>
+        <v>2.209416666666661</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2.212</v>
+        <v>2.189</v>
       </c>
       <c r="C183" t="n">
         <v>2.189</v>
       </c>
       <c r="D183" t="n">
-        <v>2.212</v>
+        <v>2.189</v>
       </c>
       <c r="E183" t="n">
         <v>2.189</v>
       </c>
       <c r="F183" t="n">
-        <v>639</v>
+        <v>180133.1247</v>
       </c>
       <c r="G183" t="n">
-        <v>2.207833333333328</v>
+        <v>2.208649999999994</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2.189</v>
+        <v>2.212</v>
       </c>
       <c r="C184" t="n">
         <v>2.189</v>
       </c>
       <c r="D184" t="n">
-        <v>2.189</v>
+        <v>2.212</v>
       </c>
       <c r="E184" t="n">
         <v>2.189</v>
       </c>
       <c r="F184" t="n">
-        <v>240</v>
+        <v>639</v>
       </c>
       <c r="G184" t="n">
-        <v>2.207316666666661</v>
+        <v>2.207833333333328</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2.199</v>
+        <v>2.189</v>
       </c>
       <c r="C185" t="n">
-        <v>2.199</v>
+        <v>2.189</v>
       </c>
       <c r="D185" t="n">
-        <v>2.199</v>
+        <v>2.189</v>
       </c>
       <c r="E185" t="n">
-        <v>2.199</v>
+        <v>2.189</v>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>240</v>
       </c>
       <c r="G185" t="n">
-        <v>2.206716666666661</v>
+        <v>2.207316666666661</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6885,10 +6885,10 @@
         <v>2.199</v>
       </c>
       <c r="F186" t="n">
-        <v>53795.3342</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="n">
-        <v>2.206366666666661</v>
+        <v>2.206716666666661</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6911,19 +6911,19 @@
         <v>2.199</v>
       </c>
       <c r="C187" t="n">
-        <v>2.211</v>
+        <v>2.199</v>
       </c>
       <c r="D187" t="n">
-        <v>2.211</v>
+        <v>2.199</v>
       </c>
       <c r="E187" t="n">
-        <v>2.187</v>
+        <v>2.199</v>
       </c>
       <c r="F187" t="n">
-        <v>2533354.0284</v>
+        <v>53795.3342</v>
       </c>
       <c r="G187" t="n">
-        <v>2.206216666666661</v>
+        <v>2.206366666666661</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.209</v>
+        <v>2.199</v>
       </c>
       <c r="C188" t="n">
-        <v>2.209</v>
+        <v>2.211</v>
       </c>
       <c r="D188" t="n">
-        <v>2.209</v>
+        <v>2.211</v>
       </c>
       <c r="E188" t="n">
-        <v>2.209</v>
+        <v>2.187</v>
       </c>
       <c r="F188" t="n">
-        <v>240</v>
+        <v>2533354.0284</v>
       </c>
       <c r="G188" t="n">
-        <v>2.205649999999995</v>
+        <v>2.206216666666661</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2.203</v>
+        <v>2.209</v>
       </c>
       <c r="C189" t="n">
-        <v>2.203</v>
+        <v>2.209</v>
       </c>
       <c r="D189" t="n">
-        <v>2.203</v>
+        <v>2.209</v>
       </c>
       <c r="E189" t="n">
-        <v>2.203</v>
+        <v>2.209</v>
       </c>
       <c r="F189" t="n">
-        <v>249.8544</v>
+        <v>240</v>
       </c>
       <c r="G189" t="n">
-        <v>2.204949999999995</v>
+        <v>2.205649999999995</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2.207</v>
+        <v>2.203</v>
       </c>
       <c r="C190" t="n">
-        <v>2.207</v>
+        <v>2.203</v>
       </c>
       <c r="D190" t="n">
-        <v>2.207</v>
+        <v>2.203</v>
       </c>
       <c r="E190" t="n">
-        <v>2.207</v>
+        <v>2.203</v>
       </c>
       <c r="F190" t="n">
-        <v>240</v>
+        <v>249.8544</v>
       </c>
       <c r="G190" t="n">
-        <v>2.204366666666661</v>
+        <v>2.204949999999995</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7060,10 +7060,10 @@
         <v>2.207</v>
       </c>
       <c r="F191" t="n">
-        <v>752.8799</v>
+        <v>240</v>
       </c>
       <c r="G191" t="n">
-        <v>2.203783333333328</v>
+        <v>2.204366666666661</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>2.203</v>
+        <v>2.207</v>
       </c>
       <c r="C192" t="n">
-        <v>2.203</v>
+        <v>2.207</v>
       </c>
       <c r="D192" t="n">
-        <v>2.203</v>
+        <v>2.207</v>
       </c>
       <c r="E192" t="n">
-        <v>2.203</v>
+        <v>2.207</v>
       </c>
       <c r="F192" t="n">
-        <v>2150.1456</v>
+        <v>752.8799</v>
       </c>
       <c r="G192" t="n">
-        <v>2.203133333333328</v>
+        <v>2.203783333333328</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2.2</v>
+        <v>2.203</v>
       </c>
       <c r="C193" t="n">
-        <v>2.202</v>
+        <v>2.203</v>
       </c>
       <c r="D193" t="n">
-        <v>2.202</v>
+        <v>2.203</v>
       </c>
       <c r="E193" t="n">
-        <v>2.2</v>
+        <v>2.203</v>
       </c>
       <c r="F193" t="n">
-        <v>817967.3419999999</v>
+        <v>2150.1456</v>
       </c>
       <c r="G193" t="n">
-        <v>2.202933333333328</v>
+        <v>2.203133333333328</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2.214</v>
+        <v>2.2</v>
       </c>
       <c r="C194" t="n">
-        <v>2.214</v>
+        <v>2.202</v>
       </c>
       <c r="D194" t="n">
-        <v>2.214</v>
+        <v>2.202</v>
       </c>
       <c r="E194" t="n">
-        <v>2.214</v>
+        <v>2.2</v>
       </c>
       <c r="F194" t="n">
-        <v>240</v>
+        <v>817967.3419999999</v>
       </c>
       <c r="G194" t="n">
-        <v>2.202666666666662</v>
+        <v>2.202933333333328</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2.213</v>
+        <v>2.214</v>
       </c>
       <c r="C195" t="n">
-        <v>2.213</v>
+        <v>2.214</v>
       </c>
       <c r="D195" t="n">
-        <v>2.213</v>
+        <v>2.214</v>
       </c>
       <c r="E195" t="n">
-        <v>2.213</v>
+        <v>2.214</v>
       </c>
       <c r="F195" t="n">
         <v>240</v>
       </c>
       <c r="G195" t="n">
-        <v>2.202216666666662</v>
+        <v>2.202666666666662</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>2.211</v>
+        <v>2.213</v>
       </c>
       <c r="C196" t="n">
-        <v>2.203</v>
+        <v>2.213</v>
       </c>
       <c r="D196" t="n">
-        <v>2.211</v>
+        <v>2.213</v>
       </c>
       <c r="E196" t="n">
-        <v>2.203</v>
+        <v>2.213</v>
       </c>
       <c r="F196" t="n">
-        <v>32092.5102</v>
+        <v>240</v>
       </c>
       <c r="G196" t="n">
-        <v>2.201599999999995</v>
+        <v>2.202216666666662</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2.213</v>
+        <v>2.211</v>
       </c>
       <c r="C197" t="n">
-        <v>2.213</v>
+        <v>2.203</v>
       </c>
       <c r="D197" t="n">
-        <v>2.213</v>
+        <v>2.211</v>
       </c>
       <c r="E197" t="n">
         <v>2.203</v>
       </c>
       <c r="F197" t="n">
-        <v>120480</v>
+        <v>32092.5102</v>
       </c>
       <c r="G197" t="n">
-        <v>2.201149999999994</v>
+        <v>2.201599999999995</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7302,13 +7302,13 @@
         <v>2.213</v>
       </c>
       <c r="E198" t="n">
-        <v>2.213</v>
+        <v>2.203</v>
       </c>
       <c r="F198" t="n">
-        <v>720</v>
+        <v>120480</v>
       </c>
       <c r="G198" t="n">
-        <v>2.201183333333327</v>
+        <v>2.201149999999994</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2.203</v>
+        <v>2.213</v>
       </c>
       <c r="C199" t="n">
         <v>2.213</v>
@@ -7337,13 +7337,13 @@
         <v>2.213</v>
       </c>
       <c r="E199" t="n">
-        <v>2.203</v>
+        <v>2.213</v>
       </c>
       <c r="F199" t="n">
-        <v>500340</v>
+        <v>720</v>
       </c>
       <c r="G199" t="n">
-        <v>2.201366666666661</v>
+        <v>2.201183333333327</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2.213</v>
+        <v>2.203</v>
       </c>
       <c r="C200" t="n">
         <v>2.213</v>
@@ -7372,13 +7372,13 @@
         <v>2.213</v>
       </c>
       <c r="E200" t="n">
-        <v>2.213</v>
+        <v>2.203</v>
       </c>
       <c r="F200" t="n">
-        <v>960</v>
+        <v>500340</v>
       </c>
       <c r="G200" t="n">
-        <v>2.201583333333327</v>
+        <v>2.201366666666661</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2.211</v>
+        <v>2.213</v>
       </c>
       <c r="C201" t="n">
         <v>2.213</v>
@@ -7407,13 +7407,13 @@
         <v>2.213</v>
       </c>
       <c r="E201" t="n">
-        <v>2.203</v>
+        <v>2.213</v>
       </c>
       <c r="F201" t="n">
-        <v>146400.0501</v>
+        <v>960</v>
       </c>
       <c r="G201" t="n">
-        <v>2.201799999999994</v>
+        <v>2.201583333333327</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2.21</v>
+        <v>2.211</v>
       </c>
       <c r="C202" t="n">
-        <v>2.203</v>
+        <v>2.213</v>
       </c>
       <c r="D202" t="n">
-        <v>2.21</v>
+        <v>2.213</v>
       </c>
       <c r="E202" t="n">
         <v>2.203</v>
       </c>
       <c r="F202" t="n">
-        <v>29123.2591</v>
+        <v>146400.0501</v>
       </c>
       <c r="G202" t="n">
-        <v>2.201833333333328</v>
+        <v>2.201799999999994</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2.203</v>
+        <v>2.21</v>
       </c>
       <c r="C203" t="n">
         <v>2.203</v>
       </c>
       <c r="D203" t="n">
-        <v>2.203</v>
+        <v>2.21</v>
       </c>
       <c r="E203" t="n">
         <v>2.203</v>
       </c>
       <c r="F203" t="n">
-        <v>52401.9438</v>
+        <v>29123.2591</v>
       </c>
       <c r="G203" t="n">
-        <v>2.201866666666661</v>
+        <v>2.201833333333328</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2.21</v>
+        <v>2.203</v>
       </c>
       <c r="C204" t="n">
         <v>2.203</v>
       </c>
       <c r="D204" t="n">
-        <v>2.21</v>
+        <v>2.203</v>
       </c>
       <c r="E204" t="n">
         <v>2.203</v>
       </c>
       <c r="F204" t="n">
-        <v>34777.2127</v>
+        <v>52401.9438</v>
       </c>
       <c r="G204" t="n">
-        <v>2.201916666666662</v>
+        <v>2.201866666666661</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,10 +7538,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C205" t="n">
         <v>2.203</v>
-      </c>
-      <c r="C205" t="n">
-        <v>2.21</v>
       </c>
       <c r="D205" t="n">
         <v>2.21</v>
@@ -7550,10 +7550,10 @@
         <v>2.203</v>
       </c>
       <c r="F205" t="n">
-        <v>5080.9315</v>
+        <v>34777.2127</v>
       </c>
       <c r="G205" t="n">
-        <v>2.202083333333329</v>
+        <v>2.201916666666662</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7576,19 +7576,19 @@
         <v>2.203</v>
       </c>
       <c r="C206" t="n">
-        <v>2.203</v>
+        <v>2.21</v>
       </c>
       <c r="D206" t="n">
-        <v>2.203</v>
+        <v>2.21</v>
       </c>
       <c r="E206" t="n">
         <v>2.203</v>
       </c>
       <c r="F206" t="n">
-        <v>308092.6173</v>
+        <v>5080.9315</v>
       </c>
       <c r="G206" t="n">
-        <v>2.202133333333329</v>
+        <v>2.202083333333329</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2.196</v>
+        <v>2.203</v>
       </c>
       <c r="C207" t="n">
-        <v>2.196</v>
+        <v>2.203</v>
       </c>
       <c r="D207" t="n">
-        <v>2.196</v>
+        <v>2.203</v>
       </c>
       <c r="E207" t="n">
-        <v>2.196</v>
+        <v>2.203</v>
       </c>
       <c r="F207" t="n">
-        <v>240</v>
+        <v>308092.6173</v>
       </c>
       <c r="G207" t="n">
-        <v>2.201866666666662</v>
+        <v>2.202133333333329</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2.203</v>
+        <v>2.196</v>
       </c>
       <c r="C208" t="n">
-        <v>2.185</v>
+        <v>2.196</v>
       </c>
       <c r="D208" t="n">
-        <v>2.203</v>
+        <v>2.196</v>
       </c>
       <c r="E208" t="n">
-        <v>2.185</v>
+        <v>2.196</v>
       </c>
       <c r="F208" t="n">
-        <v>838490.8801</v>
+        <v>240</v>
       </c>
       <c r="G208" t="n">
-        <v>2.201416666666662</v>
+        <v>2.201866666666662</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2.185</v>
+        <v>2.203</v>
       </c>
       <c r="C209" t="n">
         <v>2.185</v>
       </c>
       <c r="D209" t="n">
-        <v>2.185</v>
+        <v>2.203</v>
       </c>
       <c r="E209" t="n">
         <v>2.185</v>
       </c>
       <c r="F209" t="n">
-        <v>23395.4399</v>
+        <v>838490.8801</v>
       </c>
       <c r="G209" t="n">
-        <v>2.201166666666663</v>
+        <v>2.201416666666662</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7716,19 +7716,19 @@
         <v>2.185</v>
       </c>
       <c r="C210" t="n">
-        <v>2.181</v>
+        <v>2.185</v>
       </c>
       <c r="D210" t="n">
         <v>2.185</v>
       </c>
       <c r="E210" t="n">
-        <v>2.181</v>
+        <v>2.185</v>
       </c>
       <c r="F210" t="n">
-        <v>1682395.0329</v>
+        <v>23395.4399</v>
       </c>
       <c r="G210" t="n">
-        <v>2.200949999999997</v>
+        <v>2.201166666666663</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2.181</v>
+        <v>2.185</v>
       </c>
       <c r="C211" t="n">
         <v>2.181</v>
       </c>
       <c r="D211" t="n">
-        <v>2.181</v>
+        <v>2.185</v>
       </c>
       <c r="E211" t="n">
         <v>2.181</v>
       </c>
       <c r="F211" t="n">
-        <v>269583.2135</v>
+        <v>1682395.0329</v>
       </c>
       <c r="G211" t="n">
-        <v>2.20073333333333</v>
+        <v>2.200949999999997</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2.18</v>
+        <v>2.181</v>
       </c>
       <c r="C212" t="n">
-        <v>2.178</v>
+        <v>2.181</v>
       </c>
       <c r="D212" t="n">
-        <v>2.18</v>
+        <v>2.181</v>
       </c>
       <c r="E212" t="n">
-        <v>2.178</v>
+        <v>2.181</v>
       </c>
       <c r="F212" t="n">
-        <v>16826.7298</v>
+        <v>269583.2135</v>
       </c>
       <c r="G212" t="n">
-        <v>2.200499999999997</v>
+        <v>2.20073333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2.199</v>
+        <v>2.18</v>
       </c>
       <c r="C213" t="n">
-        <v>2.199</v>
+        <v>2.178</v>
       </c>
       <c r="D213" t="n">
-        <v>2.199</v>
+        <v>2.18</v>
       </c>
       <c r="E213" t="n">
-        <v>2.199</v>
+        <v>2.178</v>
       </c>
       <c r="F213" t="n">
-        <v>600</v>
+        <v>16826.7298</v>
       </c>
       <c r="G213" t="n">
-        <v>2.20028333333333</v>
+        <v>2.200499999999997</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2.178</v>
+        <v>2.199</v>
       </c>
       <c r="C214" t="n">
-        <v>2.178</v>
+        <v>2.199</v>
       </c>
       <c r="D214" t="n">
-        <v>2.178</v>
+        <v>2.199</v>
       </c>
       <c r="E214" t="n">
-        <v>2.178</v>
+        <v>2.199</v>
       </c>
       <c r="F214" t="n">
-        <v>8052.963</v>
+        <v>600</v>
       </c>
       <c r="G214" t="n">
-        <v>2.20013333333333</v>
+        <v>2.20028333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7891,19 +7891,19 @@
         <v>2.178</v>
       </c>
       <c r="C215" t="n">
-        <v>2.199</v>
+        <v>2.178</v>
       </c>
       <c r="D215" t="n">
-        <v>2.199</v>
+        <v>2.178</v>
       </c>
       <c r="E215" t="n">
         <v>2.178</v>
       </c>
       <c r="F215" t="n">
-        <v>13302.9329</v>
+        <v>8052.963</v>
       </c>
       <c r="G215" t="n">
-        <v>2.199866666666664</v>
+        <v>2.20013333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7926,19 +7926,19 @@
         <v>2.178</v>
       </c>
       <c r="C216" t="n">
-        <v>2.15</v>
+        <v>2.199</v>
       </c>
       <c r="D216" t="n">
+        <v>2.199</v>
+      </c>
+      <c r="E216" t="n">
         <v>2.178</v>
       </c>
-      <c r="E216" t="n">
-        <v>2.15</v>
-      </c>
       <c r="F216" t="n">
-        <v>542343.0011</v>
+        <v>13302.9329</v>
       </c>
       <c r="G216" t="n">
-        <v>2.19918333333333</v>
+        <v>2.199866666666664</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2.17</v>
+        <v>2.178</v>
       </c>
       <c r="C217" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="D217" t="n">
-        <v>2.17</v>
+        <v>2.178</v>
       </c>
       <c r="E217" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="F217" t="n">
-        <v>4000000</v>
+        <v>542343.0011</v>
       </c>
       <c r="G217" t="n">
-        <v>2.197599999999997</v>
+        <v>2.19918333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2.187</v>
+        <v>2.17</v>
       </c>
       <c r="C218" t="n">
-        <v>2.187</v>
+        <v>2.12</v>
       </c>
       <c r="D218" t="n">
-        <v>2.187</v>
+        <v>2.17</v>
       </c>
       <c r="E218" t="n">
-        <v>2.187</v>
+        <v>2.12</v>
       </c>
       <c r="F218" t="n">
-        <v>300</v>
+        <v>4000000</v>
       </c>
       <c r="G218" t="n">
-        <v>2.197116666666664</v>
+        <v>2.197599999999997</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2.131</v>
+        <v>2.187</v>
       </c>
       <c r="C219" t="n">
-        <v>2.12</v>
+        <v>2.187</v>
       </c>
       <c r="D219" t="n">
-        <v>2.131</v>
+        <v>2.187</v>
       </c>
       <c r="E219" t="n">
-        <v>2.12</v>
+        <v>2.187</v>
       </c>
       <c r="F219" t="n">
-        <v>2773406.3475</v>
+        <v>300</v>
       </c>
       <c r="G219" t="n">
-        <v>2.195983333333331</v>
+        <v>2.197116666666664</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2.13</v>
+        <v>2.131</v>
       </c>
       <c r="C220" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="D220" t="n">
-        <v>2.13</v>
+        <v>2.131</v>
       </c>
       <c r="E220" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="F220" t="n">
-        <v>386.412</v>
+        <v>2773406.3475</v>
       </c>
       <c r="G220" t="n">
-        <v>2.194966666666664</v>
+        <v>2.195983333333331</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8101,19 +8101,19 @@
         <v>2.13</v>
       </c>
       <c r="C221" t="n">
-        <v>2.128</v>
+        <v>2.13</v>
       </c>
       <c r="D221" t="n">
         <v>2.13</v>
       </c>
       <c r="E221" t="n">
-        <v>2.128</v>
+        <v>2.13</v>
       </c>
       <c r="F221" t="n">
-        <v>116949.1561</v>
+        <v>386.412</v>
       </c>
       <c r="G221" t="n">
-        <v>2.193516666666664</v>
+        <v>2.194966666666664</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2.156</v>
+        <v>2.13</v>
       </c>
       <c r="C222" t="n">
-        <v>2.156</v>
+        <v>2.128</v>
       </c>
       <c r="D222" t="n">
-        <v>2.156</v>
+        <v>2.13</v>
       </c>
       <c r="E222" t="n">
-        <v>2.156</v>
+        <v>2.128</v>
       </c>
       <c r="F222" t="n">
-        <v>3833.261</v>
+        <v>116949.1561</v>
       </c>
       <c r="G222" t="n">
-        <v>2.192783333333331</v>
+        <v>2.193516666666664</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2.139</v>
+        <v>2.156</v>
       </c>
       <c r="C223" t="n">
-        <v>2.139</v>
+        <v>2.156</v>
       </c>
       <c r="D223" t="n">
-        <v>2.139</v>
+        <v>2.156</v>
       </c>
       <c r="E223" t="n">
-        <v>2.137</v>
+        <v>2.156</v>
       </c>
       <c r="F223" t="n">
-        <v>168598.4193</v>
+        <v>3833.261</v>
       </c>
       <c r="G223" t="n">
-        <v>2.191549999999998</v>
+        <v>2.192783333333331</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2.13</v>
+        <v>2.139</v>
       </c>
       <c r="C224" t="n">
-        <v>2.13</v>
+        <v>2.139</v>
       </c>
       <c r="D224" t="n">
-        <v>2.13</v>
+        <v>2.139</v>
       </c>
       <c r="E224" t="n">
-        <v>2.13</v>
+        <v>2.137</v>
       </c>
       <c r="F224" t="n">
-        <v>7972.96</v>
+        <v>168598.4193</v>
       </c>
       <c r="G224" t="n">
-        <v>2.190166666666665</v>
+        <v>2.191549999999998</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8241,19 +8241,19 @@
         <v>2.13</v>
       </c>
       <c r="C225" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="D225" t="n">
         <v>2.13</v>
       </c>
       <c r="E225" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="F225" t="n">
-        <v>5527699.2037</v>
+        <v>7972.96</v>
       </c>
       <c r="G225" t="n">
-        <v>2.188916666666665</v>
+        <v>2.190166666666665</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2.131</v>
+        <v>2.13</v>
       </c>
       <c r="C226" t="n">
         <v>2.12</v>
       </c>
       <c r="D226" t="n">
-        <v>2.131</v>
+        <v>2.13</v>
       </c>
       <c r="E226" t="n">
         <v>2.12</v>
       </c>
       <c r="F226" t="n">
-        <v>2250137.4479</v>
+        <v>5527699.2037</v>
       </c>
       <c r="G226" t="n">
-        <v>2.187683333333332</v>
+        <v>2.188916666666665</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2.118</v>
+        <v>2.131</v>
       </c>
       <c r="C227" t="n">
-        <v>2.118</v>
+        <v>2.12</v>
       </c>
       <c r="D227" t="n">
-        <v>2.118</v>
+        <v>2.131</v>
       </c>
       <c r="E227" t="n">
-        <v>2.118</v>
+        <v>2.12</v>
       </c>
       <c r="F227" t="n">
-        <v>200485.7342</v>
+        <v>2250137.4479</v>
       </c>
       <c r="G227" t="n">
-        <v>2.186416666666665</v>
+        <v>2.187683333333332</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8346,19 +8346,19 @@
         <v>2.118</v>
       </c>
       <c r="C228" t="n">
-        <v>2.115</v>
+        <v>2.118</v>
       </c>
       <c r="D228" t="n">
         <v>2.118</v>
       </c>
       <c r="E228" t="n">
-        <v>2.115</v>
+        <v>2.118</v>
       </c>
       <c r="F228" t="n">
-        <v>338764.2335</v>
+        <v>200485.7342</v>
       </c>
       <c r="G228" t="n">
-        <v>2.185149999999999</v>
+        <v>2.186416666666665</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>2.11</v>
+        <v>2.118</v>
       </c>
       <c r="C229" t="n">
-        <v>2.08</v>
+        <v>2.115</v>
       </c>
       <c r="D229" t="n">
-        <v>2.11</v>
+        <v>2.118</v>
       </c>
       <c r="E229" t="n">
-        <v>2.08</v>
+        <v>2.115</v>
       </c>
       <c r="F229" t="n">
-        <v>2356275.777</v>
+        <v>338764.2335</v>
       </c>
       <c r="G229" t="n">
-        <v>2.183299999999999</v>
+        <v>2.185149999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>2.109</v>
+        <v>2.11</v>
       </c>
       <c r="C230" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="D230" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="E230" t="n">
-        <v>2.109</v>
+        <v>2.08</v>
       </c>
       <c r="F230" t="n">
-        <v>77712.11010000001</v>
+        <v>2356275.777</v>
       </c>
       <c r="G230" t="n">
-        <v>2.182116666666666</v>
+        <v>2.183299999999999</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,7 +8448,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>2.12</v>
+        <v>2.109</v>
       </c>
       <c r="C231" t="n">
         <v>2.12</v>
@@ -8457,13 +8457,13 @@
         <v>2.12</v>
       </c>
       <c r="E231" t="n">
-        <v>2.12</v>
+        <v>2.109</v>
       </c>
       <c r="F231" t="n">
-        <v>75541.0671</v>
+        <v>77712.11010000001</v>
       </c>
       <c r="G231" t="n">
-        <v>2.180933333333333</v>
+        <v>2.182116666666666</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8495,10 +8495,10 @@
         <v>2.12</v>
       </c>
       <c r="F232" t="n">
-        <v>3130678.6875</v>
+        <v>75541.0671</v>
       </c>
       <c r="G232" t="n">
-        <v>2.179749999999999</v>
+        <v>2.180933333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,510 +8518,474 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D233" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3130678.6875</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2.179749999999999</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
         <v>2.146</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C234" t="n">
         <v>2.112</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D234" t="n">
         <v>2.147</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E234" t="n">
         <v>2.112</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F234" t="n">
         <v>426169.3661990219</v>
       </c>
-      <c r="G233" t="n">
+      <c r="G234" t="n">
         <v>2.178449999999999</v>
       </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="F235" t="n">
+        <v>6010.726</v>
+      </c>
+      <c r="G235" t="n">
+        <v>2.176749999999999</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1036576.8478</v>
+      </c>
+      <c r="G236" t="n">
+        <v>2.175249999999999</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>612864.9784</v>
+      </c>
+      <c r="G237" t="n">
+        <v>2.173399999999999</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2118871.9965</v>
+      </c>
+      <c r="G238" t="n">
+        <v>2.171599999999998</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F239" t="n">
+        <v>10747.5619</v>
+      </c>
+      <c r="G239" t="n">
+        <v>2.170049999999998</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2.135</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2.135</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="F240" t="n">
+        <v>8183.7481</v>
+      </c>
+      <c r="G240" t="n">
+        <v>2.168633333333332</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K240" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
         <v>2.12</v>
       </c>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
+      <c r="C241" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F241" t="n">
+        <v>240</v>
+      </c>
+      <c r="G241" t="n">
+        <v>2.167483333333332</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>19865.9157</v>
+      </c>
+      <c r="G242" t="n">
+        <v>2.166016666666666</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>735873.8091</v>
+      </c>
+      <c r="G243" t="n">
+        <v>2.164533333333333</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="F244" t="n">
+        <v>44493.8041</v>
+      </c>
+      <c r="G244" t="n">
+        <v>2.162966666666666</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="F245" t="n">
+        <v>548376.8578</v>
+      </c>
+      <c r="G245" t="n">
+        <v>2.1614</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>2.112</v>
-      </c>
-      <c r="C234" t="n">
-        <v>2.112</v>
-      </c>
-      <c r="D234" t="n">
-        <v>2.112</v>
-      </c>
-      <c r="E234" t="n">
-        <v>2.112</v>
-      </c>
-      <c r="F234" t="n">
-        <v>6010.726</v>
-      </c>
-      <c r="G234" t="n">
-        <v>2.176749999999999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>2.112</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>2.112</v>
-      </c>
-      <c r="C235" t="n">
-        <v>2.101</v>
-      </c>
-      <c r="D235" t="n">
-        <v>2.112</v>
-      </c>
-      <c r="E235" t="n">
-        <v>2.101</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1036576.8478</v>
-      </c>
-      <c r="G235" t="n">
-        <v>2.175249999999999</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="n">
-        <v>2.112</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>2.112</v>
-      </c>
-      <c r="C236" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D236" t="n">
-        <v>2.112</v>
-      </c>
-      <c r="E236" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F236" t="n">
-        <v>612864.9784</v>
-      </c>
-      <c r="G236" t="n">
-        <v>2.173399999999999</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C237" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D237" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E237" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F237" t="n">
-        <v>2118871.9965</v>
-      </c>
-      <c r="G237" t="n">
-        <v>2.171599999999998</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C238" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D238" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E238" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F238" t="n">
-        <v>10747.5619</v>
-      </c>
-      <c r="G238" t="n">
-        <v>2.170049999999998</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>2.135</v>
-      </c>
-      <c r="C239" t="n">
-        <v>2.127</v>
-      </c>
-      <c r="D239" t="n">
-        <v>2.135</v>
-      </c>
-      <c r="E239" t="n">
-        <v>2.127</v>
-      </c>
-      <c r="F239" t="n">
-        <v>8183.7481</v>
-      </c>
-      <c r="G239" t="n">
-        <v>2.168633333333332</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C240" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D240" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E240" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F240" t="n">
-        <v>240</v>
-      </c>
-      <c r="G240" t="n">
-        <v>2.167483333333332</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C241" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D241" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E241" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F241" t="n">
-        <v>19865.9157</v>
-      </c>
-      <c r="G241" t="n">
-        <v>2.166016666666666</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C242" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D242" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E242" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F242" t="n">
-        <v>735873.8091</v>
-      </c>
-      <c r="G242" t="n">
-        <v>2.164533333333333</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="C243" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="D243" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="E243" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="F243" t="n">
-        <v>44493.8041</v>
-      </c>
-      <c r="G243" t="n">
-        <v>2.162966666666666</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C244" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="D244" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E244" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="F244" t="n">
-        <v>548376.8578</v>
-      </c>
-      <c r="G244" t="n">
-        <v>2.1614</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="C245" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="D245" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="E245" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="F245" t="n">
-        <v>88472.4771</v>
-      </c>
-      <c r="G245" t="n">
-        <v>2.159899999999999</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9031,30 +8995,32 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>2.097</v>
+        <v>2.109</v>
       </c>
       <c r="C246" t="n">
-        <v>2.097</v>
+        <v>2.109</v>
       </c>
       <c r="D246" t="n">
-        <v>2.097</v>
+        <v>2.109</v>
       </c>
       <c r="E246" t="n">
-        <v>2.097</v>
+        <v>2.109</v>
       </c>
       <c r="F246" t="n">
-        <v>428.4435</v>
+        <v>88472.4771</v>
       </c>
       <c r="G246" t="n">
-        <v>2.158199999999999</v>
+        <v>2.159899999999999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2.095</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
@@ -9070,30 +9036,32 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>2.099</v>
+        <v>2.097</v>
       </c>
       <c r="C247" t="n">
-        <v>2.099</v>
+        <v>2.097</v>
       </c>
       <c r="D247" t="n">
-        <v>2.099</v>
+        <v>2.097</v>
       </c>
       <c r="E247" t="n">
-        <v>2.099</v>
+        <v>2.097</v>
       </c>
       <c r="F247" t="n">
-        <v>2250100.8496</v>
+        <v>428.4435</v>
       </c>
       <c r="G247" t="n">
-        <v>2.156333333333332</v>
+        <v>2.158199999999999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2.109</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
@@ -9109,30 +9077,32 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2.12</v>
+        <v>2.099</v>
       </c>
       <c r="C248" t="n">
-        <v>2.12</v>
+        <v>2.099</v>
       </c>
       <c r="D248" t="n">
-        <v>2.12</v>
+        <v>2.099</v>
       </c>
       <c r="E248" t="n">
-        <v>2.12</v>
+        <v>2.099</v>
       </c>
       <c r="F248" t="n">
-        <v>10607.3712</v>
+        <v>2250100.8496</v>
       </c>
       <c r="G248" t="n">
-        <v>2.154849999999999</v>
+        <v>2.156333333333332</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2.097</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
@@ -9160,18 +9130,20 @@
         <v>2.12</v>
       </c>
       <c r="F249" t="n">
-        <v>107603.4371</v>
+        <v>10607.3712</v>
       </c>
       <c r="G249" t="n">
-        <v>2.153466666666666</v>
+        <v>2.154849999999999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2.099</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
@@ -9199,10 +9171,10 @@
         <v>2.12</v>
       </c>
       <c r="F250" t="n">
-        <v>580000</v>
+        <v>107603.4371</v>
       </c>
       <c r="G250" t="n">
-        <v>2.152016666666666</v>
+        <v>2.153466666666666</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9238,10 +9210,10 @@
         <v>2.12</v>
       </c>
       <c r="F251" t="n">
-        <v>8865.693799999999</v>
+        <v>580000</v>
       </c>
       <c r="G251" t="n">
-        <v>2.150566666666666</v>
+        <v>2.152016666666666</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9265,22 +9237,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>2.109</v>
+        <v>2.12</v>
       </c>
       <c r="C252" t="n">
-        <v>2.109</v>
+        <v>2.12</v>
       </c>
       <c r="D252" t="n">
-        <v>2.109</v>
+        <v>2.12</v>
       </c>
       <c r="E252" t="n">
-        <v>2.109</v>
+        <v>2.12</v>
       </c>
       <c r="F252" t="n">
-        <v>58925.9466</v>
+        <v>8865.693799999999</v>
       </c>
       <c r="G252" t="n">
-        <v>2.149</v>
+        <v>2.150566666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9307,19 +9279,19 @@
         <v>2.109</v>
       </c>
       <c r="C253" t="n">
-        <v>2.11</v>
+        <v>2.109</v>
       </c>
       <c r="D253" t="n">
-        <v>2.11</v>
+        <v>2.109</v>
       </c>
       <c r="E253" t="n">
         <v>2.109</v>
       </c>
       <c r="F253" t="n">
-        <v>25017.0783357346</v>
+        <v>58925.9466</v>
       </c>
       <c r="G253" t="n">
-        <v>2.147466666666666</v>
+        <v>2.149</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9343,7 +9315,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2.11</v>
+        <v>2.109</v>
       </c>
       <c r="C254" t="n">
         <v>2.11</v>
@@ -9352,13 +9324,13 @@
         <v>2.11</v>
       </c>
       <c r="E254" t="n">
-        <v>2.11</v>
+        <v>2.109</v>
       </c>
       <c r="F254" t="n">
-        <v>9630.419164265402</v>
+        <v>25017.0783357346</v>
       </c>
       <c r="G254" t="n">
-        <v>2.145733333333333</v>
+        <v>2.147466666666666</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9382,22 +9354,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="C255" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="D255" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="E255" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="F255" t="n">
-        <v>239950.4634</v>
+        <v>9630.419164265402</v>
       </c>
       <c r="G255" t="n">
-        <v>2.144183333333333</v>
+        <v>2.145733333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9421,22 +9393,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="C256" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="D256" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="E256" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="F256" t="n">
-        <v>250926.6520357346</v>
+        <v>239950.4634</v>
       </c>
       <c r="G256" t="n">
-        <v>2.142466666666667</v>
+        <v>2.144183333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9460,22 +9432,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>2.139</v>
+        <v>2.11</v>
       </c>
       <c r="C257" t="n">
-        <v>2.139</v>
+        <v>2.1</v>
       </c>
       <c r="D257" t="n">
-        <v>2.139</v>
+        <v>2.11</v>
       </c>
       <c r="E257" t="n">
-        <v>2.139</v>
+        <v>2.1</v>
       </c>
       <c r="F257" t="n">
-        <v>240</v>
+        <v>250926.6520357346</v>
       </c>
       <c r="G257" t="n">
-        <v>2.141233333333334</v>
+        <v>2.142466666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9502,19 +9474,19 @@
         <v>2.139</v>
       </c>
       <c r="C258" t="n">
-        <v>2.14</v>
+        <v>2.139</v>
       </c>
       <c r="D258" t="n">
-        <v>2.14</v>
+        <v>2.139</v>
       </c>
       <c r="E258" t="n">
         <v>2.139</v>
       </c>
       <c r="F258" t="n">
-        <v>414233.6957</v>
+        <v>240</v>
       </c>
       <c r="G258" t="n">
-        <v>2.140016666666667</v>
+        <v>2.141233333333334</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9538,22 +9510,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>2.147</v>
+        <v>2.139</v>
       </c>
       <c r="C259" t="n">
-        <v>2.147</v>
+        <v>2.14</v>
       </c>
       <c r="D259" t="n">
-        <v>2.147</v>
+        <v>2.14</v>
       </c>
       <c r="E259" t="n">
-        <v>2.147</v>
+        <v>2.139</v>
       </c>
       <c r="F259" t="n">
-        <v>244</v>
+        <v>414233.6957</v>
       </c>
       <c r="G259" t="n">
-        <v>2.138916666666667</v>
+        <v>2.140016666666667</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9577,22 +9549,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>2.145</v>
+        <v>2.147</v>
       </c>
       <c r="C260" t="n">
-        <v>2.139</v>
+        <v>2.147</v>
       </c>
       <c r="D260" t="n">
-        <v>2.145</v>
+        <v>2.147</v>
       </c>
       <c r="E260" t="n">
-        <v>2.139</v>
+        <v>2.147</v>
       </c>
       <c r="F260" t="n">
-        <v>410847.1833</v>
+        <v>244</v>
       </c>
       <c r="G260" t="n">
-        <v>2.137683333333334</v>
+        <v>2.138916666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9616,22 +9588,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>2.139</v>
+        <v>2.145</v>
       </c>
       <c r="C261" t="n">
         <v>2.139</v>
       </c>
       <c r="D261" t="n">
-        <v>2.139</v>
+        <v>2.145</v>
       </c>
       <c r="E261" t="n">
         <v>2.139</v>
       </c>
       <c r="F261" t="n">
-        <v>696309.3994</v>
+        <v>410847.1833</v>
       </c>
       <c r="G261" t="n">
-        <v>2.136450000000001</v>
+        <v>2.137683333333334</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9664,13 +9636,13 @@
         <v>2.139</v>
       </c>
       <c r="E262" t="n">
-        <v>2.12</v>
+        <v>2.139</v>
       </c>
       <c r="F262" t="n">
-        <v>1607.7882</v>
+        <v>696309.3994</v>
       </c>
       <c r="G262" t="n">
-        <v>2.135383333333334</v>
+        <v>2.136450000000001</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9703,13 +9675,13 @@
         <v>2.139</v>
       </c>
       <c r="E263" t="n">
-        <v>2.139</v>
+        <v>2.12</v>
       </c>
       <c r="F263" t="n">
-        <v>24551.0511</v>
+        <v>1607.7882</v>
       </c>
       <c r="G263" t="n">
-        <v>2.134316666666668</v>
+        <v>2.135383333333334</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9736,19 +9708,19 @@
         <v>2.139</v>
       </c>
       <c r="C264" t="n">
-        <v>2.19</v>
+        <v>2.139</v>
       </c>
       <c r="D264" t="n">
-        <v>2.19</v>
+        <v>2.139</v>
       </c>
       <c r="E264" t="n">
-        <v>2.112</v>
+        <v>2.139</v>
       </c>
       <c r="F264" t="n">
-        <v>371945.3453009781</v>
+        <v>24551.0511</v>
       </c>
       <c r="G264" t="n">
-        <v>2.134100000000001</v>
+        <v>2.134316666666668</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9772,22 +9744,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>2.123</v>
+        <v>2.139</v>
       </c>
       <c r="C265" t="n">
-        <v>2.123</v>
+        <v>2.19</v>
       </c>
       <c r="D265" t="n">
-        <v>2.123</v>
+        <v>2.19</v>
       </c>
       <c r="E265" t="n">
-        <v>2.123</v>
+        <v>2.112</v>
       </c>
       <c r="F265" t="n">
-        <v>536.9826</v>
+        <v>371945.3453009781</v>
       </c>
       <c r="G265" t="n">
-        <v>2.132650000000001</v>
+        <v>2.134100000000001</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9811,22 +9783,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>2.179</v>
+        <v>2.123</v>
       </c>
       <c r="C266" t="n">
-        <v>2.2</v>
+        <v>2.123</v>
       </c>
       <c r="D266" t="n">
-        <v>2.2</v>
+        <v>2.123</v>
       </c>
       <c r="E266" t="n">
-        <v>2.179</v>
+        <v>2.123</v>
       </c>
       <c r="F266" t="n">
-        <v>58636.2116</v>
+        <v>536.9826</v>
       </c>
       <c r="G266" t="n">
-        <v>2.132600000000001</v>
+        <v>2.132650000000001</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9850,22 +9822,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>2.188</v>
+        <v>2.179</v>
       </c>
       <c r="C267" t="n">
-        <v>2.188</v>
+        <v>2.2</v>
       </c>
       <c r="D267" t="n">
-        <v>2.188</v>
+        <v>2.2</v>
       </c>
       <c r="E267" t="n">
-        <v>2.188</v>
+        <v>2.179</v>
       </c>
       <c r="F267" t="n">
-        <v>240</v>
+        <v>58636.2116</v>
       </c>
       <c r="G267" t="n">
-        <v>2.132466666666667</v>
+        <v>2.132600000000001</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9889,22 +9861,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>2.185</v>
+        <v>2.188</v>
       </c>
       <c r="C268" t="n">
-        <v>2.183</v>
+        <v>2.188</v>
       </c>
       <c r="D268" t="n">
-        <v>2.185</v>
+        <v>2.188</v>
       </c>
       <c r="E268" t="n">
-        <v>2.183</v>
+        <v>2.188</v>
       </c>
       <c r="F268" t="n">
-        <v>888</v>
+        <v>240</v>
       </c>
       <c r="G268" t="n">
-        <v>2.132433333333334</v>
+        <v>2.132466666666667</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9928,59 +9900,61 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>2.15</v>
+        <v>2.185</v>
       </c>
       <c r="C269" t="n">
-        <v>2.12</v>
+        <v>2.183</v>
       </c>
       <c r="D269" t="n">
-        <v>2.15</v>
+        <v>2.185</v>
       </c>
       <c r="E269" t="n">
-        <v>2.12</v>
+        <v>2.183</v>
       </c>
       <c r="F269" t="n">
-        <v>1391956.3697</v>
+        <v>888</v>
       </c>
       <c r="G269" t="n">
-        <v>2.13135</v>
+        <v>2.132433333333334</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
       </c>
       <c r="I269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>2.183</v>
+        <v>2.15</v>
       </c>
       <c r="C270" t="n">
-        <v>2.183</v>
+        <v>2.12</v>
       </c>
       <c r="D270" t="n">
-        <v>2.183</v>
+        <v>2.15</v>
       </c>
       <c r="E270" t="n">
-        <v>2.183</v>
+        <v>2.12</v>
       </c>
       <c r="F270" t="n">
-        <v>240</v>
+        <v>1391956.3697</v>
       </c>
       <c r="G270" t="n">
-        <v>2.131383333333334</v>
+        <v>2.13135</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9990,7 +9964,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10003,54 +9981,56 @@
         <v>2.183</v>
       </c>
       <c r="C271" t="n">
-        <v>2.187</v>
+        <v>2.183</v>
       </c>
       <c r="D271" t="n">
-        <v>2.187</v>
+        <v>2.183</v>
       </c>
       <c r="E271" t="n">
-        <v>2.12</v>
+        <v>2.183</v>
       </c>
       <c r="F271" t="n">
-        <v>791558.777</v>
+        <v>240</v>
       </c>
       <c r="G271" t="n">
-        <v>2.131483333333334</v>
+        <v>2.131383333333334</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>2.184</v>
+        <v>2.183</v>
       </c>
       <c r="C272" t="n">
-        <v>2.184</v>
+        <v>2.187</v>
       </c>
       <c r="D272" t="n">
-        <v>2.184</v>
+        <v>2.187</v>
       </c>
       <c r="E272" t="n">
-        <v>2.184</v>
+        <v>2.12</v>
       </c>
       <c r="F272" t="n">
-        <v>244</v>
+        <v>791558.777</v>
       </c>
       <c r="G272" t="n">
-        <v>2.131583333333334</v>
+        <v>2.131483333333334</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10070,28 +10050,28 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2.17</v>
+        <v>2.184</v>
       </c>
       <c r="C273" t="n">
-        <v>2.17</v>
+        <v>2.184</v>
       </c>
       <c r="D273" t="n">
-        <v>2.17</v>
+        <v>2.184</v>
       </c>
       <c r="E273" t="n">
-        <v>2.17</v>
+        <v>2.184</v>
       </c>
       <c r="F273" t="n">
-        <v>1818.181</v>
+        <v>244</v>
       </c>
       <c r="G273" t="n">
-        <v>2.1311</v>
+        <v>2.131583333333334</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
@@ -10105,28 +10085,28 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>2.137</v>
+        <v>2.17</v>
       </c>
       <c r="C274" t="n">
-        <v>2.137</v>
+        <v>2.17</v>
       </c>
       <c r="D274" t="n">
-        <v>2.137</v>
+        <v>2.17</v>
       </c>
       <c r="E274" t="n">
-        <v>2.137</v>
+        <v>2.17</v>
       </c>
       <c r="F274" t="n">
-        <v>444</v>
+        <v>1818.181</v>
       </c>
       <c r="G274" t="n">
-        <v>2.130416666666667</v>
+        <v>2.1311</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
@@ -10152,10 +10132,10 @@
         <v>2.137</v>
       </c>
       <c r="F275" t="n">
-        <v>140.0154</v>
+        <v>444</v>
       </c>
       <c r="G275" t="n">
-        <v>2.129383333333334</v>
+        <v>2.130416666666667</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10175,22 +10155,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>2.126</v>
+        <v>2.137</v>
       </c>
       <c r="C276" t="n">
-        <v>2.179</v>
+        <v>2.137</v>
       </c>
       <c r="D276" t="n">
-        <v>2.179</v>
+        <v>2.137</v>
       </c>
       <c r="E276" t="n">
-        <v>2.126</v>
+        <v>2.137</v>
       </c>
       <c r="F276" t="n">
-        <v>1137.9846</v>
+        <v>140.0154</v>
       </c>
       <c r="G276" t="n">
-        <v>2.129866666666667</v>
+        <v>2.129383333333334</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10210,7 +10190,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>2.179</v>
+        <v>2.126</v>
       </c>
       <c r="C277" t="n">
         <v>2.179</v>
@@ -10219,13 +10199,13 @@
         <v>2.179</v>
       </c>
       <c r="E277" t="n">
-        <v>2.179</v>
+        <v>2.126</v>
       </c>
       <c r="F277" t="n">
-        <v>31881.7888</v>
+        <v>1137.9846</v>
       </c>
       <c r="G277" t="n">
-        <v>2.13085</v>
+        <v>2.129866666666667</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10257,10 +10237,10 @@
         <v>2.179</v>
       </c>
       <c r="F278" t="n">
-        <v>322118.7789</v>
+        <v>31881.7888</v>
       </c>
       <c r="G278" t="n">
-        <v>2.130716666666667</v>
+        <v>2.13085</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10292,10 +10272,10 @@
         <v>2.179</v>
       </c>
       <c r="F279" t="n">
-        <v>5744.5549</v>
+        <v>322118.7789</v>
       </c>
       <c r="G279" t="n">
-        <v>2.1317</v>
+        <v>2.130716666666667</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10315,22 +10295,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>2.18</v>
+        <v>2.179</v>
       </c>
       <c r="C280" t="n">
-        <v>2.18</v>
+        <v>2.179</v>
       </c>
       <c r="D280" t="n">
-        <v>2.18</v>
+        <v>2.179</v>
       </c>
       <c r="E280" t="n">
-        <v>2.18</v>
+        <v>2.179</v>
       </c>
       <c r="F280" t="n">
-        <v>200000</v>
+        <v>5744.5549</v>
       </c>
       <c r="G280" t="n">
-        <v>2.132533333333333</v>
+        <v>2.1317</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10350,22 +10330,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2.177</v>
+        <v>2.18</v>
       </c>
       <c r="C281" t="n">
-        <v>2.177</v>
+        <v>2.18</v>
       </c>
       <c r="D281" t="n">
-        <v>2.177</v>
+        <v>2.18</v>
       </c>
       <c r="E281" t="n">
-        <v>2.177</v>
+        <v>2.18</v>
       </c>
       <c r="F281" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G281" t="n">
-        <v>2.13335</v>
+        <v>2.132533333333333</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10397,10 +10377,10 @@
         <v>2.177</v>
       </c>
       <c r="F282" t="n">
-        <v>71211.79180000001</v>
+        <v>100000</v>
       </c>
       <c r="G282" t="n">
-        <v>2.133699999999999</v>
+        <v>2.13335</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10420,22 +10400,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>2.175</v>
+        <v>2.177</v>
       </c>
       <c r="C283" t="n">
-        <v>2.175</v>
+        <v>2.177</v>
       </c>
       <c r="D283" t="n">
-        <v>2.175</v>
+        <v>2.177</v>
       </c>
       <c r="E283" t="n">
-        <v>2.175</v>
+        <v>2.177</v>
       </c>
       <c r="F283" t="n">
-        <v>1532</v>
+        <v>71211.79180000001</v>
       </c>
       <c r="G283" t="n">
-        <v>2.134299999999999</v>
+        <v>2.133699999999999</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10458,19 +10438,19 @@
         <v>2.175</v>
       </c>
       <c r="C284" t="n">
-        <v>2.183</v>
+        <v>2.175</v>
       </c>
       <c r="D284" t="n">
-        <v>2.183</v>
+        <v>2.175</v>
       </c>
       <c r="E284" t="n">
         <v>2.175</v>
       </c>
       <c r="F284" t="n">
-        <v>180020.6195</v>
+        <v>1532</v>
       </c>
       <c r="G284" t="n">
-        <v>2.135183333333333</v>
+        <v>2.134299999999999</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10490,7 +10470,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>2.183</v>
+        <v>2.175</v>
       </c>
       <c r="C285" t="n">
         <v>2.183</v>
@@ -10499,13 +10479,13 @@
         <v>2.183</v>
       </c>
       <c r="E285" t="n">
-        <v>2.183</v>
+        <v>2.175</v>
       </c>
       <c r="F285" t="n">
-        <v>358664.3625</v>
+        <v>180020.6195</v>
       </c>
       <c r="G285" t="n">
-        <v>2.136233333333332</v>
+        <v>2.135183333333333</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10537,10 +10517,10 @@
         <v>2.183</v>
       </c>
       <c r="F286" t="n">
-        <v>181670.8529</v>
+        <v>358664.3625</v>
       </c>
       <c r="G286" t="n">
-        <v>2.137283333333332</v>
+        <v>2.136233333333332</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10555,6 +10535,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="E287" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="F287" t="n">
+        <v>181670.8529</v>
+      </c>
+      <c r="G287" t="n">
+        <v>2.137283333333332</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest FNB.xlsx
+++ b/BackTest/2020-01-23 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2243436.3694</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2243436.3694</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2252667.402</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2189599.4113</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2189599.4113</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2709974.8857</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2709750.2642</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2692064.0474</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3992290.5726</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3991840.8089</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3991840.8089</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3991613.196599999</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3991613.196599999</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3991388.064299999</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5491539.986699999</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5459810.6745</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5469831.9575</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5469831.9575</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-5785537.5057</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-5775537.5057</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5775537.5057</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5808472.652299999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6462388.637599999</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-6461793.211999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-6462273.211999999</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-6462273.211999999</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6462521.211999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-6529494.225</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-7200465.4416</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-7200465.4416</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-6977940.4646</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-6977940.4646</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-6977940.4646</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-6975284.534999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-6975284.534999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-6969881.356899999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-6968799.677599999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-6968799.677599999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-6968799.677599999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-6969049.677599999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-6969299.677599999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-6967773.287999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-6964702.384899999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-6964702.384899999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-6964942.384899999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-6583523.356999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-6583273.356999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-6583840.535799999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6584080.535799999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6583647.714599999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-6767458.352299999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-6765918.352299999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-6845882.862899998</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-7385706.606899998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-7385706.606899998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-7386186.606899998</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-7386186.606899998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-8342417.081099998</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-9984397.505599998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-15984636.1588</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-15984636.1588</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-15984636.1588</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-16946938.5831</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-16915344.1297</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-16915344.1297</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-16915344.1297</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-16915344.1297</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-16915116.4174</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-16914889.4049</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-16914889.4049</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-16914445.3924</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-16970877.7494</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-16970877.7494</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-16970877.7494</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-16971117.7494</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-16970877.7494</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-16973377.7494</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-16993285.2967</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-16993058.5846</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-16829048.2577</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-16669403.7421</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-16669403.7421</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-16567796.9954</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-16111327.5724</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-18072810.2255</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-18072810.2255</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-18070992.0035</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-18070548.0035</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-18070104.0035</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-18070104.0035</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-17863797.5335</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-18407657.7815</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-18407657.7815</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-18407657.7815</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-13720303.0611</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-13971229.7132</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-13971229.7132</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-13818284.8786</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-13818524.8786</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-13817324.8786</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-14709548.3271</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-14709068.3271</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-13108449.438</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-13456726.9089</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-13418424.0936</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-14375889.7069</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-14922420.1238</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-14921871.7753</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-15247306.0183</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-13714356.16089999</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-14813795.05899999</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-14713846.75629999</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-15131607.2185</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-19220441.53529999</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-19600154.51739999</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-19600154.51739999</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-19599470.51739999</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-19599230.51739999</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-19632252.76449999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-19506853.93159999</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-19525035.73189999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-19525035.73189999</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-17222816.55699999</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-17193242.75439999</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-17264646.96759999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-17150446.98049999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-15472702.08039999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-15472702.08039999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-15472702.08039999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-17353941.09409999</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-17353941.09409999</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-16888427.29659999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-16888427.29659999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-16888667.29659999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-16891167.29659999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-16891167.29659999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-17374005.02039999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-15083984.18569999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-15977156.92569999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-15975984.36279999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-16014130.59469999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-15792425.84959999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-15759454.50539999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-16584381.46149999</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-16713561.46149999</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-16756682.51099999</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-17087609.85639999</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-16907476.73169999</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-16907476.73169999</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-16907476.73169999</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-16905976.73169999</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-16905976.73169999</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-14372622.70329999</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-14372862.70329999</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-17974690.14319999</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-17974090.14319999</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-17982143.10619999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-17968840.17329999</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-18511183.17439999</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-22511183.17439999</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-22510883.17439999</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11044,11 +11044,17 @@
         <v>-33360699.76959804</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>2.139</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11087,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11124,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11161,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11198,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11235,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11272,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11309,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11346,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11383,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11420,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,15 +11453,15 @@
         <v>-33906392.31429804</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="J334" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="K334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11447,12 +11493,10 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L335" t="n">
@@ -11483,14 +11527,10 @@
         <v>-33905254.32969804</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="J336" t="n">
-        <v>2.137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11527,9 +11567,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11566,9 +11604,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11605,9 +11641,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11644,9 +11678,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11683,9 +11715,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11719,14 +11749,10 @@
         <v>-33806786.32969804</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>2.177</v>
-      </c>
-      <c r="J342" t="n">
-        <v>2.137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11760,14 +11786,12 @@
         <v>-33626765.71019804</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>2.175</v>
       </c>
-      <c r="J343" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11801,14 +11825,10 @@
         <v>-33626765.71019804</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="J344" t="n">
-        <v>2.137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11842,12 +11862,12 @@
         <v>-33626765.71019804</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>2.137</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11881,14 +11901,12 @@
         <v>-33728853.71019804</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>2.183</v>
       </c>
-      <c r="J346" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11922,14 +11940,12 @@
         <v>-33728853.71019804</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>2.151</v>
       </c>
-      <c r="J347" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11963,14 +11979,12 @@
         <v>-34608891.04539804</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>2.151</v>
       </c>
-      <c r="J348" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12004,14 +12018,12 @@
         <v>-34608647.04539804</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>2.12</v>
       </c>
-      <c r="J349" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12045,12 +12057,12 @@
         <v>-34608891.04539804</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>2.137</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>2.169</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12084,12 +12096,12 @@
         <v>-34609540.85539804</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2.137</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>2.166</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12123,14 +12135,12 @@
         <v>-34603981.43819804</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>2.122</v>
       </c>
-      <c r="J352" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12164,14 +12174,12 @@
         <v>-34613357.77779804</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>2.169</v>
       </c>
-      <c r="J353" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12205,14 +12213,12 @@
         <v>-34613357.77779804</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>2.14</v>
       </c>
-      <c r="J354" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12246,14 +12252,12 @@
         <v>-34765596.02369804</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>2.14</v>
       </c>
-      <c r="J355" t="n">
-        <v>2.137</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12265,6 +12269,6 @@
       <c r="M355" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest FNB.xlsx
+++ b/BackTest/2020-01-23 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2243436.3694</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2243436.3694</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2252667.402</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2189599.4113</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2189599.4113</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2692064.0474</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3992290.5726</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5491539.986699999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5459810.6745</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5469831.9575</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5469831.9575</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-5785537.5057</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-5775537.5057</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5775537.5057</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5808472.652299999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6462388.637599999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-6461793.211999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-6462273.211999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-6462273.211999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6462521.211999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-6529494.225</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-7200465.4416</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-7200465.4416</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-6977940.4646</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-6977940.4646</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-6977940.4646</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-6975284.534999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-6975284.534999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-6969881.356899999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-6968799.677599999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-6968799.677599999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-6968799.677599999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-6969049.677599999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-6969299.677599999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-6967773.287999999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-6964702.384899999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-6964702.384899999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-6964942.384899999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-6583523.356999999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-6583273.356999999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-6583840.535799999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6584080.535799999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6583647.714599999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-6767458.352299999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-6765918.352299999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-6845882.862899998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-7385706.606899998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-7385706.606899998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-7386186.606899998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-7386186.606899998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-8342417.081099998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-9984397.505599998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-15984636.1588</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-15984636.1588</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-15984636.1588</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-16946938.5831</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-16915344.1297</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-16915344.1297</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-16915344.1297</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-16915344.1297</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-16915116.4174</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-16914889.4049</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-16914889.4049</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-16914445.3924</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-16970877.7494</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-16970877.7494</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-16970877.7494</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-16971117.7494</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-16970877.7494</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-16973377.7494</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-16993285.2967</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-16993058.5846</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-16829048.2577</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-16669403.7421</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-16669403.7421</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-16567796.9954</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-16111327.5724</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-18072810.2255</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-18072810.2255</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-18070992.0035</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-18070548.0035</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-18070104.0035</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-18070104.0035</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-17863797.5335</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-18407657.7815</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-18407657.7815</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-18407657.7815</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-13720303.0611</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-13971229.7132</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-13971229.7132</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-13818284.8786</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-13818524.8786</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-13817324.8786</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-14709548.3271</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-14709068.3271</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-13108449.438</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-13456726.9089</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-13418424.0936</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-14375889.7069</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-14922420.1238</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-14921871.7753</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-15247306.0183</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-19600154.51739999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-19600154.51739999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-19599470.51739999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-19599230.51739999</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-19632252.76449999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-19506853.93159999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-19525035.73189999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-19525035.73189999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-17222816.55699999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-17193242.75439999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-17264646.96759999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-17150446.98049999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-15472702.08039999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-15472702.08039999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-15472702.08039999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-17353941.09409999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-16888427.29659999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-16888427.29659999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-16888667.29659999</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-16891167.29659999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-16891167.29659999</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-17374005.02039999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-15083984.18569999</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-15977156.92569999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-15975984.36279999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-16014130.59469999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-15792425.84959999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-15759454.50539999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -10120,11 +10120,17 @@
         <v>-35994714.41499902</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>2.101</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10163,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10200,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10233,17 @@
         <v>-35975783.10499902</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>2.11</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10276,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10313,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10346,17 @@
         <v>-35995889.02069902</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>2.1</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10385,17 @@
         <v>-36040382.82479902</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>2.1</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10424,17 @@
         <v>-36040382.82479902</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>2.095</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +10467,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10500,17 @@
         <v>-35952338.79119902</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>2.109</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +10543,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +10580,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +10617,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +10654,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +10691,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +10728,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +10765,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +10802,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +10839,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +10876,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +10913,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +10950,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +10987,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11024,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11061,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11098,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11135,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,15 +11168,13 @@
         <v>-33360699.76959804</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>2.139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L323" t="n">
@@ -11786,11 +11908,9 @@
         <v>-33626765.71019804</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>2.175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -11862,11 +11982,9 @@
         <v>-33626765.71019804</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>2.183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -11901,11 +12019,9 @@
         <v>-33728853.71019804</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>2.183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -11940,11 +12056,9 @@
         <v>-33728853.71019804</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>2.151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -11979,11 +12093,9 @@
         <v>-34608891.04539804</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>2.151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -12018,11 +12130,9 @@
         <v>-34608647.04539804</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>2.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -12057,11 +12167,9 @@
         <v>-34608891.04539804</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>2.169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12096,20 +12204,16 @@
         <v>-34609540.85539804</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>2.166</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
@@ -12135,17 +12239,11 @@
         <v>-34603981.43819804</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>2.122</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12174,17 +12272,11 @@
         <v>-34613357.77779804</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>2.169</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12213,17 +12305,11 @@
         <v>-34613357.77779804</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>2.14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12252,23 +12338,17 @@
         <v>-34765596.02369804</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>2.14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
       <c r="M355" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest FNB.xlsx
+++ b/BackTest/2020-01-23 BackTest FNB.xlsx
@@ -451,7 +451,7 @@
         <v>-2243436.3694</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2243436.3694</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2252667.402</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2189599.4113</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2189599.4113</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2709599.4108</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2709599.4108</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2709374.8857</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2709974.8857</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2709750.2642</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2764692.3976</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2764692.3976</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2916751.3976</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2917473.3976</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2917473.3976</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2705489.4341</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2692064.0474</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2692290.5726</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3992290.5726</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3992065.560099999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3991840.8089</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3991840.8089</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3991613.196599999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3991613.196599999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3991388.064299999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3991388.064299999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3991162.449099999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5491539.986699999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5459810.6745</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5469831.9575</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-5775537.5057</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5775537.5057</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5808472.652299999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6462388.637599999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-6462273.211999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-6462273.211999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6462521.211999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-6529494.225</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-6969049.677599999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-6969049.677599999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-6969299.677599999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-6967773.287999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-6964702.384899999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-6964702.384899999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-6964942.384899999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-6940279.948099999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-6940529.948099999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-7435964.834499999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-7498183.380899999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-7498183.380899999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-6583283.356999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-6583523.356999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-6583273.356999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-6583840.535799999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6584080.535799999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6583647.714599999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-14025425.5753</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-14285540.32329999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-14284407.32329999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-14074799.19539999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-14074799.19539999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-13714356.16089999</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-14813795.05899999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-14713846.75629999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-15131607.2185</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-19220441.53529999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-19600154.51739999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-19600154.51739999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-19599230.51739999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-19632252.76449999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-17264202.96759999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-17264646.96759999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-15472702.08039999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-15472702.08039999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-15472942.08039999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-16091266.72799999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -10120,1914 +10120,1700 @@
         <v>-35994714.41499902</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>2.101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2118871.9965</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-35994714.41499902</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E297" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F297" t="n">
+        <v>10747.5619</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-35983966.85309902</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2.135</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="D298" t="n">
+        <v>2.135</v>
+      </c>
+      <c r="E298" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="F298" t="n">
+        <v>8183.7481</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-35975783.10499902</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E299" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F299" t="n">
+        <v>240</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-35976023.10499902</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F300" t="n">
+        <v>19865.9157</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-35995889.02069902</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F301" t="n">
+        <v>735873.8091</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-35995889.02069902</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="E302" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="F302" t="n">
+        <v>44493.8041</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-36040382.82479902</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="F303" t="n">
+        <v>548376.8578</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-36040382.82479902</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="E304" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="F304" t="n">
+        <v>88472.4771</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-35951910.34769902</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="E305" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="F305" t="n">
+        <v>428.4435</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-35952338.79119902</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="E306" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="F306" t="n">
+        <v>2250100.8496</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-33702237.94159902</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E307" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F307" t="n">
+        <v>10607.3712</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-33691630.57039902</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D308" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E308" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F308" t="n">
+        <v>107603.4371</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-33691630.57039902</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D309" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E309" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F309" t="n">
+        <v>580000</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-33691630.57039902</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D310" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E310" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F310" t="n">
+        <v>8865.693799999999</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-33691630.57039902</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="D311" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="E311" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="F311" t="n">
+        <v>58925.9466</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-33750556.51699901</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E312" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="F312" t="n">
+        <v>25017.0783357346</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-33725539.43866328</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D313" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E313" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F313" t="n">
+        <v>9630.419164265402</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-33725539.43866328</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D314" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E314" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F314" t="n">
+        <v>239950.4634</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-33485588.97526328</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F315" t="n">
+        <v>250926.6520357346</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-33736515.62729902</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="E316" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="F316" t="n">
+        <v>240</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-33736275.62729902</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D317" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E317" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="F317" t="n">
+        <v>414233.6957</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-33322041.93159902</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2.147</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2.147</v>
+      </c>
+      <c r="D318" t="n">
+        <v>2.147</v>
+      </c>
+      <c r="E318" t="n">
+        <v>2.147</v>
+      </c>
+      <c r="F318" t="n">
+        <v>244</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-33321797.93159902</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="E319" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="F319" t="n">
+        <v>410847.1833</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-33732645.11489902</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="E320" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="F320" t="n">
+        <v>696309.3994</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-33732645.11489902</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="E321" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1607.7882</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-33732645.11489902</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="E322" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="F322" t="n">
+        <v>24551.0511</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-33732645.11489902</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E323" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="F323" t="n">
+        <v>371945.3453009781</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-33360699.76959804</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="E324" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="F324" t="n">
+        <v>536.9826</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-33361236.75219804</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E325" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="F325" t="n">
+        <v>58636.2116</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-33302600.54059804</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E326" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="F326" t="n">
+        <v>240</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-33302840.54059804</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2.185</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2.185</v>
+      </c>
+      <c r="E327" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="F327" t="n">
+        <v>888</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-33303728.54059804</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E328" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1391956.3697</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-34695684.91029804</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="D329" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="E329" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="F329" t="n">
+        <v>240</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-34695444.91029804</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2.187</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2.187</v>
+      </c>
+      <c r="E330" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F330" t="n">
+        <v>791558.777</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-33903886.13329804</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E331" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="F331" t="n">
+        <v>244</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-33904130.13329804</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E332" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1818.181</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-33905948.31429804</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="F333" t="n">
+        <v>444</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-33906392.31429804</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="F334" t="n">
+        <v>140.0154</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-33906392.31429804</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="E335" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="F335" t="n">
+        <v>1137.9846</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-33905254.32969804</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="D336" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="E336" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="F336" t="n">
+        <v>31881.7888</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-33905254.32969804</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="D337" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="E337" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="F337" t="n">
+        <v>322118.7789</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-33905254.32969804</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="D338" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="E338" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="F338" t="n">
+        <v>5744.5549</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-33905254.32969804</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D339" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E339" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F339" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-33705254.32969804</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="E340" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="F340" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-33805254.32969804</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="D341" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="E341" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="F341" t="n">
+        <v>71211.79180000001</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-33805254.32969804</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="D342" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="E342" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1532</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-33806786.32969804</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="D343" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="E343" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="F343" t="n">
+        <v>180020.6195</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-33626765.71019804</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="E344" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="F344" t="n">
+        <v>358664.3625</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-33626765.71019804</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="D345" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="E345" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="F345" t="n">
+        <v>181670.8529</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-33626765.71019804</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2.151</v>
+      </c>
+      <c r="D346" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="E346" t="n">
+        <v>2.151</v>
+      </c>
+      <c r="F346" t="n">
+        <v>102088</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-33728853.71019804</v>
+      </c>
+      <c r="H346" t="n">
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C296" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D296" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E296" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F296" t="n">
-        <v>2118871.9965</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-35994714.41499902</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C297" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D297" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E297" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F297" t="n">
-        <v>10747.5619</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-35983966.85309902</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>2.135</v>
-      </c>
-      <c r="C298" t="n">
-        <v>2.127</v>
-      </c>
-      <c r="D298" t="n">
-        <v>2.135</v>
-      </c>
-      <c r="E298" t="n">
-        <v>2.127</v>
-      </c>
-      <c r="F298" t="n">
-        <v>8183.7481</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-35975783.10499902</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C299" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D299" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E299" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F299" t="n">
-        <v>240</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-35976023.10499902</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C300" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D300" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E300" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F300" t="n">
-        <v>19865.9157</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-35995889.02069902</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C301" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D301" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E301" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F301" t="n">
-        <v>735873.8091</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-35995889.02069902</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="C302" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="D302" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="E302" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="F302" t="n">
-        <v>44493.8041</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-36040382.82479902</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C303" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="D303" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E303" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="F303" t="n">
-        <v>548376.8578</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-36040382.82479902</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>2.095</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="C304" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="D304" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="E304" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="F304" t="n">
-        <v>88472.4771</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-35951910.34769902</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="C305" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="D305" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="E305" t="n">
-        <v>2.097</v>
-      </c>
-      <c r="F305" t="n">
-        <v>428.4435</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-35952338.79119902</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="C306" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="D306" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="E306" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="F306" t="n">
-        <v>2250100.8496</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-33702237.94159902</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C307" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D307" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E307" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F307" t="n">
-        <v>10607.3712</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-33691630.57039902</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C308" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D308" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E308" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F308" t="n">
-        <v>107603.4371</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-33691630.57039902</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C309" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D309" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E309" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F309" t="n">
-        <v>580000</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-33691630.57039902</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C310" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D310" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E310" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F310" t="n">
-        <v>8865.693799999999</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-33691630.57039902</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="C311" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="D311" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="E311" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="F311" t="n">
-        <v>58925.9466</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-33750556.51699901</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="C312" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D312" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E312" t="n">
-        <v>2.109</v>
-      </c>
-      <c r="F312" t="n">
-        <v>25017.0783357346</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-33725539.43866328</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C313" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="D313" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E313" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F313" t="n">
-        <v>9630.419164265402</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-33725539.43866328</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C314" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D314" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E314" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F314" t="n">
-        <v>239950.4634</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-33485588.97526328</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C315" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D315" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E315" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F315" t="n">
-        <v>250926.6520357346</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-33736515.62729902</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="C316" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="D316" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="E316" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="F316" t="n">
-        <v>240</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-33736275.62729902</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="C317" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D317" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E317" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="F317" t="n">
-        <v>414233.6957</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-33322041.93159902</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>2.147</v>
-      </c>
-      <c r="C318" t="n">
-        <v>2.147</v>
-      </c>
-      <c r="D318" t="n">
-        <v>2.147</v>
-      </c>
-      <c r="E318" t="n">
-        <v>2.147</v>
-      </c>
-      <c r="F318" t="n">
-        <v>244</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-33321797.93159902</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>2.145</v>
-      </c>
-      <c r="C319" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="D319" t="n">
-        <v>2.145</v>
-      </c>
-      <c r="E319" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="F319" t="n">
-        <v>410847.1833</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-33732645.11489902</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="C320" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="D320" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="E320" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="F320" t="n">
-        <v>696309.3994</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-33732645.11489902</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="C321" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="D321" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="E321" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F321" t="n">
-        <v>1607.7882</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-33732645.11489902</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="C322" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="D322" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="E322" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="F322" t="n">
-        <v>24551.0511</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-33732645.11489902</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>2.139</v>
-      </c>
-      <c r="C323" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="D323" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="E323" t="n">
-        <v>2.112</v>
-      </c>
-      <c r="F323" t="n">
-        <v>371945.3453009781</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-33360699.76959804</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>2.123</v>
-      </c>
-      <c r="C324" t="n">
-        <v>2.123</v>
-      </c>
-      <c r="D324" t="n">
-        <v>2.123</v>
-      </c>
-      <c r="E324" t="n">
-        <v>2.123</v>
-      </c>
-      <c r="F324" t="n">
-        <v>536.9826</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-33361236.75219804</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="C325" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D325" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E325" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="F325" t="n">
-        <v>58636.2116</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-33302600.54059804</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>2.188</v>
-      </c>
-      <c r="C326" t="n">
-        <v>2.188</v>
-      </c>
-      <c r="D326" t="n">
-        <v>2.188</v>
-      </c>
-      <c r="E326" t="n">
-        <v>2.188</v>
-      </c>
-      <c r="F326" t="n">
-        <v>240</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-33302840.54059804</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>2.185</v>
-      </c>
-      <c r="C327" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="D327" t="n">
-        <v>2.185</v>
-      </c>
-      <c r="E327" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="F327" t="n">
-        <v>888</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-33303728.54059804</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C328" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D328" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="E328" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F328" t="n">
-        <v>1391956.3697</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-34695684.91029804</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="C329" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="D329" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="E329" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="F329" t="n">
-        <v>240</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-34695444.91029804</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="C330" t="n">
-        <v>2.187</v>
-      </c>
-      <c r="D330" t="n">
-        <v>2.187</v>
-      </c>
-      <c r="E330" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F330" t="n">
-        <v>791558.777</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-33903886.13329804</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>2.184</v>
-      </c>
-      <c r="C331" t="n">
-        <v>2.184</v>
-      </c>
-      <c r="D331" t="n">
-        <v>2.184</v>
-      </c>
-      <c r="E331" t="n">
-        <v>2.184</v>
-      </c>
-      <c r="F331" t="n">
-        <v>244</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-33904130.13329804</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C332" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D332" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E332" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F332" t="n">
-        <v>1818.181</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-33905948.31429804</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="C333" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="D333" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="E333" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="F333" t="n">
-        <v>444</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-33906392.31429804</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="C334" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="D334" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="E334" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="F334" t="n">
-        <v>140.0154</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-33906392.31429804</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>2.126</v>
-      </c>
-      <c r="C335" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="D335" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="E335" t="n">
-        <v>2.126</v>
-      </c>
-      <c r="F335" t="n">
-        <v>1137.9846</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-33905254.32969804</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="C336" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="D336" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="E336" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="F336" t="n">
-        <v>31881.7888</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-33905254.32969804</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="C337" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="D337" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="E337" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="F337" t="n">
-        <v>322118.7789</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-33905254.32969804</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="C338" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="D338" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="E338" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="F338" t="n">
-        <v>5744.5549</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-33905254.32969804</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="C339" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="D339" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E339" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="F339" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-33705254.32969804</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>2.177</v>
-      </c>
-      <c r="C340" t="n">
-        <v>2.177</v>
-      </c>
-      <c r="D340" t="n">
-        <v>2.177</v>
-      </c>
-      <c r="E340" t="n">
-        <v>2.177</v>
-      </c>
-      <c r="F340" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-33805254.32969804</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>2.177</v>
-      </c>
-      <c r="C341" t="n">
-        <v>2.177</v>
-      </c>
-      <c r="D341" t="n">
-        <v>2.177</v>
-      </c>
-      <c r="E341" t="n">
-        <v>2.177</v>
-      </c>
-      <c r="F341" t="n">
-        <v>71211.79180000001</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-33805254.32969804</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>2.175</v>
-      </c>
-      <c r="C342" t="n">
-        <v>2.175</v>
-      </c>
-      <c r="D342" t="n">
-        <v>2.175</v>
-      </c>
-      <c r="E342" t="n">
-        <v>2.175</v>
-      </c>
-      <c r="F342" t="n">
-        <v>1532</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-33806786.32969804</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>2.175</v>
-      </c>
-      <c r="C343" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="D343" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="E343" t="n">
-        <v>2.175</v>
-      </c>
-      <c r="F343" t="n">
-        <v>180020.6195</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-33626765.71019804</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="C344" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="D344" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="E344" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="F344" t="n">
-        <v>358664.3625</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-33626765.71019804</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="C345" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="D345" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="E345" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="F345" t="n">
-        <v>181670.8529</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-33626765.71019804</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>2.178</v>
-      </c>
-      <c r="C346" t="n">
-        <v>2.151</v>
-      </c>
-      <c r="D346" t="n">
-        <v>2.178</v>
-      </c>
-      <c r="E346" t="n">
-        <v>2.151</v>
-      </c>
-      <c r="F346" t="n">
-        <v>102088</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-33728853.71019804</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12056,9 +11842,11 @@
         <v>-33728853.71019804</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>2.151</v>
+      </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -12093,9 +11881,11 @@
         <v>-34608891.04539804</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>2.151</v>
+      </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -12130,9 +11920,11 @@
         <v>-34608647.04539804</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>2.12</v>
+      </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -12167,9 +11959,11 @@
         <v>-34608891.04539804</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>2.169</v>
+      </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12204,16 +11998,20 @@
         <v>-34609540.85539804</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>2.166</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
       <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
@@ -12239,11 +12037,17 @@
         <v>-34603981.43819804</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12272,11 +12076,17 @@
         <v>-34613357.77779804</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>2.169</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12305,11 +12115,17 @@
         <v>-34613357.77779804</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>2.14</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12338,11 +12154,17 @@
         <v>-34765596.02369804</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>2.14</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-23 BackTest FNB.xlsx
+++ b/BackTest/2020-01-23 BackTest FNB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M355"/>
+  <dimension ref="A1:L355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>52564.2111</v>
       </c>
       <c r="G2" t="n">
-        <v>-2243436.3694</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>75067.2794</v>
       </c>
       <c r="G3" t="n">
-        <v>-2243436.3694</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>9231.0326</v>
       </c>
       <c r="G4" t="n">
-        <v>-2252667.402</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>63067.9907</v>
       </c>
       <c r="G5" t="n">
-        <v>-2189599.4113</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>28698.3879</v>
       </c>
       <c r="G6" t="n">
-        <v>-2189599.4113</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>519999.9995</v>
       </c>
       <c r="G7" t="n">
-        <v>-2709599.4108</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>0.0005</v>
       </c>
       <c r="G8" t="n">
-        <v>-2709599.4108</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>224.5251</v>
       </c>
       <c r="G9" t="n">
-        <v>-2709374.8857</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>600</v>
       </c>
       <c r="G10" t="n">
-        <v>-2709974.8857</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>224.6215</v>
       </c>
       <c r="G11" t="n">
-        <v>-2709750.2642</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>54942.1334</v>
       </c>
       <c r="G12" t="n">
-        <v>-2764692.3976</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>99317</v>
       </c>
       <c r="G13" t="n">
-        <v>-2764692.3976</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>152059</v>
       </c>
       <c r="G14" t="n">
-        <v>-2916751.3976</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>722</v>
       </c>
       <c r="G15" t="n">
-        <v>-2917473.3976</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>64850.444</v>
       </c>
       <c r="G16" t="n">
-        <v>-2917473.3976</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>211983.9635</v>
       </c>
       <c r="G17" t="n">
-        <v>-2705489.4341</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>13425.3867</v>
       </c>
       <c r="G18" t="n">
-        <v>-2692064.0474</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>226.5252</v>
       </c>
       <c r="G19" t="n">
-        <v>-2692290.5726</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1300000</v>
       </c>
       <c r="G20" t="n">
-        <v>-3992290.5726</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>225.0125</v>
       </c>
       <c r="G21" t="n">
-        <v>-3992065.560099999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>225.7123</v>
       </c>
       <c r="G22" t="n">
-        <v>-3992065.560099999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>104.2752</v>
       </c>
       <c r="G23" t="n">
-        <v>-3992065.560099999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>224.7512</v>
       </c>
       <c r="G24" t="n">
-        <v>-3991840.8089</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>330.2488</v>
       </c>
       <c r="G25" t="n">
-        <v>-3991840.8089</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>227.6123</v>
       </c>
       <c r="G26" t="n">
-        <v>-3991613.196599999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>327.3877</v>
       </c>
       <c r="G27" t="n">
-        <v>-3991613.196599999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>225.1323</v>
       </c>
       <c r="G28" t="n">
-        <v>-3991388.064299999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>107.8677</v>
       </c>
       <c r="G29" t="n">
-        <v>-3991388.064299999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>225.6152</v>
       </c>
       <c r="G30" t="n">
-        <v>-3991162.449099999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1500377.5376</v>
       </c>
       <c r="G31" t="n">
-        <v>-5491539.986699999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>31729.3122</v>
       </c>
       <c r="G32" t="n">
-        <v>-5459810.6745</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>10021.283</v>
       </c>
       <c r="G33" t="n">
-        <v>-5469831.9575</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>64060.535</v>
       </c>
       <c r="G34" t="n">
-        <v>-5469831.9575</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>316877.39</v>
       </c>
       <c r="G35" t="n">
-        <v>-5786709.347499999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1171.8418</v>
       </c>
       <c r="G36" t="n">
-        <v>-5785537.5057</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>199149.129</v>
       </c>
       <c r="G37" t="n">
-        <v>-5785537.5057</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>10000</v>
       </c>
       <c r="G38" t="n">
-        <v>-5775537.5057</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>10000</v>
       </c>
       <c r="G39" t="n">
-        <v>-5775537.5057</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>200000</v>
       </c>
       <c r="G40" t="n">
-        <v>-5775537.5057</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>32935.1466</v>
       </c>
       <c r="G41" t="n">
-        <v>-5808472.652299999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>653915.9852999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-6462388.637599999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>595.4256</v>
       </c>
       <c r="G43" t="n">
-        <v>-6461793.211999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>480</v>
       </c>
       <c r="G44" t="n">
-        <v>-6462273.211999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>105.6571</v>
       </c>
       <c r="G45" t="n">
-        <v>-6462273.211999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>248</v>
       </c>
       <c r="G46" t="n">
-        <v>-6462521.211999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>66973.01300000001</v>
       </c>
       <c r="G47" t="n">
-        <v>-6529494.225</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>670971.2166</v>
       </c>
       <c r="G48" t="n">
-        <v>-7200465.4416</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>416377.2499</v>
       </c>
       <c r="G49" t="n">
-        <v>-7200465.4416</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>222524.977</v>
       </c>
       <c r="G50" t="n">
-        <v>-6977940.4646</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>54122.509</v>
       </c>
       <c r="G51" t="n">
-        <v>-6977940.4646</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>240</v>
       </c>
       <c r="G52" t="n">
-        <v>-6977940.4646</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2655.9296</v>
       </c>
       <c r="G53" t="n">
-        <v>-6975284.534999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>240</v>
       </c>
       <c r="G54" t="n">
-        <v>-6975284.534999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>5403.1781</v>
       </c>
       <c r="G55" t="n">
-        <v>-6969881.356899999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1081.6793</v>
       </c>
       <c r="G56" t="n">
-        <v>-6968799.677599999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>10000</v>
       </c>
       <c r="G57" t="n">
-        <v>-6968799.677599999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>18936.6058</v>
       </c>
       <c r="G58" t="n">
-        <v>-6968799.677599999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>250</v>
       </c>
       <c r="G59" t="n">
-        <v>-6969049.677599999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>25973.6104</v>
       </c>
       <c r="G60" t="n">
-        <v>-6969049.677599999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>250</v>
       </c>
       <c r="G61" t="n">
-        <v>-6969299.677599999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1526.3896</v>
       </c>
       <c r="G62" t="n">
-        <v>-6967773.287999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>3070.9031</v>
       </c>
       <c r="G63" t="n">
-        <v>-6964702.384899999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>101879.8157</v>
       </c>
       <c r="G64" t="n">
-        <v>-6964702.384899999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>240</v>
       </c>
       <c r="G65" t="n">
-        <v>-6964942.384899999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>24662.4368</v>
       </c>
       <c r="G66" t="n">
-        <v>-6940279.948099999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>250</v>
       </c>
       <c r="G67" t="n">
-        <v>-6940529.948099999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>495434.8864</v>
       </c>
       <c r="G68" t="n">
-        <v>-7435964.834499999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1594.9053</v>
       </c>
       <c r="G69" t="n">
-        <v>-7434369.929199999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>240</v>
       </c>
       <c r="G70" t="n">
-        <v>-7434369.929199999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>25281</v>
       </c>
       <c r="G71" t="n">
-        <v>-7434369.929199999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>0.1361</v>
       </c>
       <c r="G72" t="n">
-        <v>-7434369.929199999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>63813.4517</v>
       </c>
       <c r="G73" t="n">
-        <v>-7498183.380899999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>10959.2766</v>
       </c>
       <c r="G74" t="n">
-        <v>-7498183.380899999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>914900.0239</v>
       </c>
       <c r="G75" t="n">
-        <v>-6583283.356999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>240</v>
       </c>
       <c r="G76" t="n">
-        <v>-6583523.356999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>250</v>
       </c>
       <c r="G77" t="n">
-        <v>-6583273.356999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>567.1788</v>
       </c>
       <c r="G78" t="n">
-        <v>-6583840.535799999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>240</v>
       </c>
       <c r="G79" t="n">
-        <v>-6584080.535799999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>432.8212</v>
       </c>
       <c r="G80" t="n">
-        <v>-6583647.714599999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>183810.6377</v>
       </c>
       <c r="G81" t="n">
-        <v>-6767458.352299999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1540</v>
       </c>
       <c r="G82" t="n">
-        <v>-6765918.352299999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>79964.51059999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-6845882.862899998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>539823.7439999999</v>
       </c>
       <c r="G84" t="n">
-        <v>-7385706.606899998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>51393.4817</v>
       </c>
       <c r="G85" t="n">
-        <v>-7385706.606899998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>480</v>
       </c>
       <c r="G86" t="n">
-        <v>-7386186.606899998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>429.5703</v>
       </c>
       <c r="G87" t="n">
-        <v>-7386186.606899998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>956230.4742000001</v>
       </c>
       <c r="G88" t="n">
-        <v>-8342417.081099998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1641980.4245</v>
       </c>
       <c r="G89" t="n">
-        <v>-9984397.505599998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>6000238.6532</v>
       </c>
       <c r="G90" t="n">
-        <v>-15984636.1588</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>3170600.5074</v>
       </c>
       <c r="G91" t="n">
-        <v>-15984636.1588</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>2510596.5671</v>
       </c>
       <c r="G92" t="n">
-        <v>-15984636.1588</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>962302.4243</v>
       </c>
       <c r="G93" t="n">
-        <v>-16946938.5831</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>31594.4534</v>
       </c>
       <c r="G94" t="n">
-        <v>-16915344.1297</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>888</v>
       </c>
       <c r="G95" t="n">
-        <v>-16915344.1297</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>9203.8596</v>
       </c>
       <c r="G96" t="n">
-        <v>-16915344.1297</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>6902.8958</v>
       </c>
       <c r="G97" t="n">
-        <v>-16915344.1297</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>227.7123</v>
       </c>
       <c r="G98" t="n">
-        <v>-16915116.4174</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>227.0125</v>
       </c>
       <c r="G99" t="n">
-        <v>-16914889.4049</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>220852.9469</v>
       </c>
       <c r="G100" t="n">
-        <v>-16914889.4049</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>444.0125</v>
       </c>
       <c r="G101" t="n">
-        <v>-16914445.3924</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>56432.357</v>
       </c>
       <c r="G102" t="n">
-        <v>-16970877.7494</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>164220.9937</v>
       </c>
       <c r="G103" t="n">
-        <v>-16970877.7494</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>350000</v>
       </c>
       <c r="G104" t="n">
-        <v>-16970877.7494</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>240</v>
       </c>
       <c r="G105" t="n">
-        <v>-16971117.7494</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>240</v>
       </c>
       <c r="G106" t="n">
-        <v>-16970877.7494</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>2500</v>
       </c>
       <c r="G107" t="n">
-        <v>-16973377.7494</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>19907.5473</v>
       </c>
       <c r="G108" t="n">
-        <v>-16993285.2967</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>226.7121</v>
       </c>
       <c r="G109" t="n">
-        <v>-16993058.5846</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>164010.3269</v>
       </c>
       <c r="G110" t="n">
-        <v>-16829048.2577</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>159644.5156</v>
       </c>
       <c r="G111" t="n">
-        <v>-16669403.7421</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>13200</v>
       </c>
       <c r="G112" t="n">
-        <v>-16669403.7421</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>101606.7467</v>
       </c>
       <c r="G113" t="n">
-        <v>-16567796.9954</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>456469.423</v>
       </c>
       <c r="G114" t="n">
-        <v>-16111327.5724</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>1961482.6531</v>
       </c>
       <c r="G115" t="n">
-        <v>-18072810.2255</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>45070.6255</v>
       </c>
       <c r="G116" t="n">
-        <v>-18072810.2255</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>1818.222</v>
       </c>
       <c r="G117" t="n">
-        <v>-18070992.0035</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>444</v>
       </c>
       <c r="G118" t="n">
-        <v>-18070548.0035</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>444</v>
       </c>
       <c r="G119" t="n">
-        <v>-18070104.0035</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>4218.2219</v>
       </c>
       <c r="G120" t="n">
-        <v>-18070104.0035</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>206306.47</v>
       </c>
       <c r="G121" t="n">
-        <v>-17863797.5335</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>543416.248</v>
       </c>
       <c r="G122" t="n">
-        <v>-18407213.7815</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>444</v>
       </c>
       <c r="G123" t="n">
-        <v>-18407657.7815</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>2500</v>
       </c>
       <c r="G124" t="n">
-        <v>-18407657.7815</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>888</v>
       </c>
       <c r="G125" t="n">
-        <v>-18407657.7815</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>4687354.7204</v>
       </c>
       <c r="G126" t="n">
-        <v>-13720303.0611</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>250926.6521</v>
       </c>
       <c r="G127" t="n">
-        <v>-13971229.7132</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>3500.7566</v>
       </c>
       <c r="G128" t="n">
-        <v>-13971229.7132</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>206512.6283</v>
       </c>
       <c r="G129" t="n">
-        <v>-13764717.0849</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>53293.7583</v>
       </c>
       <c r="G130" t="n">
-        <v>-13818010.8432</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>226</v>
       </c>
       <c r="G131" t="n">
-        <v>-13817784.8432</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>500.0354</v>
       </c>
       <c r="G132" t="n">
-        <v>-13818284.8786</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1318.1865</v>
       </c>
       <c r="G133" t="n">
-        <v>-13818284.8786</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>38681.8135</v>
       </c>
       <c r="G134" t="n">
-        <v>-13818284.8786</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>240</v>
       </c>
       <c r="G135" t="n">
-        <v>-13818524.8786</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1200</v>
       </c>
       <c r="G136" t="n">
-        <v>-13817324.8786</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>892223.4485000001</v>
       </c>
       <c r="G137" t="n">
-        <v>-14709548.3271</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>240</v>
       </c>
       <c r="G138" t="n">
-        <v>-14709308.3271</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>240</v>
       </c>
       <c r="G139" t="n">
-        <v>-14709068.3271</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>2250345.2325</v>
       </c>
       <c r="G140" t="n">
-        <v>-14709068.3271</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>2245447.6152</v>
       </c>
       <c r="G141" t="n">
-        <v>-12463620.7119</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>444</v>
       </c>
       <c r="G142" t="n">
-        <v>-12464064.7119</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>644384.7261</v>
       </c>
       <c r="G143" t="n">
-        <v>-13108449.438</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>348277.4709</v>
       </c>
       <c r="G144" t="n">
-        <v>-13456726.9089</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>38302.8153</v>
       </c>
       <c r="G145" t="n">
-        <v>-13418424.0936</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>957465.6133</v>
       </c>
       <c r="G146" t="n">
-        <v>-14375889.7069</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>546530.4169</v>
       </c>
       <c r="G147" t="n">
-        <v>-14922420.1238</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>548.3484999999999</v>
       </c>
       <c r="G148" t="n">
-        <v>-14921871.7753</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>248849.3921</v>
       </c>
       <c r="G149" t="n">
-        <v>-14921871.7753</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>325434.243</v>
       </c>
       <c r="G150" t="n">
-        <v>-15247306.0183</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>250000</v>
       </c>
       <c r="G151" t="n">
-        <v>-15247306.0183</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>13104.9809</v>
       </c>
       <c r="G152" t="n">
-        <v>-15234201.0374</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>318252.9457</v>
       </c>
       <c r="G153" t="n">
-        <v>-15552453.9831</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>2386.7213</v>
       </c>
       <c r="G154" t="n">
-        <v>-15550067.2618</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>4815.2174</v>
       </c>
       <c r="G155" t="n">
-        <v>-15554882.4792</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>23914.9906</v>
       </c>
       <c r="G156" t="n">
-        <v>-15554882.4792</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>261.9023</v>
       </c>
       <c r="G157" t="n">
-        <v>-15554620.5769</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>64370.9804</v>
       </c>
       <c r="G158" t="n">
-        <v>-15554620.5769</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>1359.7823</v>
       </c>
       <c r="G159" t="n">
-        <v>-15553260.7946</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>671859.9486999999</v>
       </c>
       <c r="G160" t="n">
-        <v>-15553260.7946</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>1013008.5918</v>
       </c>
       <c r="G161" t="n">
-        <v>-14540252.2028</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>211328.37</v>
       </c>
       <c r="G162" t="n">
-        <v>-14540252.2028</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>393243.3717</v>
       </c>
       <c r="G163" t="n">
-        <v>-14147008.8311</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>120884.3225</v>
       </c>
       <c r="G164" t="n">
-        <v>-14147008.8311</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>106265.5743</v>
       </c>
       <c r="G165" t="n">
-        <v>-14147008.8311</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>965128.4969</v>
       </c>
       <c r="G166" t="n">
-        <v>-14147008.8311</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>55120.6971</v>
       </c>
       <c r="G167" t="n">
-        <v>-14091888.134</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>244</v>
       </c>
       <c r="G168" t="n">
-        <v>-14091644.134</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>66218.55869999999</v>
       </c>
       <c r="G169" t="n">
-        <v>-14025425.5753</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>260114.748</v>
       </c>
       <c r="G170" t="n">
-        <v>-14285540.32329999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>1133</v>
       </c>
       <c r="G171" t="n">
-        <v>-14284407.32329999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>209608.1279</v>
       </c>
       <c r="G172" t="n">
-        <v>-14074799.19539999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>244</v>
       </c>
       <c r="G173" t="n">
-        <v>-14074799.19539999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>360443.0345</v>
       </c>
       <c r="G174" t="n">
-        <v>-13714356.16089999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>1099438.8981</v>
       </c>
       <c r="G175" t="n">
-        <v>-14813795.05899999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>99948.3027</v>
       </c>
       <c r="G176" t="n">
-        <v>-14713846.75629999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>417760.4622</v>
       </c>
       <c r="G177" t="n">
-        <v>-15131607.2185</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>4088834.3168</v>
       </c>
       <c r="G178" t="n">
-        <v>-19220441.53529999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>379712.9821</v>
       </c>
       <c r="G179" t="n">
-        <v>-19600154.51739999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>42127.1016</v>
       </c>
       <c r="G180" t="n">
-        <v>-19600154.51739999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>684</v>
       </c>
       <c r="G181" t="n">
-        <v>-19599470.51739999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>240</v>
       </c>
       <c r="G182" t="n">
-        <v>-19599230.51739999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>33022.2471</v>
       </c>
       <c r="G183" t="n">
-        <v>-19632252.76449999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>125398.8329</v>
       </c>
       <c r="G184" t="n">
-        <v>-19506853.93159999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>18181.8003</v>
       </c>
       <c r="G185" t="n">
-        <v>-19525035.73189999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>123565.0832</v>
       </c>
       <c r="G186" t="n">
-        <v>-19525035.73189999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>2302219.1749</v>
       </c>
       <c r="G187" t="n">
-        <v>-17222816.55699999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>29573.8026</v>
       </c>
       <c r="G188" t="n">
-        <v>-17193242.75439999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>70960.2132</v>
       </c>
       <c r="G189" t="n">
-        <v>-17264202.96759999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>12686</v>
       </c>
       <c r="G190" t="n">
-        <v>-17264202.96759999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>41249</v>
       </c>
       <c r="G191" t="n">
-        <v>-17264202.96759999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>444</v>
       </c>
       <c r="G192" t="n">
-        <v>-17264646.96759999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>114199.9871</v>
       </c>
       <c r="G193" t="n">
-        <v>-17150446.98049999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>1677744.9001</v>
       </c>
       <c r="G194" t="n">
-        <v>-15472702.08039999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>328721.0822</v>
       </c>
       <c r="G195" t="n">
-        <v>-15472702.08039999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>5289</v>
       </c>
       <c r="G196" t="n">
-        <v>-15472702.08039999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>240</v>
       </c>
       <c r="G197" t="n">
-        <v>-15472942.08039999</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>618324.6476</v>
       </c>
       <c r="G198" t="n">
-        <v>-16091266.72799999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>153808.438</v>
       </c>
       <c r="G199" t="n">
-        <v>-16245075.16599999</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>175000</v>
       </c>
       <c r="G200" t="n">
-        <v>-16245075.16599999</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>240</v>
       </c>
       <c r="G201" t="n">
-        <v>-16244835.16599999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>125398.8329</v>
       </c>
       <c r="G202" t="n">
-        <v>-16244835.16599999</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>1109105.9281</v>
       </c>
       <c r="G203" t="n">
-        <v>-17353941.09409999</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>137710.7075</v>
       </c>
       <c r="G204" t="n">
-        <v>-17353941.09409999</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>28064.1532</v>
       </c>
       <c r="G205" t="n">
-        <v>-17353941.09409999</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>465513.7975</v>
       </c>
       <c r="G206" t="n">
-        <v>-16888427.29659999</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>411457.7783</v>
       </c>
       <c r="G207" t="n">
-        <v>-16888427.29659999</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>240</v>
       </c>
       <c r="G208" t="n">
-        <v>-16888667.29659999</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>2500</v>
       </c>
       <c r="G209" t="n">
-        <v>-16891167.29659999</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>414264.1376</v>
       </c>
       <c r="G210" t="n">
-        <v>-16891167.29659999</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>482837.7238</v>
       </c>
       <c r="G211" t="n">
-        <v>-17374005.02039999</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>2290020.8347</v>
       </c>
       <c r="G212" t="n">
-        <v>-15083984.18569999</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>893172.74</v>
       </c>
       <c r="G213" t="n">
-        <v>-15977156.92569999</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>1172.5629</v>
       </c>
       <c r="G214" t="n">
-        <v>-15975984.36279999</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>38146.2319</v>
       </c>
       <c r="G215" t="n">
-        <v>-16014130.59469999</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>221704.7451</v>
       </c>
       <c r="G216" t="n">
-        <v>-15792425.84959999</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>32971.3442</v>
       </c>
       <c r="G217" t="n">
-        <v>-15759454.50539999</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>563135.1041999999</v>
       </c>
       <c r="G218" t="n">
-        <v>-16322589.60959999</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>32971.3442</v>
       </c>
       <c r="G219" t="n">
-        <v>-16289618.26539999</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>270.0385</v>
       </c>
       <c r="G220" t="n">
-        <v>-16289348.22689999</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>30172.5731</v>
       </c>
       <c r="G221" t="n">
-        <v>-16319520.79999999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>18781.9693</v>
       </c>
       <c r="G222" t="n">
-        <v>-16300738.83069999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>35055.1447</v>
       </c>
       <c r="G223" t="n">
-        <v>-16300738.83069999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>31789.6306</v>
       </c>
       <c r="G224" t="n">
-        <v>-16332528.46129999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>249853.0002</v>
       </c>
       <c r="G225" t="n">
-        <v>-16582381.46149999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>2000</v>
       </c>
       <c r="G226" t="n">
-        <v>-16582381.46149999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>2000</v>
       </c>
       <c r="G227" t="n">
-        <v>-16584381.46149999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>231173.9823</v>
       </c>
       <c r="G228" t="n">
-        <v>-16584381.46149999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>314354.7944</v>
       </c>
       <c r="G229" t="n">
-        <v>-16584381.46149999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>137950.2081</v>
       </c>
       <c r="G230" t="n">
-        <v>-16584381.46149999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>27277.0085</v>
       </c>
       <c r="G231" t="n">
-        <v>-16584381.46149999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>129680</v>
       </c>
       <c r="G232" t="n">
-        <v>-16714061.46149999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>500</v>
       </c>
       <c r="G233" t="n">
-        <v>-16713561.46149999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>15690.5606</v>
       </c>
       <c r="G234" t="n">
-        <v>-16729252.02209999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>444</v>
       </c>
       <c r="G235" t="n">
-        <v>-16728808.02209999</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>444</v>
       </c>
       <c r="G236" t="n">
-        <v>-16729252.02209999</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>1300</v>
       </c>
       <c r="G237" t="n">
-        <v>-16730552.02209999</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>45240</v>
       </c>
       <c r="G238" t="n">
-        <v>-16685312.02209999</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>71370.4889</v>
       </c>
       <c r="G239" t="n">
-        <v>-16756682.51099999</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>330927.3454</v>
       </c>
       <c r="G240" t="n">
-        <v>-17087609.85639999</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>180133.1247</v>
       </c>
       <c r="G241" t="n">
-        <v>-16907476.73169999</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>639</v>
       </c>
       <c r="G242" t="n">
-        <v>-16907476.73169999</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>240</v>
       </c>
       <c r="G243" t="n">
-        <v>-16907476.73169999</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>1500</v>
       </c>
       <c r="G244" t="n">
-        <v>-16905976.73169999</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>53795.3342</v>
       </c>
       <c r="G245" t="n">
-        <v>-16905976.73169999</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>2533354.0284</v>
       </c>
       <c r="G246" t="n">
-        <v>-14372622.70329999</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>240</v>
       </c>
       <c r="G247" t="n">
-        <v>-14372862.70329999</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>249.8544</v>
       </c>
       <c r="G248" t="n">
-        <v>-14373112.55769999</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>240</v>
       </c>
       <c r="G249" t="n">
-        <v>-14372872.55769999</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>752.8799</v>
       </c>
       <c r="G250" t="n">
-        <v>-14372872.55769999</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>2150.1456</v>
       </c>
       <c r="G251" t="n">
-        <v>-14375022.70329999</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>817967.3419999999</v>
       </c>
       <c r="G252" t="n">
-        <v>-15192990.04529999</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>240</v>
       </c>
       <c r="G253" t="n">
-        <v>-15192750.04529999</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>240</v>
       </c>
       <c r="G254" t="n">
-        <v>-15192990.04529999</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>32092.5102</v>
       </c>
       <c r="G255" t="n">
-        <v>-15225082.55549999</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>120480</v>
       </c>
       <c r="G256" t="n">
-        <v>-15104602.55549999</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>720</v>
       </c>
       <c r="G257" t="n">
-        <v>-15104602.55549999</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>500340</v>
       </c>
       <c r="G258" t="n">
-        <v>-15104602.55549999</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>960</v>
       </c>
       <c r="G259" t="n">
-        <v>-15104602.55549999</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>146400.0501</v>
       </c>
       <c r="G260" t="n">
-        <v>-15104602.55549999</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>29123.2591</v>
       </c>
       <c r="G261" t="n">
-        <v>-15133725.81459999</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>52401.9438</v>
       </c>
       <c r="G262" t="n">
-        <v>-15133725.81459999</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>34777.2127</v>
       </c>
       <c r="G263" t="n">
-        <v>-15133725.81459999</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>5080.9315</v>
       </c>
       <c r="G264" t="n">
-        <v>-15128644.88309999</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>308092.6173</v>
       </c>
       <c r="G265" t="n">
-        <v>-15436737.50039999</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>240</v>
       </c>
       <c r="G266" t="n">
-        <v>-15436977.50039999</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>838490.8801</v>
       </c>
       <c r="G267" t="n">
-        <v>-16275468.38049999</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>23395.4399</v>
       </c>
       <c r="G268" t="n">
-        <v>-16275468.38049999</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,15 @@
         <v>1682395.0329</v>
       </c>
       <c r="G269" t="n">
-        <v>-17957863.41339999</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8483,15 @@
         <v>269583.2135</v>
       </c>
       <c r="G270" t="n">
-        <v>-17957863.41339999</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8513,15 @@
         <v>16826.7298</v>
       </c>
       <c r="G271" t="n">
-        <v>-17974690.14319999</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8543,15 @@
         <v>600</v>
       </c>
       <c r="G272" t="n">
-        <v>-17974090.14319999</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8573,15 @@
         <v>8052.963</v>
       </c>
       <c r="G273" t="n">
-        <v>-17982143.10619999</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8603,15 @@
         <v>13302.9329</v>
       </c>
       <c r="G274" t="n">
-        <v>-17968840.17329999</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8633,15 @@
         <v>542343.0011</v>
       </c>
       <c r="G275" t="n">
-        <v>-18511183.17439999</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8663,15 @@
         <v>4000000</v>
       </c>
       <c r="G276" t="n">
-        <v>-22511183.17439999</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8693,15 @@
         <v>300</v>
       </c>
       <c r="G277" t="n">
-        <v>-22510883.17439999</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8723,15 @@
         <v>2773406.3475</v>
       </c>
       <c r="G278" t="n">
-        <v>-25284289.52189999</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8753,15 @@
         <v>386.412</v>
       </c>
       <c r="G279" t="n">
-        <v>-25283903.10989999</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8783,15 @@
         <v>116949.1561</v>
       </c>
       <c r="G280" t="n">
-        <v>-25400852.26599999</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8813,15 @@
         <v>3833.261</v>
       </c>
       <c r="G281" t="n">
-        <v>-25397019.00499999</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8843,15 @@
         <v>168598.4193</v>
       </c>
       <c r="G282" t="n">
-        <v>-25565617.42429999</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8873,15 @@
         <v>7972.96</v>
       </c>
       <c r="G283" t="n">
-        <v>-25573590.38429999</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8903,15 @@
         <v>5527699.2037</v>
       </c>
       <c r="G284" t="n">
-        <v>-31101289.58799999</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8933,15 @@
         <v>2250137.4479</v>
       </c>
       <c r="G285" t="n">
-        <v>-31101289.58799999</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8963,15 @@
         <v>200485.7342</v>
       </c>
       <c r="G286" t="n">
-        <v>-31301775.32219999</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +8993,15 @@
         <v>338764.2335</v>
       </c>
       <c r="G287" t="n">
-        <v>-31640539.55569999</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9023,15 @@
         <v>2356275.777</v>
       </c>
       <c r="G288" t="n">
-        <v>-33996815.33269999</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9053,15 @@
         <v>77712.11010000001</v>
       </c>
       <c r="G289" t="n">
-        <v>-33919103.22259999</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9083,15 @@
         <v>75541.0671</v>
       </c>
       <c r="G290" t="n">
-        <v>-33919103.22259999</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9113,15 @@
         <v>3130678.6875</v>
       </c>
       <c r="G291" t="n">
-        <v>-33919103.22259999</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9143,15 @@
         <v>426169.3661990219</v>
       </c>
       <c r="G292" t="n">
-        <v>-34345272.58879901</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9173,15 @@
         <v>6010.726</v>
       </c>
       <c r="G293" t="n">
-        <v>-34345272.58879901</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9203,15 @@
         <v>1036576.8478</v>
       </c>
       <c r="G294" t="n">
-        <v>-35381849.43659902</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9233,15 @@
         <v>612864.9784</v>
       </c>
       <c r="G295" t="n">
-        <v>-35994714.41499902</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9263,15 @@
         <v>2118871.9965</v>
       </c>
       <c r="G296" t="n">
-        <v>-35994714.41499902</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9293,15 @@
         <v>10747.5619</v>
       </c>
       <c r="G297" t="n">
-        <v>-35983966.85309902</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9323,15 @@
         <v>8183.7481</v>
       </c>
       <c r="G298" t="n">
-        <v>-35975783.10499902</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9353,15 @@
         <v>240</v>
       </c>
       <c r="G299" t="n">
-        <v>-35976023.10499902</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9383,15 @@
         <v>19865.9157</v>
       </c>
       <c r="G300" t="n">
-        <v>-35995889.02069902</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9413,15 @@
         <v>735873.8091</v>
       </c>
       <c r="G301" t="n">
-        <v>-35995889.02069902</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9443,15 @@
         <v>44493.8041</v>
       </c>
       <c r="G302" t="n">
-        <v>-36040382.82479902</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9473,15 @@
         <v>548376.8578</v>
       </c>
       <c r="G303" t="n">
-        <v>-36040382.82479902</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9503,19 @@
         <v>88472.4771</v>
       </c>
       <c r="G304" t="n">
-        <v>-35951910.34769902</v>
+        <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>2.095</v>
+      </c>
+      <c r="I304" t="n">
+        <v>2.095</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9537,23 @@
         <v>428.4435</v>
       </c>
       <c r="G305" t="n">
-        <v>-35952338.79119902</v>
+        <v>1</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+        <v>2.109</v>
+      </c>
+      <c r="I305" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9575,23 @@
         <v>2250100.8496</v>
       </c>
       <c r="G306" t="n">
-        <v>-33702237.94159902</v>
+        <v>1</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+        <v>2.097</v>
+      </c>
+      <c r="I306" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9613,19 @@
         <v>10607.3712</v>
       </c>
       <c r="G307" t="n">
-        <v>-33691630.57039902</v>
+        <v>1</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>2.099</v>
+      </c>
+      <c r="I307" t="n">
+        <v>2.099</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9647,21 @@
         <v>107603.4371</v>
       </c>
       <c r="G308" t="n">
-        <v>-33691630.57039902</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9683,21 @@
         <v>580000</v>
       </c>
       <c r="G309" t="n">
-        <v>-33691630.57039902</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9719,15 @@
         <v>8865.693799999999</v>
       </c>
       <c r="G310" t="n">
-        <v>-33691630.57039902</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9749,15 @@
         <v>58925.9466</v>
       </c>
       <c r="G311" t="n">
-        <v>-33750556.51699901</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9779,15 @@
         <v>25017.0783357346</v>
       </c>
       <c r="G312" t="n">
-        <v>-33725539.43866328</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9809,19 @@
         <v>9630.419164265402</v>
       </c>
       <c r="G313" t="n">
-        <v>-33725539.43866328</v>
+        <v>1</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>2.11</v>
+      </c>
+      <c r="I313" t="n">
+        <v>2.11</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9843,23 @@
         <v>239950.4634</v>
       </c>
       <c r="G314" t="n">
-        <v>-33485588.97526328</v>
+        <v>1</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+        <v>2.11</v>
+      </c>
+      <c r="I314" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +9881,21 @@
         <v>250926.6520357346</v>
       </c>
       <c r="G315" t="n">
-        <v>-33736515.62729902</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +9917,21 @@
         <v>240</v>
       </c>
       <c r="G316" t="n">
-        <v>-33736275.62729902</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +9953,21 @@
         <v>414233.6957</v>
       </c>
       <c r="G317" t="n">
-        <v>-33322041.93159902</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +9989,21 @@
         <v>244</v>
       </c>
       <c r="G318" t="n">
-        <v>-33321797.93159902</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +10025,21 @@
         <v>410847.1833</v>
       </c>
       <c r="G319" t="n">
-        <v>-33732645.11489902</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +10061,21 @@
         <v>696309.3994</v>
       </c>
       <c r="G320" t="n">
-        <v>-33732645.11489902</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10097,21 @@
         <v>1607.7882</v>
       </c>
       <c r="G321" t="n">
-        <v>-33732645.11489902</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10133,21 @@
         <v>24551.0511</v>
       </c>
       <c r="G322" t="n">
-        <v>-33732645.11489902</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10169,21 @@
         <v>371945.3453009781</v>
       </c>
       <c r="G323" t="n">
-        <v>-33360699.76959804</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10205,21 @@
         <v>536.9826</v>
       </c>
       <c r="G324" t="n">
-        <v>-33361236.75219804</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,18 +10241,21 @@
         <v>58636.2116</v>
       </c>
       <c r="G325" t="n">
-        <v>-33302600.54059804</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11140,18 +10277,21 @@
         <v>240</v>
       </c>
       <c r="G326" t="n">
-        <v>-33302840.54059804</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11173,18 +10313,21 @@
         <v>888</v>
       </c>
       <c r="G327" t="n">
-        <v>-33303728.54059804</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11206,18 +10349,21 @@
         <v>1391956.3697</v>
       </c>
       <c r="G328" t="n">
-        <v>-34695684.91029804</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11239,18 +10385,21 @@
         <v>240</v>
       </c>
       <c r="G329" t="n">
-        <v>-34695444.91029804</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11272,18 +10421,21 @@
         <v>791558.777</v>
       </c>
       <c r="G330" t="n">
-        <v>-33903886.13329804</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11305,18 +10457,21 @@
         <v>244</v>
       </c>
       <c r="G331" t="n">
-        <v>-33904130.13329804</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11338,18 +10493,21 @@
         <v>1818.181</v>
       </c>
       <c r="G332" t="n">
-        <v>-33905948.31429804</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11371,18 +10529,21 @@
         <v>444</v>
       </c>
       <c r="G333" t="n">
-        <v>-33906392.31429804</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11404,18 +10565,21 @@
         <v>140.0154</v>
       </c>
       <c r="G334" t="n">
-        <v>-33906392.31429804</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11437,18 +10601,21 @@
         <v>1137.9846</v>
       </c>
       <c r="G335" t="n">
-        <v>-33905254.32969804</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11470,18 +10637,21 @@
         <v>31881.7888</v>
       </c>
       <c r="G336" t="n">
-        <v>-33905254.32969804</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11503,18 +10673,21 @@
         <v>322118.7789</v>
       </c>
       <c r="G337" t="n">
-        <v>-33905254.32969804</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11536,18 +10709,21 @@
         <v>5744.5549</v>
       </c>
       <c r="G338" t="n">
-        <v>-33905254.32969804</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11569,18 +10745,21 @@
         <v>200000</v>
       </c>
       <c r="G339" t="n">
-        <v>-33705254.32969804</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11602,18 +10781,21 @@
         <v>100000</v>
       </c>
       <c r="G340" t="n">
-        <v>-33805254.32969804</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11635,18 +10817,21 @@
         <v>71211.79180000001</v>
       </c>
       <c r="G341" t="n">
-        <v>-33805254.32969804</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -11668,18 +10853,21 @@
         <v>1532</v>
       </c>
       <c r="G342" t="n">
-        <v>-33806786.32969804</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11701,18 +10889,21 @@
         <v>180020.6195</v>
       </c>
       <c r="G343" t="n">
-        <v>-33626765.71019804</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -11734,18 +10925,21 @@
         <v>358664.3625</v>
       </c>
       <c r="G344" t="n">
-        <v>-33626765.71019804</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -11767,18 +10961,21 @@
         <v>181670.8529</v>
       </c>
       <c r="G345" t="n">
-        <v>-33626765.71019804</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -11800,24 +10997,21 @@
         <v>102088</v>
       </c>
       <c r="G346" t="n">
-        <v>-33728853.71019804</v>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
       <c r="I346" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
+        <v>2.11</v>
+      </c>
+      <c r="J346" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
+      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -11839,24 +11033,21 @@
         <v>41963.1977</v>
       </c>
       <c r="G347" t="n">
-        <v>-33728853.71019804</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
       <c r="I347" t="n">
-        <v>2.151</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
+        <v>2.11</v>
+      </c>
+      <c r="J347" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -11878,24 +11069,21 @@
         <v>880037.3352</v>
       </c>
       <c r="G348" t="n">
-        <v>-34608891.04539804</v>
-      </c>
-      <c r="H348" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
       <c r="I348" t="n">
-        <v>2.151</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
+        <v>2.11</v>
+      </c>
+      <c r="J348" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -11917,24 +11105,21 @@
         <v>244</v>
       </c>
       <c r="G349" t="n">
-        <v>-34608647.04539804</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H349" t="inlineStr"/>
       <c r="I349" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
+        <v>2.11</v>
+      </c>
+      <c r="J349" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -11956,24 +11141,21 @@
         <v>244</v>
       </c>
       <c r="G350" t="n">
-        <v>-34608891.04539804</v>
-      </c>
-      <c r="H350" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
       <c r="I350" t="n">
-        <v>2.169</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
+        <v>2.11</v>
+      </c>
+      <c r="J350" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -11995,24 +11177,21 @@
         <v>649.8099999999999</v>
       </c>
       <c r="G351" t="n">
-        <v>-34609540.85539804</v>
-      </c>
-      <c r="H351" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H351" t="inlineStr"/>
       <c r="I351" t="n">
-        <v>2.166</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
+        <v>2.11</v>
+      </c>
+      <c r="J351" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
+      <c r="L351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -12034,24 +11213,21 @@
         <v>5559.4172</v>
       </c>
       <c r="G352" t="n">
-        <v>-34603981.43819804</v>
-      </c>
-      <c r="H352" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H352" t="inlineStr"/>
       <c r="I352" t="n">
-        <v>2.122</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
+        <v>2.11</v>
+      </c>
+      <c r="J352" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>1</v>
+      </c>
+      <c r="L352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -12073,24 +11249,21 @@
         <v>9376.339599999999</v>
       </c>
       <c r="G353" t="n">
-        <v>-34613357.77779804</v>
-      </c>
-      <c r="H353" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H353" t="inlineStr"/>
       <c r="I353" t="n">
-        <v>2.169</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
+        <v>2.11</v>
+      </c>
+      <c r="J353" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>1</v>
+      </c>
+      <c r="L353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -12112,24 +11285,21 @@
         <v>240</v>
       </c>
       <c r="G354" t="n">
-        <v>-34613357.77779804</v>
-      </c>
-      <c r="H354" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
       <c r="I354" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
+        <v>2.11</v>
+      </c>
+      <c r="J354" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>1</v>
+      </c>
+      <c r="L354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -12151,24 +11321,21 @@
         <v>152238.2459</v>
       </c>
       <c r="G355" t="n">
-        <v>-34765596.02369804</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H355" t="inlineStr"/>
       <c r="I355" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
+        <v>2.11</v>
+      </c>
+      <c r="J355" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>1</v>
+      </c>
+      <c r="L355" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
